--- a/attached_assets/SURVEY DATA.xlsx
+++ b/attached_assets/SURVEY DATA.xlsx
@@ -1,13 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianappleby/OIM7502/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5E08F31-DAA6-154A-8DA2-CC3B4EACF736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="RESPONSES" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="QUESTIONS" sheetId="2" r:id="rId5"/>
+    <sheet name="RESPONSES" sheetId="1" r:id="rId1"/>
+    <sheet name="QUESTIONS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RESPONSES!$A$1:$A$1000</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">RESPONSES!$B$105</definedName>
+  </definedNames>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -959,23 +988,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -984,7 +1016,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -994,7 +1026,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1008,46 +1046,50 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1237,146 +1279,148 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:DT1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.86"/>
-    <col customWidth="1" min="2" max="2" width="20.29"/>
-    <col customWidth="1" min="3" max="3" width="16.0"/>
-    <col customWidth="1" min="4" max="4" width="19.29"/>
-    <col customWidth="1" min="5" max="5" width="16.0"/>
-    <col customWidth="1" min="6" max="6" width="19.29"/>
-    <col customWidth="1" min="7" max="7" width="16.0"/>
-    <col customWidth="1" min="8" max="8" width="19.29"/>
-    <col customWidth="1" min="9" max="9" width="16.0"/>
-    <col customWidth="1" min="10" max="10" width="19.29"/>
-    <col customWidth="1" min="11" max="11" width="16.0"/>
-    <col customWidth="1" min="12" max="12" width="19.29"/>
-    <col customWidth="1" min="13" max="13" width="16.0"/>
-    <col customWidth="1" min="14" max="14" width="19.29"/>
-    <col customWidth="1" min="15" max="15" width="16.0"/>
-    <col customWidth="1" min="16" max="16" width="19.29"/>
-    <col customWidth="1" min="17" max="17" width="16.0"/>
-    <col customWidth="1" min="18" max="18" width="19.29"/>
-    <col customWidth="1" min="19" max="19" width="16.0"/>
-    <col customWidth="1" min="20" max="20" width="19.29"/>
-    <col customWidth="1" min="21" max="21" width="16.0"/>
-    <col customWidth="1" min="22" max="22" width="19.29"/>
-    <col customWidth="1" min="23" max="23" width="16.0"/>
-    <col customWidth="1" min="24" max="24" width="19.29"/>
-    <col customWidth="1" min="25" max="25" width="4.86"/>
-    <col customWidth="1" min="26" max="26" width="16.0"/>
-    <col customWidth="1" min="27" max="27" width="19.29"/>
-    <col customWidth="1" min="28" max="28" width="16.0"/>
-    <col customWidth="1" min="29" max="29" width="19.29"/>
-    <col customWidth="1" min="30" max="30" width="16.0"/>
-    <col customWidth="1" min="31" max="31" width="19.29"/>
-    <col customWidth="1" min="32" max="32" width="16.0"/>
-    <col customWidth="1" min="33" max="33" width="19.29"/>
-    <col customWidth="1" min="34" max="34" width="16.0"/>
-    <col customWidth="1" min="35" max="35" width="19.29"/>
-    <col customWidth="1" min="36" max="36" width="16.0"/>
-    <col customWidth="1" min="37" max="37" width="19.29"/>
-    <col customWidth="1" min="38" max="38" width="16.0"/>
-    <col customWidth="1" min="39" max="39" width="19.29"/>
-    <col customWidth="1" min="40" max="40" width="16.0"/>
-    <col customWidth="1" min="41" max="41" width="19.29"/>
-    <col customWidth="1" min="42" max="42" width="16.0"/>
-    <col customWidth="1" min="43" max="43" width="19.29"/>
-    <col customWidth="1" min="44" max="44" width="16.0"/>
-    <col customWidth="1" min="45" max="45" width="19.29"/>
-    <col customWidth="1" min="46" max="46" width="16.0"/>
-    <col customWidth="1" min="47" max="47" width="19.29"/>
-    <col customWidth="1" min="48" max="48" width="4.86"/>
-    <col customWidth="1" min="49" max="49" width="16.0"/>
-    <col customWidth="1" min="50" max="50" width="19.29"/>
-    <col customWidth="1" min="51" max="51" width="16.0"/>
-    <col customWidth="1" min="52" max="52" width="19.29"/>
-    <col customWidth="1" min="53" max="53" width="16.0"/>
-    <col customWidth="1" min="54" max="54" width="19.29"/>
-    <col customWidth="1" min="55" max="55" width="16.0"/>
-    <col customWidth="1" min="56" max="56" width="19.29"/>
-    <col customWidth="1" min="57" max="57" width="16.0"/>
-    <col customWidth="1" min="58" max="58" width="19.29"/>
-    <col customWidth="1" min="59" max="59" width="16.0"/>
-    <col customWidth="1" min="60" max="60" width="19.29"/>
-    <col customWidth="1" min="61" max="61" width="16.0"/>
-    <col customWidth="1" min="62" max="62" width="19.29"/>
-    <col customWidth="1" min="63" max="63" width="16.0"/>
-    <col customWidth="1" min="64" max="64" width="19.29"/>
-    <col customWidth="1" min="65" max="65" width="16.0"/>
-    <col customWidth="1" min="66" max="66" width="19.29"/>
-    <col customWidth="1" min="67" max="67" width="16.0"/>
-    <col customWidth="1" min="68" max="68" width="19.29"/>
-    <col customWidth="1" min="69" max="69" width="4.86"/>
-    <col customWidth="1" min="70" max="70" width="16.0"/>
-    <col customWidth="1" min="71" max="71" width="19.29"/>
-    <col customWidth="1" min="72" max="72" width="16.0"/>
-    <col customWidth="1" min="73" max="73" width="19.29"/>
-    <col customWidth="1" min="74" max="74" width="16.0"/>
-    <col customWidth="1" min="75" max="75" width="19.29"/>
-    <col customWidth="1" min="76" max="76" width="16.0"/>
-    <col customWidth="1" min="77" max="77" width="19.29"/>
-    <col customWidth="1" min="78" max="78" width="16.0"/>
-    <col customWidth="1" min="79" max="79" width="19.29"/>
-    <col customWidth="1" min="80" max="80" width="16.0"/>
-    <col customWidth="1" min="81" max="81" width="19.29"/>
-    <col customWidth="1" min="82" max="82" width="16.0"/>
-    <col customWidth="1" min="83" max="83" width="19.29"/>
-    <col customWidth="1" min="84" max="84" width="16.0"/>
-    <col customWidth="1" min="85" max="85" width="19.29"/>
-    <col customWidth="1" min="86" max="86" width="16.0"/>
-    <col customWidth="1" min="87" max="87" width="19.29"/>
-    <col customWidth="1" min="88" max="88" width="16.0"/>
-    <col customWidth="1" min="89" max="89" width="19.29"/>
-    <col customWidth="1" min="90" max="90" width="16.0"/>
-    <col customWidth="1" min="91" max="91" width="19.29"/>
-    <col customWidth="1" min="92" max="92" width="16.0"/>
-    <col customWidth="1" min="93" max="93" width="19.29"/>
-    <col customWidth="1" min="94" max="94" width="16.0"/>
-    <col customWidth="1" min="95" max="95" width="19.29"/>
-    <col customWidth="1" min="96" max="96" width="16.0"/>
-    <col customWidth="1" min="97" max="97" width="19.29"/>
-    <col customWidth="1" min="98" max="98" width="4.86"/>
-    <col customWidth="1" min="99" max="99" width="16.0"/>
-    <col customWidth="1" min="100" max="100" width="19.29"/>
-    <col customWidth="1" min="101" max="101" width="16.0"/>
-    <col customWidth="1" min="102" max="102" width="19.29"/>
-    <col customWidth="1" min="103" max="103" width="16.0"/>
-    <col customWidth="1" min="104" max="104" width="19.29"/>
-    <col customWidth="1" min="105" max="105" width="16.0"/>
-    <col customWidth="1" min="106" max="106" width="19.29"/>
-    <col customWidth="1" min="107" max="107" width="16.0"/>
-    <col customWidth="1" min="108" max="108" width="19.29"/>
-    <col customWidth="1" min="109" max="109" width="16.0"/>
-    <col customWidth="1" min="110" max="110" width="19.29"/>
-    <col customWidth="1" min="111" max="111" width="16.0"/>
-    <col customWidth="1" min="112" max="112" width="19.29"/>
-    <col customWidth="1" min="113" max="113" width="16.0"/>
-    <col customWidth="1" min="114" max="114" width="19.29"/>
-    <col customWidth="1" min="115" max="115" width="16.0"/>
-    <col customWidth="1" min="116" max="116" width="19.29"/>
-    <col customWidth="1" min="117" max="117" width="16.0"/>
-    <col customWidth="1" min="118" max="118" width="19.29"/>
-    <col customWidth="1" min="119" max="119" width="4.86"/>
-    <col customWidth="1" min="120" max="120" width="19.29"/>
-    <col customWidth="1" min="121" max="121" width="16.0"/>
-    <col customWidth="1" min="122" max="122" width="23.86"/>
-    <col customWidth="1" min="123" max="123" width="19.29"/>
-    <col customWidth="1" min="124" max="124" width="4.86"/>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="16" max="16" width="19.33203125" customWidth="1"/>
+    <col min="17" max="17" width="16" customWidth="1"/>
+    <col min="18" max="18" width="19.33203125" customWidth="1"/>
+    <col min="19" max="19" width="16" customWidth="1"/>
+    <col min="20" max="20" width="19.33203125" customWidth="1"/>
+    <col min="21" max="21" width="16" customWidth="1"/>
+    <col min="22" max="22" width="19.33203125" customWidth="1"/>
+    <col min="23" max="23" width="16" customWidth="1"/>
+    <col min="24" max="24" width="19.33203125" customWidth="1"/>
+    <col min="25" max="25" width="4.83203125" customWidth="1"/>
+    <col min="26" max="26" width="16" customWidth="1"/>
+    <col min="27" max="27" width="19.33203125" customWidth="1"/>
+    <col min="28" max="28" width="16" customWidth="1"/>
+    <col min="29" max="29" width="19.33203125" customWidth="1"/>
+    <col min="30" max="30" width="16" customWidth="1"/>
+    <col min="31" max="31" width="19.33203125" customWidth="1"/>
+    <col min="32" max="32" width="16" customWidth="1"/>
+    <col min="33" max="33" width="19.33203125" customWidth="1"/>
+    <col min="34" max="34" width="16" customWidth="1"/>
+    <col min="35" max="35" width="19.33203125" customWidth="1"/>
+    <col min="36" max="36" width="16" customWidth="1"/>
+    <col min="37" max="37" width="19.33203125" customWidth="1"/>
+    <col min="38" max="38" width="16" customWidth="1"/>
+    <col min="39" max="39" width="19.33203125" customWidth="1"/>
+    <col min="40" max="40" width="16" customWidth="1"/>
+    <col min="41" max="41" width="19.33203125" customWidth="1"/>
+    <col min="42" max="42" width="16" customWidth="1"/>
+    <col min="43" max="43" width="19.33203125" customWidth="1"/>
+    <col min="44" max="44" width="16" customWidth="1"/>
+    <col min="45" max="45" width="19.33203125" customWidth="1"/>
+    <col min="46" max="46" width="16" customWidth="1"/>
+    <col min="47" max="47" width="19.33203125" customWidth="1"/>
+    <col min="48" max="48" width="4.83203125" customWidth="1"/>
+    <col min="49" max="49" width="16" customWidth="1"/>
+    <col min="50" max="50" width="19.33203125" customWidth="1"/>
+    <col min="51" max="51" width="16" customWidth="1"/>
+    <col min="52" max="52" width="19.33203125" customWidth="1"/>
+    <col min="53" max="53" width="16" customWidth="1"/>
+    <col min="54" max="54" width="19.33203125" customWidth="1"/>
+    <col min="55" max="55" width="16" customWidth="1"/>
+    <col min="56" max="56" width="19.33203125" customWidth="1"/>
+    <col min="57" max="57" width="16" customWidth="1"/>
+    <col min="58" max="58" width="19.33203125" customWidth="1"/>
+    <col min="59" max="59" width="16" customWidth="1"/>
+    <col min="60" max="60" width="19.33203125" customWidth="1"/>
+    <col min="61" max="61" width="16" customWidth="1"/>
+    <col min="62" max="62" width="19.33203125" customWidth="1"/>
+    <col min="63" max="63" width="16" customWidth="1"/>
+    <col min="64" max="64" width="19.33203125" customWidth="1"/>
+    <col min="65" max="65" width="16" customWidth="1"/>
+    <col min="66" max="66" width="19.33203125" customWidth="1"/>
+    <col min="67" max="67" width="16" customWidth="1"/>
+    <col min="68" max="68" width="19.33203125" customWidth="1"/>
+    <col min="69" max="69" width="4.83203125" customWidth="1"/>
+    <col min="70" max="70" width="16" customWidth="1"/>
+    <col min="71" max="71" width="19.33203125" customWidth="1"/>
+    <col min="72" max="72" width="16" customWidth="1"/>
+    <col min="73" max="73" width="19.33203125" customWidth="1"/>
+    <col min="74" max="74" width="16" customWidth="1"/>
+    <col min="75" max="75" width="19.33203125" customWidth="1"/>
+    <col min="76" max="76" width="16" customWidth="1"/>
+    <col min="77" max="77" width="19.33203125" customWidth="1"/>
+    <col min="78" max="78" width="16" customWidth="1"/>
+    <col min="79" max="79" width="19.33203125" customWidth="1"/>
+    <col min="80" max="80" width="16" customWidth="1"/>
+    <col min="81" max="81" width="19.33203125" customWidth="1"/>
+    <col min="82" max="82" width="16" customWidth="1"/>
+    <col min="83" max="83" width="19.33203125" customWidth="1"/>
+    <col min="84" max="84" width="16" customWidth="1"/>
+    <col min="85" max="85" width="19.33203125" customWidth="1"/>
+    <col min="86" max="86" width="16" customWidth="1"/>
+    <col min="87" max="87" width="19.33203125" customWidth="1"/>
+    <col min="88" max="88" width="16" customWidth="1"/>
+    <col min="89" max="89" width="19.33203125" customWidth="1"/>
+    <col min="90" max="90" width="16" customWidth="1"/>
+    <col min="91" max="91" width="19.33203125" customWidth="1"/>
+    <col min="92" max="92" width="16" customWidth="1"/>
+    <col min="93" max="93" width="19.33203125" customWidth="1"/>
+    <col min="94" max="94" width="16" customWidth="1"/>
+    <col min="95" max="95" width="19.33203125" customWidth="1"/>
+    <col min="96" max="96" width="16" customWidth="1"/>
+    <col min="97" max="97" width="19.33203125" customWidth="1"/>
+    <col min="98" max="98" width="4.83203125" customWidth="1"/>
+    <col min="99" max="99" width="16" customWidth="1"/>
+    <col min="100" max="100" width="19.33203125" customWidth="1"/>
+    <col min="101" max="101" width="16" customWidth="1"/>
+    <col min="102" max="102" width="19.33203125" customWidth="1"/>
+    <col min="103" max="103" width="16" customWidth="1"/>
+    <col min="104" max="104" width="19.33203125" customWidth="1"/>
+    <col min="105" max="105" width="16" customWidth="1"/>
+    <col min="106" max="106" width="19.33203125" customWidth="1"/>
+    <col min="107" max="107" width="16" customWidth="1"/>
+    <col min="108" max="108" width="19.33203125" customWidth="1"/>
+    <col min="109" max="109" width="16" customWidth="1"/>
+    <col min="110" max="110" width="19.33203125" customWidth="1"/>
+    <col min="111" max="111" width="16" customWidth="1"/>
+    <col min="112" max="112" width="19.33203125" customWidth="1"/>
+    <col min="113" max="113" width="16" customWidth="1"/>
+    <col min="114" max="114" width="19.33203125" customWidth="1"/>
+    <col min="115" max="115" width="16" customWidth="1"/>
+    <col min="116" max="116" width="19.33203125" customWidth="1"/>
+    <col min="117" max="117" width="16" customWidth="1"/>
+    <col min="118" max="118" width="19.33203125" customWidth="1"/>
+    <col min="119" max="119" width="4.83203125" customWidth="1"/>
+    <col min="120" max="120" width="19.33203125" customWidth="1"/>
+    <col min="121" max="121" width="16" customWidth="1"/>
+    <col min="122" max="122" width="23.83203125" customWidth="1"/>
+    <col min="123" max="123" width="19.33203125" customWidth="1"/>
+    <col min="124" max="124" width="4.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1">
+    <row r="1" spans="1:124" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1750,7 +1794,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>124</v>
       </c>
@@ -2106,7 +2150,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>138</v>
       </c>
@@ -2462,7 +2506,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>138</v>
       </c>
@@ -2818,7 +2862,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>143</v>
       </c>
@@ -3174,7 +3218,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>145</v>
       </c>
@@ -3530,7 +3574,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>147</v>
       </c>
@@ -3886,7 +3930,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>147</v>
       </c>
@@ -4242,7 +4286,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>143</v>
       </c>
@@ -4598,7 +4642,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>149</v>
       </c>
@@ -4954,7 +4998,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>138</v>
       </c>
@@ -5310,7 +5354,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>151</v>
       </c>
@@ -5666,7 +5710,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>152</v>
       </c>
@@ -6022,7 +6066,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>151</v>
       </c>
@@ -6378,7 +6422,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>153</v>
       </c>
@@ -6734,7 +6778,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>149</v>
       </c>
@@ -7090,7 +7134,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>153</v>
       </c>
@@ -7446,7 +7490,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>155</v>
       </c>
@@ -7802,7 +7846,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>143</v>
       </c>
@@ -8158,7 +8202,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>156</v>
       </c>
@@ -8514,7 +8558,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>157</v>
       </c>
@@ -8870,7 +8914,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>147</v>
       </c>
@@ -9226,7 +9270,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>158</v>
       </c>
@@ -9582,7 +9626,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>151</v>
       </c>
@@ -9938,7 +9982,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>159</v>
       </c>
@@ -10294,7 +10338,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>160</v>
       </c>
@@ -10650,7 +10694,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>161</v>
       </c>
@@ -11006,7 +11050,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>160</v>
       </c>
@@ -11362,7 +11406,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>160</v>
       </c>
@@ -11718,7 +11762,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>143</v>
       </c>
@@ -12074,7 +12118,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>162</v>
       </c>
@@ -12430,7 +12474,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>160</v>
       </c>
@@ -12786,7 +12830,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>145</v>
       </c>
@@ -13142,7 +13186,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>161</v>
       </c>
@@ -13498,7 +13542,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>124</v>
       </c>
@@ -13854,7 +13898,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>158</v>
       </c>
@@ -14210,7 +14254,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>162</v>
       </c>
@@ -14566,7 +14610,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>138</v>
       </c>
@@ -14922,7 +14966,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>151</v>
       </c>
@@ -15278,7 +15322,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>163</v>
       </c>
@@ -15634,7 +15678,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>145</v>
       </c>
@@ -15990,7 +16034,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>143</v>
       </c>
@@ -16346,7 +16390,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>143</v>
       </c>
@@ -16702,7 +16746,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>160</v>
       </c>
@@ -17058,7 +17102,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>156</v>
       </c>
@@ -17414,7 +17458,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>143</v>
       </c>
@@ -17770,7 +17814,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>124</v>
       </c>
@@ -18126,7 +18170,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>143</v>
       </c>
@@ -18482,7 +18526,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>162</v>
       </c>
@@ -18838,7 +18882,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>151</v>
       </c>
@@ -19194,7 +19238,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>152</v>
       </c>
@@ -19550,7 +19594,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>147</v>
       </c>
@@ -19906,7 +19950,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>153</v>
       </c>
@@ -20262,7 +20306,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>161</v>
       </c>
@@ -20618,7 +20662,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>138</v>
       </c>
@@ -20974,7 +21018,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>159</v>
       </c>
@@ -21330,7 +21374,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>164</v>
       </c>
@@ -21686,7 +21730,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>124</v>
       </c>
@@ -22042,7 +22086,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>145</v>
       </c>
@@ -22398,7 +22442,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>161</v>
       </c>
@@ -22754,7 +22798,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>161</v>
       </c>
@@ -23110,7 +23154,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>156</v>
       </c>
@@ -23466,7 +23510,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>145</v>
       </c>
@@ -23822,7 +23866,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>151</v>
       </c>
@@ -24178,7 +24222,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>158</v>
       </c>
@@ -24534,7 +24578,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>145</v>
       </c>
@@ -24890,7 +24934,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>138</v>
       </c>
@@ -25246,7 +25290,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>145</v>
       </c>
@@ -25602,7 +25646,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>162</v>
       </c>
@@ -25958,7 +26002,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>158</v>
       </c>
@@ -26314,7 +26358,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>157</v>
       </c>
@@ -26670,7 +26714,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>155</v>
       </c>
@@ -27026,7 +27070,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>147</v>
       </c>
@@ -27382,7 +27426,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>156</v>
       </c>
@@ -27738,7 +27782,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>155</v>
       </c>
@@ -28094,7 +28138,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>145</v>
       </c>
@@ -28450,7 +28494,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>138</v>
       </c>
@@ -28806,7 +28850,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>157</v>
       </c>
@@ -29162,7 +29206,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>165</v>
       </c>
@@ -29518,7 +29562,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>157</v>
       </c>
@@ -29874,7 +29918,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>124</v>
       </c>
@@ -30230,7 +30274,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>162</v>
       </c>
@@ -30586,7 +30630,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>149</v>
       </c>
@@ -30942,7 +30986,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>161</v>
       </c>
@@ -31298,7 +31342,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>145</v>
       </c>
@@ -31654,7 +31698,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>161</v>
       </c>
@@ -32010,7 +32054,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>165</v>
       </c>
@@ -32366,7 +32410,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>152</v>
       </c>
@@ -32722,7 +32766,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>160</v>
       </c>
@@ -33078,7 +33122,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>164</v>
       </c>
@@ -33434,7 +33478,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>162</v>
       </c>
@@ -33790,7 +33834,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>124</v>
       </c>
@@ -34146,7 +34190,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>124</v>
       </c>
@@ -34502,7 +34546,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>138</v>
       </c>
@@ -34858,7 +34902,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>145</v>
       </c>
@@ -35214,7 +35258,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>162</v>
       </c>
@@ -35570,7 +35614,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>161</v>
       </c>
@@ -35926,7 +35970,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>145</v>
       </c>
@@ -36282,7 +36326,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>147</v>
       </c>
@@ -36638,7 +36682,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>149</v>
       </c>
@@ -36994,7 +37038,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>156</v>
       </c>
@@ -37350,960 +37394,1002 @@
         <v>131</v>
       </c>
     </row>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="102" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="5"/>
+    </row>
+    <row r="106" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B106" s="2"/>
+    </row>
+    <row r="107" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B107" s="2"/>
+    </row>
+    <row r="108" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B108" s="2"/>
+    </row>
+    <row r="109" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B109" s="2"/>
+    </row>
+    <row r="110" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B110" s="2"/>
+    </row>
+    <row r="111" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B111" s="2"/>
+    </row>
+    <row r="112" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="2"/>
+    </row>
+    <row r="113" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B113" s="2"/>
+    </row>
+    <row r="114" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B114" s="2"/>
+    </row>
+    <row r="115" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B115" s="2"/>
+    </row>
+    <row r="116" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B116" s="2"/>
+    </row>
+    <row r="117" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B117" s="2"/>
+    </row>
+    <row r="118" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B118" s="2"/>
+    </row>
+    <row r="119" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B119" s="2"/>
+    </row>
+    <row r="120" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B120" s="2"/>
+    </row>
+    <row r="121" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B121" s="2"/>
+    </row>
+    <row r="122" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B122" s="2"/>
+    </row>
+    <row r="123" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B123" s="2"/>
+    </row>
+    <row r="124" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B124" s="2"/>
+    </row>
+    <row r="125" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B125" s="2"/>
+    </row>
+    <row r="126" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B126" s="2"/>
+    </row>
+    <row r="127" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="24.0"/>
-    <col customWidth="1" min="2" max="2" width="8.71"/>
-    <col customWidth="1" min="3" max="3" width="42.29"/>
-    <col customWidth="1" min="4" max="4" width="13.71"/>
-    <col customWidth="1" min="5" max="5" width="11.0"/>
-    <col customWidth="1" min="6" max="6" width="88.71"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="88.6640625" customWidth="1"/>
+    <col min="7" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>174</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -38316,14 +38402,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>174</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -38336,14 +38422,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -38356,14 +38442,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -38376,14 +38462,14 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>184</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -38396,14 +38482,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>184</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -38416,14 +38502,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>186</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -38436,14 +38522,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>186</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -38456,14 +38542,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -38476,14 +38562,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -38496,14 +38582,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>190</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -38516,14 +38602,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>190</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -38536,14 +38622,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>192</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -38556,14 +38642,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>192</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -38576,14 +38662,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>194</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -38596,14 +38682,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>194</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -38616,14 +38702,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>196</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -38636,14 +38722,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>196</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -38656,14 +38742,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>198</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -38676,14 +38762,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>198</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -38696,14 +38782,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>200</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -38716,14 +38802,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>200</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -38736,28 +38822,28 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>201</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>205</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -38770,14 +38856,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>205</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -38790,14 +38876,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>207</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -38810,14 +38896,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>207</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -38830,14 +38916,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>209</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -38850,14 +38936,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>209</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -38870,14 +38956,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -38890,14 +38976,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -38910,14 +38996,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>213</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -38930,14 +39016,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>213</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -38950,14 +39036,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>215</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -38970,14 +39056,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>215</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -38990,14 +39076,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>217</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -39010,14 +39096,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>217</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -39030,14 +39116,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>219</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -39050,14 +39136,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>219</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -39070,14 +39156,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>221</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -39090,14 +39176,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>221</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -39110,14 +39196,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>223</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -39130,14 +39216,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="4" t="s">
         <v>223</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -39150,14 +39236,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="4" t="s">
         <v>225</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -39170,14 +39256,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="4" t="s">
         <v>225</v>
       </c>
       <c r="D46" s="2" t="s">
@@ -39190,28 +39276,28 @@
         <v>179</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="4" t="s">
         <v>226</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="4" t="s">
         <v>229</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -39224,14 +39310,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="4" t="s">
         <v>229</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -39244,14 +39330,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="4" t="s">
         <v>231</v>
       </c>
       <c r="D50" s="2" t="s">
@@ -39264,14 +39350,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="4" t="s">
         <v>231</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -39284,14 +39370,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="4" t="s">
         <v>233</v>
       </c>
       <c r="D52" s="2" t="s">
@@ -39304,14 +39390,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="4" t="s">
         <v>233</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -39324,14 +39410,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="4" t="s">
         <v>235</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -39344,14 +39430,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="4" t="s">
         <v>235</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -39364,14 +39450,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="4" t="s">
         <v>237</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -39384,14 +39470,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="4" t="s">
         <v>237</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -39404,14 +39490,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="4" t="s">
         <v>239</v>
       </c>
       <c r="D58" s="2" t="s">
@@ -39424,14 +39510,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="4" t="s">
         <v>239</v>
       </c>
       <c r="D59" s="2" t="s">
@@ -39444,14 +39530,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="4" t="s">
         <v>241</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -39464,14 +39550,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="4" t="s">
         <v>241</v>
       </c>
       <c r="D61" s="2" t="s">
@@ -39484,14 +39570,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="4" t="s">
         <v>243</v>
       </c>
       <c r="D62" s="2" t="s">
@@ -39504,14 +39590,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="4" t="s">
         <v>243</v>
       </c>
       <c r="D63" s="2" t="s">
@@ -39524,14 +39610,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="4" t="s">
         <v>245</v>
       </c>
       <c r="D64" s="2" t="s">
@@ -39544,14 +39630,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="4" t="s">
         <v>245</v>
       </c>
       <c r="D65" s="2" t="s">
@@ -39564,14 +39650,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="4" t="s">
         <v>247</v>
       </c>
       <c r="D66" s="2" t="s">
@@ -39584,14 +39670,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="4" t="s">
         <v>247</v>
       </c>
       <c r="D67" s="2" t="s">
@@ -39604,28 +39690,28 @@
         <v>179</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="4" t="s">
         <v>248</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="4" t="s">
         <v>251</v>
       </c>
       <c r="D69" s="2" t="s">
@@ -39638,14 +39724,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="4" t="s">
         <v>251</v>
       </c>
       <c r="D70" s="2" t="s">
@@ -39658,14 +39744,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="4" t="s">
         <v>253</v>
       </c>
       <c r="D71" s="2" t="s">
@@ -39678,14 +39764,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="4" t="s">
         <v>253</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -39698,14 +39784,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="4" t="s">
         <v>255</v>
       </c>
       <c r="D73" s="2" t="s">
@@ -39718,14 +39804,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="4" t="s">
         <v>255</v>
       </c>
       <c r="D74" s="2" t="s">
@@ -39738,14 +39824,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="4" t="s">
         <v>257</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -39758,14 +39844,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="4" t="s">
         <v>257</v>
       </c>
       <c r="D76" s="2" t="s">
@@ -39778,14 +39864,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="4" t="s">
         <v>259</v>
       </c>
       <c r="D77" s="2" t="s">
@@ -39798,14 +39884,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="4" t="s">
         <v>259</v>
       </c>
       <c r="D78" s="2" t="s">
@@ -39818,14 +39904,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="4" t="s">
         <v>261</v>
       </c>
       <c r="D79" s="2" t="s">
@@ -39838,14 +39924,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="4" t="s">
         <v>261</v>
       </c>
       <c r="D80" s="2" t="s">
@@ -39858,14 +39944,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" s="4" t="s">
         <v>263</v>
       </c>
       <c r="D81" s="2" t="s">
@@ -39878,14 +39964,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="4" t="s">
         <v>263</v>
       </c>
       <c r="D82" s="2" t="s">
@@ -39898,14 +39984,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="4" t="s">
         <v>265</v>
       </c>
       <c r="D83" s="2" t="s">
@@ -39918,14 +40004,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="4" t="s">
         <v>265</v>
       </c>
       <c r="D84" s="2" t="s">
@@ -39938,14 +40024,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="4" t="s">
         <v>267</v>
       </c>
       <c r="D85" s="2" t="s">
@@ -39958,14 +40044,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="4" t="s">
         <v>267</v>
       </c>
       <c r="D86" s="2" t="s">
@@ -39978,14 +40064,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="4" t="s">
         <v>269</v>
       </c>
       <c r="D87" s="2" t="s">
@@ -39998,14 +40084,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="4" t="s">
         <v>269</v>
       </c>
       <c r="D88" s="2" t="s">
@@ -40018,14 +40104,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C89" s="4" t="s">
         <v>271</v>
       </c>
       <c r="D89" s="2" t="s">
@@ -40038,14 +40124,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="4" t="s">
         <v>271</v>
       </c>
       <c r="D90" s="2" t="s">
@@ -40058,14 +40144,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="4" t="s">
         <v>273</v>
       </c>
       <c r="D91" s="2" t="s">
@@ -40078,14 +40164,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C92" s="4" t="s">
         <v>273</v>
       </c>
       <c r="D92" s="2" t="s">
@@ -40098,14 +40184,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="4" t="s">
         <v>275</v>
       </c>
       <c r="D93" s="2" t="s">
@@ -40118,14 +40204,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" s="4" t="s">
         <v>275</v>
       </c>
       <c r="D94" s="2" t="s">
@@ -40138,14 +40224,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" s="4" t="s">
         <v>277</v>
       </c>
       <c r="D95" s="2" t="s">
@@ -40158,14 +40244,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="4" t="s">
         <v>277</v>
       </c>
       <c r="D96" s="2" t="s">
@@ -40178,28 +40264,28 @@
         <v>179</v>
       </c>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" s="4" t="s">
         <v>278</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C98" s="4" t="s">
         <v>281</v>
       </c>
       <c r="D98" s="2" t="s">
@@ -40212,14 +40298,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C99" s="4" t="s">
         <v>281</v>
       </c>
       <c r="D99" s="2" t="s">
@@ -40232,14 +40318,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" s="4" t="s">
         <v>283</v>
       </c>
       <c r="D100" s="2" t="s">
@@ -40252,14 +40338,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C101" s="4" t="s">
         <v>283</v>
       </c>
       <c r="D101" s="2" t="s">
@@ -40272,14 +40358,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C102" s="4" t="s">
         <v>285</v>
       </c>
       <c r="D102" s="2" t="s">
@@ -40292,14 +40378,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C103" s="4" t="s">
         <v>285</v>
       </c>
       <c r="D103" s="2" t="s">
@@ -40312,14 +40398,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="C104" s="4" t="s">
         <v>287</v>
       </c>
       <c r="D104" s="2" t="s">
@@ -40332,14 +40418,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="C105" s="4" t="s">
         <v>287</v>
       </c>
       <c r="D105" s="2" t="s">
@@ -40352,14 +40438,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C106" s="4" t="s">
         <v>289</v>
       </c>
       <c r="D106" s="2" t="s">
@@ -40372,14 +40458,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="C107" s="4" t="s">
         <v>289</v>
       </c>
       <c r="D107" s="2" t="s">
@@ -40392,14 +40478,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C108" s="4" t="s">
         <v>291</v>
       </c>
       <c r="D108" s="2" t="s">
@@ -40412,14 +40498,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="C109" s="4" t="s">
         <v>291</v>
       </c>
       <c r="D109" s="2" t="s">
@@ -40432,14 +40518,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C110" s="4" t="s">
         <v>293</v>
       </c>
       <c r="D110" s="2" t="s">
@@ -40452,14 +40538,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C111" s="4" t="s">
         <v>293</v>
       </c>
       <c r="D111" s="2" t="s">
@@ -40472,14 +40558,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="C112" s="4" t="s">
         <v>295</v>
       </c>
       <c r="D112" s="2" t="s">
@@ -40492,14 +40578,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="C113" s="4" t="s">
         <v>295</v>
       </c>
       <c r="D113" s="2" t="s">
@@ -40512,14 +40598,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="C114" s="4" t="s">
         <v>297</v>
       </c>
       <c r="D114" s="2" t="s">
@@ -40532,14 +40618,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="C115" s="4" t="s">
         <v>297</v>
       </c>
       <c r="D115" s="2" t="s">
@@ -40552,14 +40638,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="C116" s="4" t="s">
         <v>299</v>
       </c>
       <c r="D116" s="2" t="s">
@@ -40572,14 +40658,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="C117" s="4" t="s">
         <v>299</v>
       </c>
       <c r="D117" s="2" t="s">
@@ -40592,28 +40678,28 @@
         <v>179</v>
       </c>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="C118" s="4" t="s">
         <v>300</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>301</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="C119" s="4" t="s">
         <v>303</v>
       </c>
       <c r="D119" s="2" t="s">
@@ -40626,14 +40712,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>301</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="C120" s="4" t="s">
         <v>305</v>
       </c>
       <c r="D120" s="2" t="s">
@@ -40643,14 +40729,14 @@
         <v>307</v>
       </c>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>301</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C121" s="5" t="s">
+      <c r="C121" s="4" t="s">
         <v>309</v>
       </c>
       <c r="D121" s="2" t="s">
@@ -40660,14 +40746,14 @@
         <v>310</v>
       </c>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>301</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="C122" s="4" t="s">
         <v>312</v>
       </c>
       <c r="D122" s="2" t="s">
@@ -40680,2655 +40766,899 @@
         <v>179</v>
       </c>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>301</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="C123" s="4" t="s">
         <v>313</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
-      <c r="C124" s="5"/>
-    </row>
-    <row r="125" ht="15.75" customHeight="1">
-      <c r="C125" s="5"/>
-    </row>
-    <row r="126" ht="15.75" customHeight="1">
-      <c r="C126" s="5"/>
-    </row>
-    <row r="127" ht="15.75" customHeight="1">
-      <c r="C127" s="5"/>
-    </row>
-    <row r="128" ht="15.75" customHeight="1">
-      <c r="C128" s="5"/>
-    </row>
-    <row r="129" ht="15.75" customHeight="1">
-      <c r="C129" s="5"/>
-    </row>
-    <row r="130" ht="15.75" customHeight="1">
-      <c r="C130" s="5"/>
-    </row>
-    <row r="131" ht="15.75" customHeight="1">
-      <c r="C131" s="5"/>
-    </row>
-    <row r="132" ht="15.75" customHeight="1">
-      <c r="C132" s="5"/>
-    </row>
-    <row r="133" ht="15.75" customHeight="1">
-      <c r="C133" s="5"/>
-    </row>
-    <row r="134" ht="15.75" customHeight="1">
-      <c r="C134" s="5"/>
-    </row>
-    <row r="135" ht="15.75" customHeight="1">
-      <c r="C135" s="5"/>
-    </row>
-    <row r="136" ht="15.75" customHeight="1">
-      <c r="C136" s="5"/>
-    </row>
-    <row r="137" ht="15.75" customHeight="1">
-      <c r="C137" s="5"/>
-    </row>
-    <row r="138" ht="15.75" customHeight="1">
-      <c r="C138" s="5"/>
-    </row>
-    <row r="139" ht="15.75" customHeight="1">
-      <c r="C139" s="5"/>
-    </row>
-    <row r="140" ht="15.75" customHeight="1">
-      <c r="C140" s="5"/>
-    </row>
-    <row r="141" ht="15.75" customHeight="1">
-      <c r="C141" s="5"/>
-    </row>
-    <row r="142" ht="15.75" customHeight="1">
-      <c r="C142" s="5"/>
-    </row>
-    <row r="143" ht="15.75" customHeight="1">
-      <c r="C143" s="5"/>
-    </row>
-    <row r="144" ht="15.75" customHeight="1">
-      <c r="C144" s="5"/>
-    </row>
-    <row r="145" ht="15.75" customHeight="1">
-      <c r="C145" s="5"/>
-    </row>
-    <row r="146" ht="15.75" customHeight="1">
-      <c r="C146" s="5"/>
-    </row>
-    <row r="147" ht="15.75" customHeight="1">
-      <c r="C147" s="5"/>
-    </row>
-    <row r="148" ht="15.75" customHeight="1">
-      <c r="C148" s="5"/>
-    </row>
-    <row r="149" ht="15.75" customHeight="1">
-      <c r="C149" s="5"/>
-    </row>
-    <row r="150" ht="15.75" customHeight="1">
-      <c r="C150" s="5"/>
-    </row>
-    <row r="151" ht="15.75" customHeight="1">
-      <c r="C151" s="5"/>
-    </row>
-    <row r="152" ht="15.75" customHeight="1">
-      <c r="C152" s="5"/>
-    </row>
-    <row r="153" ht="15.75" customHeight="1">
-      <c r="C153" s="5"/>
-    </row>
-    <row r="154" ht="15.75" customHeight="1">
-      <c r="C154" s="5"/>
-    </row>
-    <row r="155" ht="15.75" customHeight="1">
-      <c r="C155" s="5"/>
-    </row>
-    <row r="156" ht="15.75" customHeight="1">
-      <c r="C156" s="5"/>
-    </row>
-    <row r="157" ht="15.75" customHeight="1">
-      <c r="C157" s="5"/>
-    </row>
-    <row r="158" ht="15.75" customHeight="1">
-      <c r="C158" s="5"/>
-    </row>
-    <row r="159" ht="15.75" customHeight="1">
-      <c r="C159" s="5"/>
-    </row>
-    <row r="160" ht="15.75" customHeight="1">
-      <c r="C160" s="5"/>
-    </row>
-    <row r="161" ht="15.75" customHeight="1">
-      <c r="C161" s="5"/>
-    </row>
-    <row r="162" ht="15.75" customHeight="1">
-      <c r="C162" s="5"/>
-    </row>
-    <row r="163" ht="15.75" customHeight="1">
-      <c r="C163" s="5"/>
-    </row>
-    <row r="164" ht="15.75" customHeight="1">
-      <c r="C164" s="5"/>
-    </row>
-    <row r="165" ht="15.75" customHeight="1">
-      <c r="C165" s="5"/>
-    </row>
-    <row r="166" ht="15.75" customHeight="1">
-      <c r="C166" s="5"/>
-    </row>
-    <row r="167" ht="15.75" customHeight="1">
-      <c r="C167" s="5"/>
-    </row>
-    <row r="168" ht="15.75" customHeight="1">
-      <c r="C168" s="5"/>
-    </row>
-    <row r="169" ht="15.75" customHeight="1">
-      <c r="C169" s="5"/>
-    </row>
-    <row r="170" ht="15.75" customHeight="1">
-      <c r="C170" s="5"/>
-    </row>
-    <row r="171" ht="15.75" customHeight="1">
-      <c r="C171" s="5"/>
-    </row>
-    <row r="172" ht="15.75" customHeight="1">
-      <c r="C172" s="5"/>
-    </row>
-    <row r="173" ht="15.75" customHeight="1">
-      <c r="C173" s="5"/>
-    </row>
-    <row r="174" ht="15.75" customHeight="1">
-      <c r="C174" s="5"/>
-    </row>
-    <row r="175" ht="15.75" customHeight="1">
-      <c r="C175" s="5"/>
-    </row>
-    <row r="176" ht="15.75" customHeight="1">
-      <c r="C176" s="5"/>
-    </row>
-    <row r="177" ht="15.75" customHeight="1">
-      <c r="C177" s="5"/>
-    </row>
-    <row r="178" ht="15.75" customHeight="1">
-      <c r="C178" s="5"/>
-    </row>
-    <row r="179" ht="15.75" customHeight="1">
-      <c r="C179" s="5"/>
-    </row>
-    <row r="180" ht="15.75" customHeight="1">
-      <c r="C180" s="5"/>
-    </row>
-    <row r="181" ht="15.75" customHeight="1">
-      <c r="C181" s="5"/>
-    </row>
-    <row r="182" ht="15.75" customHeight="1">
-      <c r="C182" s="5"/>
-    </row>
-    <row r="183" ht="15.75" customHeight="1">
-      <c r="C183" s="5"/>
-    </row>
-    <row r="184" ht="15.75" customHeight="1">
-      <c r="C184" s="5"/>
-    </row>
-    <row r="185" ht="15.75" customHeight="1">
-      <c r="C185" s="5"/>
-    </row>
-    <row r="186" ht="15.75" customHeight="1">
-      <c r="C186" s="5"/>
-    </row>
-    <row r="187" ht="15.75" customHeight="1">
-      <c r="C187" s="5"/>
-    </row>
-    <row r="188" ht="15.75" customHeight="1">
-      <c r="C188" s="5"/>
-    </row>
-    <row r="189" ht="15.75" customHeight="1">
-      <c r="C189" s="5"/>
-    </row>
-    <row r="190" ht="15.75" customHeight="1">
-      <c r="C190" s="5"/>
-    </row>
-    <row r="191" ht="15.75" customHeight="1">
-      <c r="C191" s="5"/>
-    </row>
-    <row r="192" ht="15.75" customHeight="1">
-      <c r="C192" s="5"/>
-    </row>
-    <row r="193" ht="15.75" customHeight="1">
-      <c r="C193" s="5"/>
-    </row>
-    <row r="194" ht="15.75" customHeight="1">
-      <c r="C194" s="5"/>
-    </row>
-    <row r="195" ht="15.75" customHeight="1">
-      <c r="C195" s="5"/>
-    </row>
-    <row r="196" ht="15.75" customHeight="1">
-      <c r="C196" s="5"/>
-    </row>
-    <row r="197" ht="15.75" customHeight="1">
-      <c r="C197" s="5"/>
-    </row>
-    <row r="198" ht="15.75" customHeight="1">
-      <c r="C198" s="5"/>
-    </row>
-    <row r="199" ht="15.75" customHeight="1">
-      <c r="C199" s="5"/>
-    </row>
-    <row r="200" ht="15.75" customHeight="1">
-      <c r="C200" s="5"/>
-    </row>
-    <row r="201" ht="15.75" customHeight="1">
-      <c r="C201" s="5"/>
-    </row>
-    <row r="202" ht="15.75" customHeight="1">
-      <c r="C202" s="5"/>
-    </row>
-    <row r="203" ht="15.75" customHeight="1">
-      <c r="C203" s="5"/>
-    </row>
-    <row r="204" ht="15.75" customHeight="1">
-      <c r="C204" s="5"/>
-    </row>
-    <row r="205" ht="15.75" customHeight="1">
-      <c r="C205" s="5"/>
-    </row>
-    <row r="206" ht="15.75" customHeight="1">
-      <c r="C206" s="5"/>
-    </row>
-    <row r="207" ht="15.75" customHeight="1">
-      <c r="C207" s="5"/>
-    </row>
-    <row r="208" ht="15.75" customHeight="1">
-      <c r="C208" s="5"/>
-    </row>
-    <row r="209" ht="15.75" customHeight="1">
-      <c r="C209" s="5"/>
-    </row>
-    <row r="210" ht="15.75" customHeight="1">
-      <c r="C210" s="5"/>
-    </row>
-    <row r="211" ht="15.75" customHeight="1">
-      <c r="C211" s="5"/>
-    </row>
-    <row r="212" ht="15.75" customHeight="1">
-      <c r="C212" s="5"/>
-    </row>
-    <row r="213" ht="15.75" customHeight="1">
-      <c r="C213" s="5"/>
-    </row>
-    <row r="214" ht="15.75" customHeight="1">
-      <c r="C214" s="5"/>
-    </row>
-    <row r="215" ht="15.75" customHeight="1">
-      <c r="C215" s="5"/>
-    </row>
-    <row r="216" ht="15.75" customHeight="1">
-      <c r="C216" s="5"/>
-    </row>
-    <row r="217" ht="15.75" customHeight="1">
-      <c r="C217" s="5"/>
-    </row>
-    <row r="218" ht="15.75" customHeight="1">
-      <c r="C218" s="5"/>
-    </row>
-    <row r="219" ht="15.75" customHeight="1">
-      <c r="C219" s="5"/>
-    </row>
-    <row r="220" ht="15.75" customHeight="1">
-      <c r="C220" s="5"/>
-    </row>
-    <row r="221" ht="15.75" customHeight="1">
-      <c r="C221" s="5"/>
-    </row>
-    <row r="222" ht="15.75" customHeight="1">
-      <c r="C222" s="5"/>
-    </row>
-    <row r="223" ht="15.75" customHeight="1">
-      <c r="C223" s="5"/>
-    </row>
-    <row r="224" ht="15.75" customHeight="1">
-      <c r="C224" s="5"/>
-    </row>
-    <row r="225" ht="15.75" customHeight="1">
-      <c r="C225" s="5"/>
-    </row>
-    <row r="226" ht="15.75" customHeight="1">
-      <c r="C226" s="5"/>
-    </row>
-    <row r="227" ht="15.75" customHeight="1">
-      <c r="C227" s="5"/>
-    </row>
-    <row r="228" ht="15.75" customHeight="1">
-      <c r="C228" s="5"/>
-    </row>
-    <row r="229" ht="15.75" customHeight="1">
-      <c r="C229" s="5"/>
-    </row>
-    <row r="230" ht="15.75" customHeight="1">
-      <c r="C230" s="5"/>
-    </row>
-    <row r="231" ht="15.75" customHeight="1">
-      <c r="C231" s="5"/>
-    </row>
-    <row r="232" ht="15.75" customHeight="1">
-      <c r="C232" s="5"/>
-    </row>
-    <row r="233" ht="15.75" customHeight="1">
-      <c r="C233" s="5"/>
-    </row>
-    <row r="234" ht="15.75" customHeight="1">
-      <c r="C234" s="5"/>
-    </row>
-    <row r="235" ht="15.75" customHeight="1">
-      <c r="C235" s="5"/>
-    </row>
-    <row r="236" ht="15.75" customHeight="1">
-      <c r="C236" s="5"/>
-    </row>
-    <row r="237" ht="15.75" customHeight="1">
-      <c r="C237" s="5"/>
-    </row>
-    <row r="238" ht="15.75" customHeight="1">
-      <c r="C238" s="5"/>
-    </row>
-    <row r="239" ht="15.75" customHeight="1">
-      <c r="C239" s="5"/>
-    </row>
-    <row r="240" ht="15.75" customHeight="1">
-      <c r="C240" s="5"/>
-    </row>
-    <row r="241" ht="15.75" customHeight="1">
-      <c r="C241" s="5"/>
-    </row>
-    <row r="242" ht="15.75" customHeight="1">
-      <c r="C242" s="5"/>
-    </row>
-    <row r="243" ht="15.75" customHeight="1">
-      <c r="C243" s="5"/>
-    </row>
-    <row r="244" ht="15.75" customHeight="1">
-      <c r="C244" s="5"/>
-    </row>
-    <row r="245" ht="15.75" customHeight="1">
-      <c r="C245" s="5"/>
-    </row>
-    <row r="246" ht="15.75" customHeight="1">
-      <c r="C246" s="5"/>
-    </row>
-    <row r="247" ht="15.75" customHeight="1">
-      <c r="C247" s="5"/>
-    </row>
-    <row r="248" ht="15.75" customHeight="1">
-      <c r="C248" s="5"/>
-    </row>
-    <row r="249" ht="15.75" customHeight="1">
-      <c r="C249" s="5"/>
-    </row>
-    <row r="250" ht="15.75" customHeight="1">
-      <c r="C250" s="5"/>
-    </row>
-    <row r="251" ht="15.75" customHeight="1">
-      <c r="C251" s="5"/>
-    </row>
-    <row r="252" ht="15.75" customHeight="1">
-      <c r="C252" s="5"/>
-    </row>
-    <row r="253" ht="15.75" customHeight="1">
-      <c r="C253" s="5"/>
-    </row>
-    <row r="254" ht="15.75" customHeight="1">
-      <c r="C254" s="5"/>
-    </row>
-    <row r="255" ht="15.75" customHeight="1">
-      <c r="C255" s="5"/>
-    </row>
-    <row r="256" ht="15.75" customHeight="1">
-      <c r="C256" s="5"/>
-    </row>
-    <row r="257" ht="15.75" customHeight="1">
-      <c r="C257" s="5"/>
-    </row>
-    <row r="258" ht="15.75" customHeight="1">
-      <c r="C258" s="5"/>
-    </row>
-    <row r="259" ht="15.75" customHeight="1">
-      <c r="C259" s="5"/>
-    </row>
-    <row r="260" ht="15.75" customHeight="1">
-      <c r="C260" s="5"/>
-    </row>
-    <row r="261" ht="15.75" customHeight="1">
-      <c r="C261" s="5"/>
-    </row>
-    <row r="262" ht="15.75" customHeight="1">
-      <c r="C262" s="5"/>
-    </row>
-    <row r="263" ht="15.75" customHeight="1">
-      <c r="C263" s="5"/>
-    </row>
-    <row r="264" ht="15.75" customHeight="1">
-      <c r="C264" s="5"/>
-    </row>
-    <row r="265" ht="15.75" customHeight="1">
-      <c r="C265" s="5"/>
-    </row>
-    <row r="266" ht="15.75" customHeight="1">
-      <c r="C266" s="5"/>
-    </row>
-    <row r="267" ht="15.75" customHeight="1">
-      <c r="C267" s="5"/>
-    </row>
-    <row r="268" ht="15.75" customHeight="1">
-      <c r="C268" s="5"/>
-    </row>
-    <row r="269" ht="15.75" customHeight="1">
-      <c r="C269" s="5"/>
-    </row>
-    <row r="270" ht="15.75" customHeight="1">
-      <c r="C270" s="5"/>
-    </row>
-    <row r="271" ht="15.75" customHeight="1">
-      <c r="C271" s="5"/>
-    </row>
-    <row r="272" ht="15.75" customHeight="1">
-      <c r="C272" s="5"/>
-    </row>
-    <row r="273" ht="15.75" customHeight="1">
-      <c r="C273" s="5"/>
-    </row>
-    <row r="274" ht="15.75" customHeight="1">
-      <c r="C274" s="5"/>
-    </row>
-    <row r="275" ht="15.75" customHeight="1">
-      <c r="C275" s="5"/>
-    </row>
-    <row r="276" ht="15.75" customHeight="1">
-      <c r="C276" s="5"/>
-    </row>
-    <row r="277" ht="15.75" customHeight="1">
-      <c r="C277" s="5"/>
-    </row>
-    <row r="278" ht="15.75" customHeight="1">
-      <c r="C278" s="5"/>
-    </row>
-    <row r="279" ht="15.75" customHeight="1">
-      <c r="C279" s="5"/>
-    </row>
-    <row r="280" ht="15.75" customHeight="1">
-      <c r="C280" s="5"/>
-    </row>
-    <row r="281" ht="15.75" customHeight="1">
-      <c r="C281" s="5"/>
-    </row>
-    <row r="282" ht="15.75" customHeight="1">
-      <c r="C282" s="5"/>
-    </row>
-    <row r="283" ht="15.75" customHeight="1">
-      <c r="C283" s="5"/>
-    </row>
-    <row r="284" ht="15.75" customHeight="1">
-      <c r="C284" s="5"/>
-    </row>
-    <row r="285" ht="15.75" customHeight="1">
-      <c r="C285" s="5"/>
-    </row>
-    <row r="286" ht="15.75" customHeight="1">
-      <c r="C286" s="5"/>
-    </row>
-    <row r="287" ht="15.75" customHeight="1">
-      <c r="C287" s="5"/>
-    </row>
-    <row r="288" ht="15.75" customHeight="1">
-      <c r="C288" s="5"/>
-    </row>
-    <row r="289" ht="15.75" customHeight="1">
-      <c r="C289" s="5"/>
-    </row>
-    <row r="290" ht="15.75" customHeight="1">
-      <c r="C290" s="5"/>
-    </row>
-    <row r="291" ht="15.75" customHeight="1">
-      <c r="C291" s="5"/>
-    </row>
-    <row r="292" ht="15.75" customHeight="1">
-      <c r="C292" s="5"/>
-    </row>
-    <row r="293" ht="15.75" customHeight="1">
-      <c r="C293" s="5"/>
-    </row>
-    <row r="294" ht="15.75" customHeight="1">
-      <c r="C294" s="5"/>
-    </row>
-    <row r="295" ht="15.75" customHeight="1">
-      <c r="C295" s="5"/>
-    </row>
-    <row r="296" ht="15.75" customHeight="1">
-      <c r="C296" s="5"/>
-    </row>
-    <row r="297" ht="15.75" customHeight="1">
-      <c r="C297" s="5"/>
-    </row>
-    <row r="298" ht="15.75" customHeight="1">
-      <c r="C298" s="5"/>
-    </row>
-    <row r="299" ht="15.75" customHeight="1">
-      <c r="C299" s="5"/>
-    </row>
-    <row r="300" ht="15.75" customHeight="1">
-      <c r="C300" s="5"/>
-    </row>
-    <row r="301" ht="15.75" customHeight="1">
-      <c r="C301" s="5"/>
-    </row>
-    <row r="302" ht="15.75" customHeight="1">
-      <c r="C302" s="5"/>
-    </row>
-    <row r="303" ht="15.75" customHeight="1">
-      <c r="C303" s="5"/>
-    </row>
-    <row r="304" ht="15.75" customHeight="1">
-      <c r="C304" s="5"/>
-    </row>
-    <row r="305" ht="15.75" customHeight="1">
-      <c r="C305" s="5"/>
-    </row>
-    <row r="306" ht="15.75" customHeight="1">
-      <c r="C306" s="5"/>
-    </row>
-    <row r="307" ht="15.75" customHeight="1">
-      <c r="C307" s="5"/>
-    </row>
-    <row r="308" ht="15.75" customHeight="1">
-      <c r="C308" s="5"/>
-    </row>
-    <row r="309" ht="15.75" customHeight="1">
-      <c r="C309" s="5"/>
-    </row>
-    <row r="310" ht="15.75" customHeight="1">
-      <c r="C310" s="5"/>
-    </row>
-    <row r="311" ht="15.75" customHeight="1">
-      <c r="C311" s="5"/>
-    </row>
-    <row r="312" ht="15.75" customHeight="1">
-      <c r="C312" s="5"/>
-    </row>
-    <row r="313" ht="15.75" customHeight="1">
-      <c r="C313" s="5"/>
-    </row>
-    <row r="314" ht="15.75" customHeight="1">
-      <c r="C314" s="5"/>
-    </row>
-    <row r="315" ht="15.75" customHeight="1">
-      <c r="C315" s="5"/>
-    </row>
-    <row r="316" ht="15.75" customHeight="1">
-      <c r="C316" s="5"/>
-    </row>
-    <row r="317" ht="15.75" customHeight="1">
-      <c r="C317" s="5"/>
-    </row>
-    <row r="318" ht="15.75" customHeight="1">
-      <c r="C318" s="5"/>
-    </row>
-    <row r="319" ht="15.75" customHeight="1">
-      <c r="C319" s="5"/>
-    </row>
-    <row r="320" ht="15.75" customHeight="1">
-      <c r="C320" s="5"/>
-    </row>
-    <row r="321" ht="15.75" customHeight="1">
-      <c r="C321" s="5"/>
-    </row>
-    <row r="322" ht="15.75" customHeight="1">
-      <c r="C322" s="5"/>
-    </row>
-    <row r="323" ht="15.75" customHeight="1">
-      <c r="C323" s="5"/>
-    </row>
-    <row r="324" ht="15.75" customHeight="1">
-      <c r="C324" s="5"/>
-    </row>
-    <row r="325" ht="15.75" customHeight="1">
-      <c r="C325" s="5"/>
-    </row>
-    <row r="326" ht="15.75" customHeight="1">
-      <c r="C326" s="5"/>
-    </row>
-    <row r="327" ht="15.75" customHeight="1">
-      <c r="C327" s="5"/>
-    </row>
-    <row r="328" ht="15.75" customHeight="1">
-      <c r="C328" s="5"/>
-    </row>
-    <row r="329" ht="15.75" customHeight="1">
-      <c r="C329" s="5"/>
-    </row>
-    <row r="330" ht="15.75" customHeight="1">
-      <c r="C330" s="5"/>
-    </row>
-    <row r="331" ht="15.75" customHeight="1">
-      <c r="C331" s="5"/>
-    </row>
-    <row r="332" ht="15.75" customHeight="1">
-      <c r="C332" s="5"/>
-    </row>
-    <row r="333" ht="15.75" customHeight="1">
-      <c r="C333" s="5"/>
-    </row>
-    <row r="334" ht="15.75" customHeight="1">
-      <c r="C334" s="5"/>
-    </row>
-    <row r="335" ht="15.75" customHeight="1">
-      <c r="C335" s="5"/>
-    </row>
-    <row r="336" ht="15.75" customHeight="1">
-      <c r="C336" s="5"/>
-    </row>
-    <row r="337" ht="15.75" customHeight="1">
-      <c r="C337" s="5"/>
-    </row>
-    <row r="338" ht="15.75" customHeight="1">
-      <c r="C338" s="5"/>
-    </row>
-    <row r="339" ht="15.75" customHeight="1">
-      <c r="C339" s="5"/>
-    </row>
-    <row r="340" ht="15.75" customHeight="1">
-      <c r="C340" s="5"/>
-    </row>
-    <row r="341" ht="15.75" customHeight="1">
-      <c r="C341" s="5"/>
-    </row>
-    <row r="342" ht="15.75" customHeight="1">
-      <c r="C342" s="5"/>
-    </row>
-    <row r="343" ht="15.75" customHeight="1">
-      <c r="C343" s="5"/>
-    </row>
-    <row r="344" ht="15.75" customHeight="1">
-      <c r="C344" s="5"/>
-    </row>
-    <row r="345" ht="15.75" customHeight="1">
-      <c r="C345" s="5"/>
-    </row>
-    <row r="346" ht="15.75" customHeight="1">
-      <c r="C346" s="5"/>
-    </row>
-    <row r="347" ht="15.75" customHeight="1">
-      <c r="C347" s="5"/>
-    </row>
-    <row r="348" ht="15.75" customHeight="1">
-      <c r="C348" s="5"/>
-    </row>
-    <row r="349" ht="15.75" customHeight="1">
-      <c r="C349" s="5"/>
-    </row>
-    <row r="350" ht="15.75" customHeight="1">
-      <c r="C350" s="5"/>
-    </row>
-    <row r="351" ht="15.75" customHeight="1">
-      <c r="C351" s="5"/>
-    </row>
-    <row r="352" ht="15.75" customHeight="1">
-      <c r="C352" s="5"/>
-    </row>
-    <row r="353" ht="15.75" customHeight="1">
-      <c r="C353" s="5"/>
-    </row>
-    <row r="354" ht="15.75" customHeight="1">
-      <c r="C354" s="5"/>
-    </row>
-    <row r="355" ht="15.75" customHeight="1">
-      <c r="C355" s="5"/>
-    </row>
-    <row r="356" ht="15.75" customHeight="1">
-      <c r="C356" s="5"/>
-    </row>
-    <row r="357" ht="15.75" customHeight="1">
-      <c r="C357" s="5"/>
-    </row>
-    <row r="358" ht="15.75" customHeight="1">
-      <c r="C358" s="5"/>
-    </row>
-    <row r="359" ht="15.75" customHeight="1">
-      <c r="C359" s="5"/>
-    </row>
-    <row r="360" ht="15.75" customHeight="1">
-      <c r="C360" s="5"/>
-    </row>
-    <row r="361" ht="15.75" customHeight="1">
-      <c r="C361" s="5"/>
-    </row>
-    <row r="362" ht="15.75" customHeight="1">
-      <c r="C362" s="5"/>
-    </row>
-    <row r="363" ht="15.75" customHeight="1">
-      <c r="C363" s="5"/>
-    </row>
-    <row r="364" ht="15.75" customHeight="1">
-      <c r="C364" s="5"/>
-    </row>
-    <row r="365" ht="15.75" customHeight="1">
-      <c r="C365" s="5"/>
-    </row>
-    <row r="366" ht="15.75" customHeight="1">
-      <c r="C366" s="5"/>
-    </row>
-    <row r="367" ht="15.75" customHeight="1">
-      <c r="C367" s="5"/>
-    </row>
-    <row r="368" ht="15.75" customHeight="1">
-      <c r="C368" s="5"/>
-    </row>
-    <row r="369" ht="15.75" customHeight="1">
-      <c r="C369" s="5"/>
-    </row>
-    <row r="370" ht="15.75" customHeight="1">
-      <c r="C370" s="5"/>
-    </row>
-    <row r="371" ht="15.75" customHeight="1">
-      <c r="C371" s="5"/>
-    </row>
-    <row r="372" ht="15.75" customHeight="1">
-      <c r="C372" s="5"/>
-    </row>
-    <row r="373" ht="15.75" customHeight="1">
-      <c r="C373" s="5"/>
-    </row>
-    <row r="374" ht="15.75" customHeight="1">
-      <c r="C374" s="5"/>
-    </row>
-    <row r="375" ht="15.75" customHeight="1">
-      <c r="C375" s="5"/>
-    </row>
-    <row r="376" ht="15.75" customHeight="1">
-      <c r="C376" s="5"/>
-    </row>
-    <row r="377" ht="15.75" customHeight="1">
-      <c r="C377" s="5"/>
-    </row>
-    <row r="378" ht="15.75" customHeight="1">
-      <c r="C378" s="5"/>
-    </row>
-    <row r="379" ht="15.75" customHeight="1">
-      <c r="C379" s="5"/>
-    </row>
-    <row r="380" ht="15.75" customHeight="1">
-      <c r="C380" s="5"/>
-    </row>
-    <row r="381" ht="15.75" customHeight="1">
-      <c r="C381" s="5"/>
-    </row>
-    <row r="382" ht="15.75" customHeight="1">
-      <c r="C382" s="5"/>
-    </row>
-    <row r="383" ht="15.75" customHeight="1">
-      <c r="C383" s="5"/>
-    </row>
-    <row r="384" ht="15.75" customHeight="1">
-      <c r="C384" s="5"/>
-    </row>
-    <row r="385" ht="15.75" customHeight="1">
-      <c r="C385" s="5"/>
-    </row>
-    <row r="386" ht="15.75" customHeight="1">
-      <c r="C386" s="5"/>
-    </row>
-    <row r="387" ht="15.75" customHeight="1">
-      <c r="C387" s="5"/>
-    </row>
-    <row r="388" ht="15.75" customHeight="1">
-      <c r="C388" s="5"/>
-    </row>
-    <row r="389" ht="15.75" customHeight="1">
-      <c r="C389" s="5"/>
-    </row>
-    <row r="390" ht="15.75" customHeight="1">
-      <c r="C390" s="5"/>
-    </row>
-    <row r="391" ht="15.75" customHeight="1">
-      <c r="C391" s="5"/>
-    </row>
-    <row r="392" ht="15.75" customHeight="1">
-      <c r="C392" s="5"/>
-    </row>
-    <row r="393" ht="15.75" customHeight="1">
-      <c r="C393" s="5"/>
-    </row>
-    <row r="394" ht="15.75" customHeight="1">
-      <c r="C394" s="5"/>
-    </row>
-    <row r="395" ht="15.75" customHeight="1">
-      <c r="C395" s="5"/>
-    </row>
-    <row r="396" ht="15.75" customHeight="1">
-      <c r="C396" s="5"/>
-    </row>
-    <row r="397" ht="15.75" customHeight="1">
-      <c r="C397" s="5"/>
-    </row>
-    <row r="398" ht="15.75" customHeight="1">
-      <c r="C398" s="5"/>
-    </row>
-    <row r="399" ht="15.75" customHeight="1">
-      <c r="C399" s="5"/>
-    </row>
-    <row r="400" ht="15.75" customHeight="1">
-      <c r="C400" s="5"/>
-    </row>
-    <row r="401" ht="15.75" customHeight="1">
-      <c r="C401" s="5"/>
-    </row>
-    <row r="402" ht="15.75" customHeight="1">
-      <c r="C402" s="5"/>
-    </row>
-    <row r="403" ht="15.75" customHeight="1">
-      <c r="C403" s="5"/>
-    </row>
-    <row r="404" ht="15.75" customHeight="1">
-      <c r="C404" s="5"/>
-    </row>
-    <row r="405" ht="15.75" customHeight="1">
-      <c r="C405" s="5"/>
-    </row>
-    <row r="406" ht="15.75" customHeight="1">
-      <c r="C406" s="5"/>
-    </row>
-    <row r="407" ht="15.75" customHeight="1">
-      <c r="C407" s="5"/>
-    </row>
-    <row r="408" ht="15.75" customHeight="1">
-      <c r="C408" s="5"/>
-    </row>
-    <row r="409" ht="15.75" customHeight="1">
-      <c r="C409" s="5"/>
-    </row>
-    <row r="410" ht="15.75" customHeight="1">
-      <c r="C410" s="5"/>
-    </row>
-    <row r="411" ht="15.75" customHeight="1">
-      <c r="C411" s="5"/>
-    </row>
-    <row r="412" ht="15.75" customHeight="1">
-      <c r="C412" s="5"/>
-    </row>
-    <row r="413" ht="15.75" customHeight="1">
-      <c r="C413" s="5"/>
-    </row>
-    <row r="414" ht="15.75" customHeight="1">
-      <c r="C414" s="5"/>
-    </row>
-    <row r="415" ht="15.75" customHeight="1">
-      <c r="C415" s="5"/>
-    </row>
-    <row r="416" ht="15.75" customHeight="1">
-      <c r="C416" s="5"/>
-    </row>
-    <row r="417" ht="15.75" customHeight="1">
-      <c r="C417" s="5"/>
-    </row>
-    <row r="418" ht="15.75" customHeight="1">
-      <c r="C418" s="5"/>
-    </row>
-    <row r="419" ht="15.75" customHeight="1">
-      <c r="C419" s="5"/>
-    </row>
-    <row r="420" ht="15.75" customHeight="1">
-      <c r="C420" s="5"/>
-    </row>
-    <row r="421" ht="15.75" customHeight="1">
-      <c r="C421" s="5"/>
-    </row>
-    <row r="422" ht="15.75" customHeight="1">
-      <c r="C422" s="5"/>
-    </row>
-    <row r="423" ht="15.75" customHeight="1">
-      <c r="C423" s="5"/>
-    </row>
-    <row r="424" ht="15.75" customHeight="1">
-      <c r="C424" s="5"/>
-    </row>
-    <row r="425" ht="15.75" customHeight="1">
-      <c r="C425" s="5"/>
-    </row>
-    <row r="426" ht="15.75" customHeight="1">
-      <c r="C426" s="5"/>
-    </row>
-    <row r="427" ht="15.75" customHeight="1">
-      <c r="C427" s="5"/>
-    </row>
-    <row r="428" ht="15.75" customHeight="1">
-      <c r="C428" s="5"/>
-    </row>
-    <row r="429" ht="15.75" customHeight="1">
-      <c r="C429" s="5"/>
-    </row>
-    <row r="430" ht="15.75" customHeight="1">
-      <c r="C430" s="5"/>
-    </row>
-    <row r="431" ht="15.75" customHeight="1">
-      <c r="C431" s="5"/>
-    </row>
-    <row r="432" ht="15.75" customHeight="1">
-      <c r="C432" s="5"/>
-    </row>
-    <row r="433" ht="15.75" customHeight="1">
-      <c r="C433" s="5"/>
-    </row>
-    <row r="434" ht="15.75" customHeight="1">
-      <c r="C434" s="5"/>
-    </row>
-    <row r="435" ht="15.75" customHeight="1">
-      <c r="C435" s="5"/>
-    </row>
-    <row r="436" ht="15.75" customHeight="1">
-      <c r="C436" s="5"/>
-    </row>
-    <row r="437" ht="15.75" customHeight="1">
-      <c r="C437" s="5"/>
-    </row>
-    <row r="438" ht="15.75" customHeight="1">
-      <c r="C438" s="5"/>
-    </row>
-    <row r="439" ht="15.75" customHeight="1">
-      <c r="C439" s="5"/>
-    </row>
-    <row r="440" ht="15.75" customHeight="1">
-      <c r="C440" s="5"/>
-    </row>
-    <row r="441" ht="15.75" customHeight="1">
-      <c r="C441" s="5"/>
-    </row>
-    <row r="442" ht="15.75" customHeight="1">
-      <c r="C442" s="5"/>
-    </row>
-    <row r="443" ht="15.75" customHeight="1">
-      <c r="C443" s="5"/>
-    </row>
-    <row r="444" ht="15.75" customHeight="1">
-      <c r="C444" s="5"/>
-    </row>
-    <row r="445" ht="15.75" customHeight="1">
-      <c r="C445" s="5"/>
-    </row>
-    <row r="446" ht="15.75" customHeight="1">
-      <c r="C446" s="5"/>
-    </row>
-    <row r="447" ht="15.75" customHeight="1">
-      <c r="C447" s="5"/>
-    </row>
-    <row r="448" ht="15.75" customHeight="1">
-      <c r="C448" s="5"/>
-    </row>
-    <row r="449" ht="15.75" customHeight="1">
-      <c r="C449" s="5"/>
-    </row>
-    <row r="450" ht="15.75" customHeight="1">
-      <c r="C450" s="5"/>
-    </row>
-    <row r="451" ht="15.75" customHeight="1">
-      <c r="C451" s="5"/>
-    </row>
-    <row r="452" ht="15.75" customHeight="1">
-      <c r="C452" s="5"/>
-    </row>
-    <row r="453" ht="15.75" customHeight="1">
-      <c r="C453" s="5"/>
-    </row>
-    <row r="454" ht="15.75" customHeight="1">
-      <c r="C454" s="5"/>
-    </row>
-    <row r="455" ht="15.75" customHeight="1">
-      <c r="C455" s="5"/>
-    </row>
-    <row r="456" ht="15.75" customHeight="1">
-      <c r="C456" s="5"/>
-    </row>
-    <row r="457" ht="15.75" customHeight="1">
-      <c r="C457" s="5"/>
-    </row>
-    <row r="458" ht="15.75" customHeight="1">
-      <c r="C458" s="5"/>
-    </row>
-    <row r="459" ht="15.75" customHeight="1">
-      <c r="C459" s="5"/>
-    </row>
-    <row r="460" ht="15.75" customHeight="1">
-      <c r="C460" s="5"/>
-    </row>
-    <row r="461" ht="15.75" customHeight="1">
-      <c r="C461" s="5"/>
-    </row>
-    <row r="462" ht="15.75" customHeight="1">
-      <c r="C462" s="5"/>
-    </row>
-    <row r="463" ht="15.75" customHeight="1">
-      <c r="C463" s="5"/>
-    </row>
-    <row r="464" ht="15.75" customHeight="1">
-      <c r="C464" s="5"/>
-    </row>
-    <row r="465" ht="15.75" customHeight="1">
-      <c r="C465" s="5"/>
-    </row>
-    <row r="466" ht="15.75" customHeight="1">
-      <c r="C466" s="5"/>
-    </row>
-    <row r="467" ht="15.75" customHeight="1">
-      <c r="C467" s="5"/>
-    </row>
-    <row r="468" ht="15.75" customHeight="1">
-      <c r="C468" s="5"/>
-    </row>
-    <row r="469" ht="15.75" customHeight="1">
-      <c r="C469" s="5"/>
-    </row>
-    <row r="470" ht="15.75" customHeight="1">
-      <c r="C470" s="5"/>
-    </row>
-    <row r="471" ht="15.75" customHeight="1">
-      <c r="C471" s="5"/>
-    </row>
-    <row r="472" ht="15.75" customHeight="1">
-      <c r="C472" s="5"/>
-    </row>
-    <row r="473" ht="15.75" customHeight="1">
-      <c r="C473" s="5"/>
-    </row>
-    <row r="474" ht="15.75" customHeight="1">
-      <c r="C474" s="5"/>
-    </row>
-    <row r="475" ht="15.75" customHeight="1">
-      <c r="C475" s="5"/>
-    </row>
-    <row r="476" ht="15.75" customHeight="1">
-      <c r="C476" s="5"/>
-    </row>
-    <row r="477" ht="15.75" customHeight="1">
-      <c r="C477" s="5"/>
-    </row>
-    <row r="478" ht="15.75" customHeight="1">
-      <c r="C478" s="5"/>
-    </row>
-    <row r="479" ht="15.75" customHeight="1">
-      <c r="C479" s="5"/>
-    </row>
-    <row r="480" ht="15.75" customHeight="1">
-      <c r="C480" s="5"/>
-    </row>
-    <row r="481" ht="15.75" customHeight="1">
-      <c r="C481" s="5"/>
-    </row>
-    <row r="482" ht="15.75" customHeight="1">
-      <c r="C482" s="5"/>
-    </row>
-    <row r="483" ht="15.75" customHeight="1">
-      <c r="C483" s="5"/>
-    </row>
-    <row r="484" ht="15.75" customHeight="1">
-      <c r="C484" s="5"/>
-    </row>
-    <row r="485" ht="15.75" customHeight="1">
-      <c r="C485" s="5"/>
-    </row>
-    <row r="486" ht="15.75" customHeight="1">
-      <c r="C486" s="5"/>
-    </row>
-    <row r="487" ht="15.75" customHeight="1">
-      <c r="C487" s="5"/>
-    </row>
-    <row r="488" ht="15.75" customHeight="1">
-      <c r="C488" s="5"/>
-    </row>
-    <row r="489" ht="15.75" customHeight="1">
-      <c r="C489" s="5"/>
-    </row>
-    <row r="490" ht="15.75" customHeight="1">
-      <c r="C490" s="5"/>
-    </row>
-    <row r="491" ht="15.75" customHeight="1">
-      <c r="C491" s="5"/>
-    </row>
-    <row r="492" ht="15.75" customHeight="1">
-      <c r="C492" s="5"/>
-    </row>
-    <row r="493" ht="15.75" customHeight="1">
-      <c r="C493" s="5"/>
-    </row>
-    <row r="494" ht="15.75" customHeight="1">
-      <c r="C494" s="5"/>
-    </row>
-    <row r="495" ht="15.75" customHeight="1">
-      <c r="C495" s="5"/>
-    </row>
-    <row r="496" ht="15.75" customHeight="1">
-      <c r="C496" s="5"/>
-    </row>
-    <row r="497" ht="15.75" customHeight="1">
-      <c r="C497" s="5"/>
-    </row>
-    <row r="498" ht="15.75" customHeight="1">
-      <c r="C498" s="5"/>
-    </row>
-    <row r="499" ht="15.75" customHeight="1">
-      <c r="C499" s="5"/>
-    </row>
-    <row r="500" ht="15.75" customHeight="1">
-      <c r="C500" s="5"/>
-    </row>
-    <row r="501" ht="15.75" customHeight="1">
-      <c r="C501" s="5"/>
-    </row>
-    <row r="502" ht="15.75" customHeight="1">
-      <c r="C502" s="5"/>
-    </row>
-    <row r="503" ht="15.75" customHeight="1">
-      <c r="C503" s="5"/>
-    </row>
-    <row r="504" ht="15.75" customHeight="1">
-      <c r="C504" s="5"/>
-    </row>
-    <row r="505" ht="15.75" customHeight="1">
-      <c r="C505" s="5"/>
-    </row>
-    <row r="506" ht="15.75" customHeight="1">
-      <c r="C506" s="5"/>
-    </row>
-    <row r="507" ht="15.75" customHeight="1">
-      <c r="C507" s="5"/>
-    </row>
-    <row r="508" ht="15.75" customHeight="1">
-      <c r="C508" s="5"/>
-    </row>
-    <row r="509" ht="15.75" customHeight="1">
-      <c r="C509" s="5"/>
-    </row>
-    <row r="510" ht="15.75" customHeight="1">
-      <c r="C510" s="5"/>
-    </row>
-    <row r="511" ht="15.75" customHeight="1">
-      <c r="C511" s="5"/>
-    </row>
-    <row r="512" ht="15.75" customHeight="1">
-      <c r="C512" s="5"/>
-    </row>
-    <row r="513" ht="15.75" customHeight="1">
-      <c r="C513" s="5"/>
-    </row>
-    <row r="514" ht="15.75" customHeight="1">
-      <c r="C514" s="5"/>
-    </row>
-    <row r="515" ht="15.75" customHeight="1">
-      <c r="C515" s="5"/>
-    </row>
-    <row r="516" ht="15.75" customHeight="1">
-      <c r="C516" s="5"/>
-    </row>
-    <row r="517" ht="15.75" customHeight="1">
-      <c r="C517" s="5"/>
-    </row>
-    <row r="518" ht="15.75" customHeight="1">
-      <c r="C518" s="5"/>
-    </row>
-    <row r="519" ht="15.75" customHeight="1">
-      <c r="C519" s="5"/>
-    </row>
-    <row r="520" ht="15.75" customHeight="1">
-      <c r="C520" s="5"/>
-    </row>
-    <row r="521" ht="15.75" customHeight="1">
-      <c r="C521" s="5"/>
-    </row>
-    <row r="522" ht="15.75" customHeight="1">
-      <c r="C522" s="5"/>
-    </row>
-    <row r="523" ht="15.75" customHeight="1">
-      <c r="C523" s="5"/>
-    </row>
-    <row r="524" ht="15.75" customHeight="1">
-      <c r="C524" s="5"/>
-    </row>
-    <row r="525" ht="15.75" customHeight="1">
-      <c r="C525" s="5"/>
-    </row>
-    <row r="526" ht="15.75" customHeight="1">
-      <c r="C526" s="5"/>
-    </row>
-    <row r="527" ht="15.75" customHeight="1">
-      <c r="C527" s="5"/>
-    </row>
-    <row r="528" ht="15.75" customHeight="1">
-      <c r="C528" s="5"/>
-    </row>
-    <row r="529" ht="15.75" customHeight="1">
-      <c r="C529" s="5"/>
-    </row>
-    <row r="530" ht="15.75" customHeight="1">
-      <c r="C530" s="5"/>
-    </row>
-    <row r="531" ht="15.75" customHeight="1">
-      <c r="C531" s="5"/>
-    </row>
-    <row r="532" ht="15.75" customHeight="1">
-      <c r="C532" s="5"/>
-    </row>
-    <row r="533" ht="15.75" customHeight="1">
-      <c r="C533" s="5"/>
-    </row>
-    <row r="534" ht="15.75" customHeight="1">
-      <c r="C534" s="5"/>
-    </row>
-    <row r="535" ht="15.75" customHeight="1">
-      <c r="C535" s="5"/>
-    </row>
-    <row r="536" ht="15.75" customHeight="1">
-      <c r="C536" s="5"/>
-    </row>
-    <row r="537" ht="15.75" customHeight="1">
-      <c r="C537" s="5"/>
-    </row>
-    <row r="538" ht="15.75" customHeight="1">
-      <c r="C538" s="5"/>
-    </row>
-    <row r="539" ht="15.75" customHeight="1">
-      <c r="C539" s="5"/>
-    </row>
-    <row r="540" ht="15.75" customHeight="1">
-      <c r="C540" s="5"/>
-    </row>
-    <row r="541" ht="15.75" customHeight="1">
-      <c r="C541" s="5"/>
-    </row>
-    <row r="542" ht="15.75" customHeight="1">
-      <c r="C542" s="5"/>
-    </row>
-    <row r="543" ht="15.75" customHeight="1">
-      <c r="C543" s="5"/>
-    </row>
-    <row r="544" ht="15.75" customHeight="1">
-      <c r="C544" s="5"/>
-    </row>
-    <row r="545" ht="15.75" customHeight="1">
-      <c r="C545" s="5"/>
-    </row>
-    <row r="546" ht="15.75" customHeight="1">
-      <c r="C546" s="5"/>
-    </row>
-    <row r="547" ht="15.75" customHeight="1">
-      <c r="C547" s="5"/>
-    </row>
-    <row r="548" ht="15.75" customHeight="1">
-      <c r="C548" s="5"/>
-    </row>
-    <row r="549" ht="15.75" customHeight="1">
-      <c r="C549" s="5"/>
-    </row>
-    <row r="550" ht="15.75" customHeight="1">
-      <c r="C550" s="5"/>
-    </row>
-    <row r="551" ht="15.75" customHeight="1">
-      <c r="C551" s="5"/>
-    </row>
-    <row r="552" ht="15.75" customHeight="1">
-      <c r="C552" s="5"/>
-    </row>
-    <row r="553" ht="15.75" customHeight="1">
-      <c r="C553" s="5"/>
-    </row>
-    <row r="554" ht="15.75" customHeight="1">
-      <c r="C554" s="5"/>
-    </row>
-    <row r="555" ht="15.75" customHeight="1">
-      <c r="C555" s="5"/>
-    </row>
-    <row r="556" ht="15.75" customHeight="1">
-      <c r="C556" s="5"/>
-    </row>
-    <row r="557" ht="15.75" customHeight="1">
-      <c r="C557" s="5"/>
-    </row>
-    <row r="558" ht="15.75" customHeight="1">
-      <c r="C558" s="5"/>
-    </row>
-    <row r="559" ht="15.75" customHeight="1">
-      <c r="C559" s="5"/>
-    </row>
-    <row r="560" ht="15.75" customHeight="1">
-      <c r="C560" s="5"/>
-    </row>
-    <row r="561" ht="15.75" customHeight="1">
-      <c r="C561" s="5"/>
-    </row>
-    <row r="562" ht="15.75" customHeight="1">
-      <c r="C562" s="5"/>
-    </row>
-    <row r="563" ht="15.75" customHeight="1">
-      <c r="C563" s="5"/>
-    </row>
-    <row r="564" ht="15.75" customHeight="1">
-      <c r="C564" s="5"/>
-    </row>
-    <row r="565" ht="15.75" customHeight="1">
-      <c r="C565" s="5"/>
-    </row>
-    <row r="566" ht="15.75" customHeight="1">
-      <c r="C566" s="5"/>
-    </row>
-    <row r="567" ht="15.75" customHeight="1">
-      <c r="C567" s="5"/>
-    </row>
-    <row r="568" ht="15.75" customHeight="1">
-      <c r="C568" s="5"/>
-    </row>
-    <row r="569" ht="15.75" customHeight="1">
-      <c r="C569" s="5"/>
-    </row>
-    <row r="570" ht="15.75" customHeight="1">
-      <c r="C570" s="5"/>
-    </row>
-    <row r="571" ht="15.75" customHeight="1">
-      <c r="C571" s="5"/>
-    </row>
-    <row r="572" ht="15.75" customHeight="1">
-      <c r="C572" s="5"/>
-    </row>
-    <row r="573" ht="15.75" customHeight="1">
-      <c r="C573" s="5"/>
-    </row>
-    <row r="574" ht="15.75" customHeight="1">
-      <c r="C574" s="5"/>
-    </row>
-    <row r="575" ht="15.75" customHeight="1">
-      <c r="C575" s="5"/>
-    </row>
-    <row r="576" ht="15.75" customHeight="1">
-      <c r="C576" s="5"/>
-    </row>
-    <row r="577" ht="15.75" customHeight="1">
-      <c r="C577" s="5"/>
-    </row>
-    <row r="578" ht="15.75" customHeight="1">
-      <c r="C578" s="5"/>
-    </row>
-    <row r="579" ht="15.75" customHeight="1">
-      <c r="C579" s="5"/>
-    </row>
-    <row r="580" ht="15.75" customHeight="1">
-      <c r="C580" s="5"/>
-    </row>
-    <row r="581" ht="15.75" customHeight="1">
-      <c r="C581" s="5"/>
-    </row>
-    <row r="582" ht="15.75" customHeight="1">
-      <c r="C582" s="5"/>
-    </row>
-    <row r="583" ht="15.75" customHeight="1">
-      <c r="C583" s="5"/>
-    </row>
-    <row r="584" ht="15.75" customHeight="1">
-      <c r="C584" s="5"/>
-    </row>
-    <row r="585" ht="15.75" customHeight="1">
-      <c r="C585" s="5"/>
-    </row>
-    <row r="586" ht="15.75" customHeight="1">
-      <c r="C586" s="5"/>
-    </row>
-    <row r="587" ht="15.75" customHeight="1">
-      <c r="C587" s="5"/>
-    </row>
-    <row r="588" ht="15.75" customHeight="1">
-      <c r="C588" s="5"/>
-    </row>
-    <row r="589" ht="15.75" customHeight="1">
-      <c r="C589" s="5"/>
-    </row>
-    <row r="590" ht="15.75" customHeight="1">
-      <c r="C590" s="5"/>
-    </row>
-    <row r="591" ht="15.75" customHeight="1">
-      <c r="C591" s="5"/>
-    </row>
-    <row r="592" ht="15.75" customHeight="1">
-      <c r="C592" s="5"/>
-    </row>
-    <row r="593" ht="15.75" customHeight="1">
-      <c r="C593" s="5"/>
-    </row>
-    <row r="594" ht="15.75" customHeight="1">
-      <c r="C594" s="5"/>
-    </row>
-    <row r="595" ht="15.75" customHeight="1">
-      <c r="C595" s="5"/>
-    </row>
-    <row r="596" ht="15.75" customHeight="1">
-      <c r="C596" s="5"/>
-    </row>
-    <row r="597" ht="15.75" customHeight="1">
-      <c r="C597" s="5"/>
-    </row>
-    <row r="598" ht="15.75" customHeight="1">
-      <c r="C598" s="5"/>
-    </row>
-    <row r="599" ht="15.75" customHeight="1">
-      <c r="C599" s="5"/>
-    </row>
-    <row r="600" ht="15.75" customHeight="1">
-      <c r="C600" s="5"/>
-    </row>
-    <row r="601" ht="15.75" customHeight="1">
-      <c r="C601" s="5"/>
-    </row>
-    <row r="602" ht="15.75" customHeight="1">
-      <c r="C602" s="5"/>
-    </row>
-    <row r="603" ht="15.75" customHeight="1">
-      <c r="C603" s="5"/>
-    </row>
-    <row r="604" ht="15.75" customHeight="1">
-      <c r="C604" s="5"/>
-    </row>
-    <row r="605" ht="15.75" customHeight="1">
-      <c r="C605" s="5"/>
-    </row>
-    <row r="606" ht="15.75" customHeight="1">
-      <c r="C606" s="5"/>
-    </row>
-    <row r="607" ht="15.75" customHeight="1">
-      <c r="C607" s="5"/>
-    </row>
-    <row r="608" ht="15.75" customHeight="1">
-      <c r="C608" s="5"/>
-    </row>
-    <row r="609" ht="15.75" customHeight="1">
-      <c r="C609" s="5"/>
-    </row>
-    <row r="610" ht="15.75" customHeight="1">
-      <c r="C610" s="5"/>
-    </row>
-    <row r="611" ht="15.75" customHeight="1">
-      <c r="C611" s="5"/>
-    </row>
-    <row r="612" ht="15.75" customHeight="1">
-      <c r="C612" s="5"/>
-    </row>
-    <row r="613" ht="15.75" customHeight="1">
-      <c r="C613" s="5"/>
-    </row>
-    <row r="614" ht="15.75" customHeight="1">
-      <c r="C614" s="5"/>
-    </row>
-    <row r="615" ht="15.75" customHeight="1">
-      <c r="C615" s="5"/>
-    </row>
-    <row r="616" ht="15.75" customHeight="1">
-      <c r="C616" s="5"/>
-    </row>
-    <row r="617" ht="15.75" customHeight="1">
-      <c r="C617" s="5"/>
-    </row>
-    <row r="618" ht="15.75" customHeight="1">
-      <c r="C618" s="5"/>
-    </row>
-    <row r="619" ht="15.75" customHeight="1">
-      <c r="C619" s="5"/>
-    </row>
-    <row r="620" ht="15.75" customHeight="1">
-      <c r="C620" s="5"/>
-    </row>
-    <row r="621" ht="15.75" customHeight="1">
-      <c r="C621" s="5"/>
-    </row>
-    <row r="622" ht="15.75" customHeight="1">
-      <c r="C622" s="5"/>
-    </row>
-    <row r="623" ht="15.75" customHeight="1">
-      <c r="C623" s="5"/>
-    </row>
-    <row r="624" ht="15.75" customHeight="1">
-      <c r="C624" s="5"/>
-    </row>
-    <row r="625" ht="15.75" customHeight="1">
-      <c r="C625" s="5"/>
-    </row>
-    <row r="626" ht="15.75" customHeight="1">
-      <c r="C626" s="5"/>
-    </row>
-    <row r="627" ht="15.75" customHeight="1">
-      <c r="C627" s="5"/>
-    </row>
-    <row r="628" ht="15.75" customHeight="1">
-      <c r="C628" s="5"/>
-    </row>
-    <row r="629" ht="15.75" customHeight="1">
-      <c r="C629" s="5"/>
-    </row>
-    <row r="630" ht="15.75" customHeight="1">
-      <c r="C630" s="5"/>
-    </row>
-    <row r="631" ht="15.75" customHeight="1">
-      <c r="C631" s="5"/>
-    </row>
-    <row r="632" ht="15.75" customHeight="1">
-      <c r="C632" s="5"/>
-    </row>
-    <row r="633" ht="15.75" customHeight="1">
-      <c r="C633" s="5"/>
-    </row>
-    <row r="634" ht="15.75" customHeight="1">
-      <c r="C634" s="5"/>
-    </row>
-    <row r="635" ht="15.75" customHeight="1">
-      <c r="C635" s="5"/>
-    </row>
-    <row r="636" ht="15.75" customHeight="1">
-      <c r="C636" s="5"/>
-    </row>
-    <row r="637" ht="15.75" customHeight="1">
-      <c r="C637" s="5"/>
-    </row>
-    <row r="638" ht="15.75" customHeight="1">
-      <c r="C638" s="5"/>
-    </row>
-    <row r="639" ht="15.75" customHeight="1">
-      <c r="C639" s="5"/>
-    </row>
-    <row r="640" ht="15.75" customHeight="1">
-      <c r="C640" s="5"/>
-    </row>
-    <row r="641" ht="15.75" customHeight="1">
-      <c r="C641" s="5"/>
-    </row>
-    <row r="642" ht="15.75" customHeight="1">
-      <c r="C642" s="5"/>
-    </row>
-    <row r="643" ht="15.75" customHeight="1">
-      <c r="C643" s="5"/>
-    </row>
-    <row r="644" ht="15.75" customHeight="1">
-      <c r="C644" s="5"/>
-    </row>
-    <row r="645" ht="15.75" customHeight="1">
-      <c r="C645" s="5"/>
-    </row>
-    <row r="646" ht="15.75" customHeight="1">
-      <c r="C646" s="5"/>
-    </row>
-    <row r="647" ht="15.75" customHeight="1">
-      <c r="C647" s="5"/>
-    </row>
-    <row r="648" ht="15.75" customHeight="1">
-      <c r="C648" s="5"/>
-    </row>
-    <row r="649" ht="15.75" customHeight="1">
-      <c r="C649" s="5"/>
-    </row>
-    <row r="650" ht="15.75" customHeight="1">
-      <c r="C650" s="5"/>
-    </row>
-    <row r="651" ht="15.75" customHeight="1">
-      <c r="C651" s="5"/>
-    </row>
-    <row r="652" ht="15.75" customHeight="1">
-      <c r="C652" s="5"/>
-    </row>
-    <row r="653" ht="15.75" customHeight="1">
-      <c r="C653" s="5"/>
-    </row>
-    <row r="654" ht="15.75" customHeight="1">
-      <c r="C654" s="5"/>
-    </row>
-    <row r="655" ht="15.75" customHeight="1">
-      <c r="C655" s="5"/>
-    </row>
-    <row r="656" ht="15.75" customHeight="1">
-      <c r="C656" s="5"/>
-    </row>
-    <row r="657" ht="15.75" customHeight="1">
-      <c r="C657" s="5"/>
-    </row>
-    <row r="658" ht="15.75" customHeight="1">
-      <c r="C658" s="5"/>
-    </row>
-    <row r="659" ht="15.75" customHeight="1">
-      <c r="C659" s="5"/>
-    </row>
-    <row r="660" ht="15.75" customHeight="1">
-      <c r="C660" s="5"/>
-    </row>
-    <row r="661" ht="15.75" customHeight="1">
-      <c r="C661" s="5"/>
-    </row>
-    <row r="662" ht="15.75" customHeight="1">
-      <c r="C662" s="5"/>
-    </row>
-    <row r="663" ht="15.75" customHeight="1">
-      <c r="C663" s="5"/>
-    </row>
-    <row r="664" ht="15.75" customHeight="1">
-      <c r="C664" s="5"/>
-    </row>
-    <row r="665" ht="15.75" customHeight="1">
-      <c r="C665" s="5"/>
-    </row>
-    <row r="666" ht="15.75" customHeight="1">
-      <c r="C666" s="5"/>
-    </row>
-    <row r="667" ht="15.75" customHeight="1">
-      <c r="C667" s="5"/>
-    </row>
-    <row r="668" ht="15.75" customHeight="1">
-      <c r="C668" s="5"/>
-    </row>
-    <row r="669" ht="15.75" customHeight="1">
-      <c r="C669" s="5"/>
-    </row>
-    <row r="670" ht="15.75" customHeight="1">
-      <c r="C670" s="5"/>
-    </row>
-    <row r="671" ht="15.75" customHeight="1">
-      <c r="C671" s="5"/>
-    </row>
-    <row r="672" ht="15.75" customHeight="1">
-      <c r="C672" s="5"/>
-    </row>
-    <row r="673" ht="15.75" customHeight="1">
-      <c r="C673" s="5"/>
-    </row>
-    <row r="674" ht="15.75" customHeight="1">
-      <c r="C674" s="5"/>
-    </row>
-    <row r="675" ht="15.75" customHeight="1">
-      <c r="C675" s="5"/>
-    </row>
-    <row r="676" ht="15.75" customHeight="1">
-      <c r="C676" s="5"/>
-    </row>
-    <row r="677" ht="15.75" customHeight="1">
-      <c r="C677" s="5"/>
-    </row>
-    <row r="678" ht="15.75" customHeight="1">
-      <c r="C678" s="5"/>
-    </row>
-    <row r="679" ht="15.75" customHeight="1">
-      <c r="C679" s="5"/>
-    </row>
-    <row r="680" ht="15.75" customHeight="1">
-      <c r="C680" s="5"/>
-    </row>
-    <row r="681" ht="15.75" customHeight="1">
-      <c r="C681" s="5"/>
-    </row>
-    <row r="682" ht="15.75" customHeight="1">
-      <c r="C682" s="5"/>
-    </row>
-    <row r="683" ht="15.75" customHeight="1">
-      <c r="C683" s="5"/>
-    </row>
-    <row r="684" ht="15.75" customHeight="1">
-      <c r="C684" s="5"/>
-    </row>
-    <row r="685" ht="15.75" customHeight="1">
-      <c r="C685" s="5"/>
-    </row>
-    <row r="686" ht="15.75" customHeight="1">
-      <c r="C686" s="5"/>
-    </row>
-    <row r="687" ht="15.75" customHeight="1">
-      <c r="C687" s="5"/>
-    </row>
-    <row r="688" ht="15.75" customHeight="1">
-      <c r="C688" s="5"/>
-    </row>
-    <row r="689" ht="15.75" customHeight="1">
-      <c r="C689" s="5"/>
-    </row>
-    <row r="690" ht="15.75" customHeight="1">
-      <c r="C690" s="5"/>
-    </row>
-    <row r="691" ht="15.75" customHeight="1">
-      <c r="C691" s="5"/>
-    </row>
-    <row r="692" ht="15.75" customHeight="1">
-      <c r="C692" s="5"/>
-    </row>
-    <row r="693" ht="15.75" customHeight="1">
-      <c r="C693" s="5"/>
-    </row>
-    <row r="694" ht="15.75" customHeight="1">
-      <c r="C694" s="5"/>
-    </row>
-    <row r="695" ht="15.75" customHeight="1">
-      <c r="C695" s="5"/>
-    </row>
-    <row r="696" ht="15.75" customHeight="1">
-      <c r="C696" s="5"/>
-    </row>
-    <row r="697" ht="15.75" customHeight="1">
-      <c r="C697" s="5"/>
-    </row>
-    <row r="698" ht="15.75" customHeight="1">
-      <c r="C698" s="5"/>
-    </row>
-    <row r="699" ht="15.75" customHeight="1">
-      <c r="C699" s="5"/>
-    </row>
-    <row r="700" ht="15.75" customHeight="1">
-      <c r="C700" s="5"/>
-    </row>
-    <row r="701" ht="15.75" customHeight="1">
-      <c r="C701" s="5"/>
-    </row>
-    <row r="702" ht="15.75" customHeight="1">
-      <c r="C702" s="5"/>
-    </row>
-    <row r="703" ht="15.75" customHeight="1">
-      <c r="C703" s="5"/>
-    </row>
-    <row r="704" ht="15.75" customHeight="1">
-      <c r="C704" s="5"/>
-    </row>
-    <row r="705" ht="15.75" customHeight="1">
-      <c r="C705" s="5"/>
-    </row>
-    <row r="706" ht="15.75" customHeight="1">
-      <c r="C706" s="5"/>
-    </row>
-    <row r="707" ht="15.75" customHeight="1">
-      <c r="C707" s="5"/>
-    </row>
-    <row r="708" ht="15.75" customHeight="1">
-      <c r="C708" s="5"/>
-    </row>
-    <row r="709" ht="15.75" customHeight="1">
-      <c r="C709" s="5"/>
-    </row>
-    <row r="710" ht="15.75" customHeight="1">
-      <c r="C710" s="5"/>
-    </row>
-    <row r="711" ht="15.75" customHeight="1">
-      <c r="C711" s="5"/>
-    </row>
-    <row r="712" ht="15.75" customHeight="1">
-      <c r="C712" s="5"/>
-    </row>
-    <row r="713" ht="15.75" customHeight="1">
-      <c r="C713" s="5"/>
-    </row>
-    <row r="714" ht="15.75" customHeight="1">
-      <c r="C714" s="5"/>
-    </row>
-    <row r="715" ht="15.75" customHeight="1">
-      <c r="C715" s="5"/>
-    </row>
-    <row r="716" ht="15.75" customHeight="1">
-      <c r="C716" s="5"/>
-    </row>
-    <row r="717" ht="15.75" customHeight="1">
-      <c r="C717" s="5"/>
-    </row>
-    <row r="718" ht="15.75" customHeight="1">
-      <c r="C718" s="5"/>
-    </row>
-    <row r="719" ht="15.75" customHeight="1">
-      <c r="C719" s="5"/>
-    </row>
-    <row r="720" ht="15.75" customHeight="1">
-      <c r="C720" s="5"/>
-    </row>
-    <row r="721" ht="15.75" customHeight="1">
-      <c r="C721" s="5"/>
-    </row>
-    <row r="722" ht="15.75" customHeight="1">
-      <c r="C722" s="5"/>
-    </row>
-    <row r="723" ht="15.75" customHeight="1">
-      <c r="C723" s="5"/>
-    </row>
-    <row r="724" ht="15.75" customHeight="1">
-      <c r="C724" s="5"/>
-    </row>
-    <row r="725" ht="15.75" customHeight="1">
-      <c r="C725" s="5"/>
-    </row>
-    <row r="726" ht="15.75" customHeight="1">
-      <c r="C726" s="5"/>
-    </row>
-    <row r="727" ht="15.75" customHeight="1">
-      <c r="C727" s="5"/>
-    </row>
-    <row r="728" ht="15.75" customHeight="1">
-      <c r="C728" s="5"/>
-    </row>
-    <row r="729" ht="15.75" customHeight="1">
-      <c r="C729" s="5"/>
-    </row>
-    <row r="730" ht="15.75" customHeight="1">
-      <c r="C730" s="5"/>
-    </row>
-    <row r="731" ht="15.75" customHeight="1">
-      <c r="C731" s="5"/>
-    </row>
-    <row r="732" ht="15.75" customHeight="1">
-      <c r="C732" s="5"/>
-    </row>
-    <row r="733" ht="15.75" customHeight="1">
-      <c r="C733" s="5"/>
-    </row>
-    <row r="734" ht="15.75" customHeight="1">
-      <c r="C734" s="5"/>
-    </row>
-    <row r="735" ht="15.75" customHeight="1">
-      <c r="C735" s="5"/>
-    </row>
-    <row r="736" ht="15.75" customHeight="1">
-      <c r="C736" s="5"/>
-    </row>
-    <row r="737" ht="15.75" customHeight="1">
-      <c r="C737" s="5"/>
-    </row>
-    <row r="738" ht="15.75" customHeight="1">
-      <c r="C738" s="5"/>
-    </row>
-    <row r="739" ht="15.75" customHeight="1">
-      <c r="C739" s="5"/>
-    </row>
-    <row r="740" ht="15.75" customHeight="1">
-      <c r="C740" s="5"/>
-    </row>
-    <row r="741" ht="15.75" customHeight="1">
-      <c r="C741" s="5"/>
-    </row>
-    <row r="742" ht="15.75" customHeight="1">
-      <c r="C742" s="5"/>
-    </row>
-    <row r="743" ht="15.75" customHeight="1">
-      <c r="C743" s="5"/>
-    </row>
-    <row r="744" ht="15.75" customHeight="1">
-      <c r="C744" s="5"/>
-    </row>
-    <row r="745" ht="15.75" customHeight="1">
-      <c r="C745" s="5"/>
-    </row>
-    <row r="746" ht="15.75" customHeight="1">
-      <c r="C746" s="5"/>
-    </row>
-    <row r="747" ht="15.75" customHeight="1">
-      <c r="C747" s="5"/>
-    </row>
-    <row r="748" ht="15.75" customHeight="1">
-      <c r="C748" s="5"/>
-    </row>
-    <row r="749" ht="15.75" customHeight="1">
-      <c r="C749" s="5"/>
-    </row>
-    <row r="750" ht="15.75" customHeight="1">
-      <c r="C750" s="5"/>
-    </row>
-    <row r="751" ht="15.75" customHeight="1">
-      <c r="C751" s="5"/>
-    </row>
-    <row r="752" ht="15.75" customHeight="1">
-      <c r="C752" s="5"/>
-    </row>
-    <row r="753" ht="15.75" customHeight="1">
-      <c r="C753" s="5"/>
-    </row>
-    <row r="754" ht="15.75" customHeight="1">
-      <c r="C754" s="5"/>
-    </row>
-    <row r="755" ht="15.75" customHeight="1">
-      <c r="C755" s="5"/>
-    </row>
-    <row r="756" ht="15.75" customHeight="1">
-      <c r="C756" s="5"/>
-    </row>
-    <row r="757" ht="15.75" customHeight="1">
-      <c r="C757" s="5"/>
-    </row>
-    <row r="758" ht="15.75" customHeight="1">
-      <c r="C758" s="5"/>
-    </row>
-    <row r="759" ht="15.75" customHeight="1">
-      <c r="C759" s="5"/>
-    </row>
-    <row r="760" ht="15.75" customHeight="1">
-      <c r="C760" s="5"/>
-    </row>
-    <row r="761" ht="15.75" customHeight="1">
-      <c r="C761" s="5"/>
-    </row>
-    <row r="762" ht="15.75" customHeight="1">
-      <c r="C762" s="5"/>
-    </row>
-    <row r="763" ht="15.75" customHeight="1">
-      <c r="C763" s="5"/>
-    </row>
-    <row r="764" ht="15.75" customHeight="1">
-      <c r="C764" s="5"/>
-    </row>
-    <row r="765" ht="15.75" customHeight="1">
-      <c r="C765" s="5"/>
-    </row>
-    <row r="766" ht="15.75" customHeight="1">
-      <c r="C766" s="5"/>
-    </row>
-    <row r="767" ht="15.75" customHeight="1">
-      <c r="C767" s="5"/>
-    </row>
-    <row r="768" ht="15.75" customHeight="1">
-      <c r="C768" s="5"/>
-    </row>
-    <row r="769" ht="15.75" customHeight="1">
-      <c r="C769" s="5"/>
-    </row>
-    <row r="770" ht="15.75" customHeight="1">
-      <c r="C770" s="5"/>
-    </row>
-    <row r="771" ht="15.75" customHeight="1">
-      <c r="C771" s="5"/>
-    </row>
-    <row r="772" ht="15.75" customHeight="1">
-      <c r="C772" s="5"/>
-    </row>
-    <row r="773" ht="15.75" customHeight="1">
-      <c r="C773" s="5"/>
-    </row>
-    <row r="774" ht="15.75" customHeight="1">
-      <c r="C774" s="5"/>
-    </row>
-    <row r="775" ht="15.75" customHeight="1">
-      <c r="C775" s="5"/>
-    </row>
-    <row r="776" ht="15.75" customHeight="1">
-      <c r="C776" s="5"/>
-    </row>
-    <row r="777" ht="15.75" customHeight="1">
-      <c r="C777" s="5"/>
-    </row>
-    <row r="778" ht="15.75" customHeight="1">
-      <c r="C778" s="5"/>
-    </row>
-    <row r="779" ht="15.75" customHeight="1">
-      <c r="C779" s="5"/>
-    </row>
-    <row r="780" ht="15.75" customHeight="1">
-      <c r="C780" s="5"/>
-    </row>
-    <row r="781" ht="15.75" customHeight="1">
-      <c r="C781" s="5"/>
-    </row>
-    <row r="782" ht="15.75" customHeight="1">
-      <c r="C782" s="5"/>
-    </row>
-    <row r="783" ht="15.75" customHeight="1">
-      <c r="C783" s="5"/>
-    </row>
-    <row r="784" ht="15.75" customHeight="1">
-      <c r="C784" s="5"/>
-    </row>
-    <row r="785" ht="15.75" customHeight="1">
-      <c r="C785" s="5"/>
-    </row>
-    <row r="786" ht="15.75" customHeight="1">
-      <c r="C786" s="5"/>
-    </row>
-    <row r="787" ht="15.75" customHeight="1">
-      <c r="C787" s="5"/>
-    </row>
-    <row r="788" ht="15.75" customHeight="1">
-      <c r="C788" s="5"/>
-    </row>
-    <row r="789" ht="15.75" customHeight="1">
-      <c r="C789" s="5"/>
-    </row>
-    <row r="790" ht="15.75" customHeight="1">
-      <c r="C790" s="5"/>
-    </row>
-    <row r="791" ht="15.75" customHeight="1">
-      <c r="C791" s="5"/>
-    </row>
-    <row r="792" ht="15.75" customHeight="1">
-      <c r="C792" s="5"/>
-    </row>
-    <row r="793" ht="15.75" customHeight="1">
-      <c r="C793" s="5"/>
-    </row>
-    <row r="794" ht="15.75" customHeight="1">
-      <c r="C794" s="5"/>
-    </row>
-    <row r="795" ht="15.75" customHeight="1">
-      <c r="C795" s="5"/>
-    </row>
-    <row r="796" ht="15.75" customHeight="1">
-      <c r="C796" s="5"/>
-    </row>
-    <row r="797" ht="15.75" customHeight="1">
-      <c r="C797" s="5"/>
-    </row>
-    <row r="798" ht="15.75" customHeight="1">
-      <c r="C798" s="5"/>
-    </row>
-    <row r="799" ht="15.75" customHeight="1">
-      <c r="C799" s="5"/>
-    </row>
-    <row r="800" ht="15.75" customHeight="1">
-      <c r="C800" s="5"/>
-    </row>
-    <row r="801" ht="15.75" customHeight="1">
-      <c r="C801" s="5"/>
-    </row>
-    <row r="802" ht="15.75" customHeight="1">
-      <c r="C802" s="5"/>
-    </row>
-    <row r="803" ht="15.75" customHeight="1">
-      <c r="C803" s="5"/>
-    </row>
-    <row r="804" ht="15.75" customHeight="1">
-      <c r="C804" s="5"/>
-    </row>
-    <row r="805" ht="15.75" customHeight="1">
-      <c r="C805" s="5"/>
-    </row>
-    <row r="806" ht="15.75" customHeight="1">
-      <c r="C806" s="5"/>
-    </row>
-    <row r="807" ht="15.75" customHeight="1">
-      <c r="C807" s="5"/>
-    </row>
-    <row r="808" ht="15.75" customHeight="1">
-      <c r="C808" s="5"/>
-    </row>
-    <row r="809" ht="15.75" customHeight="1">
-      <c r="C809" s="5"/>
-    </row>
-    <row r="810" ht="15.75" customHeight="1">
-      <c r="C810" s="5"/>
-    </row>
-    <row r="811" ht="15.75" customHeight="1">
-      <c r="C811" s="5"/>
-    </row>
-    <row r="812" ht="15.75" customHeight="1">
-      <c r="C812" s="5"/>
-    </row>
-    <row r="813" ht="15.75" customHeight="1">
-      <c r="C813" s="5"/>
-    </row>
-    <row r="814" ht="15.75" customHeight="1">
-      <c r="C814" s="5"/>
-    </row>
-    <row r="815" ht="15.75" customHeight="1">
-      <c r="C815" s="5"/>
-    </row>
-    <row r="816" ht="15.75" customHeight="1">
-      <c r="C816" s="5"/>
-    </row>
-    <row r="817" ht="15.75" customHeight="1">
-      <c r="C817" s="5"/>
-    </row>
-    <row r="818" ht="15.75" customHeight="1">
-      <c r="C818" s="5"/>
-    </row>
-    <row r="819" ht="15.75" customHeight="1">
-      <c r="C819" s="5"/>
-    </row>
-    <row r="820" ht="15.75" customHeight="1">
-      <c r="C820" s="5"/>
-    </row>
-    <row r="821" ht="15.75" customHeight="1">
-      <c r="C821" s="5"/>
-    </row>
-    <row r="822" ht="15.75" customHeight="1">
-      <c r="C822" s="5"/>
-    </row>
-    <row r="823" ht="15.75" customHeight="1">
-      <c r="C823" s="5"/>
-    </row>
-    <row r="824" ht="15.75" customHeight="1">
-      <c r="C824" s="5"/>
-    </row>
-    <row r="825" ht="15.75" customHeight="1">
-      <c r="C825" s="5"/>
-    </row>
-    <row r="826" ht="15.75" customHeight="1">
-      <c r="C826" s="5"/>
-    </row>
-    <row r="827" ht="15.75" customHeight="1">
-      <c r="C827" s="5"/>
-    </row>
-    <row r="828" ht="15.75" customHeight="1">
-      <c r="C828" s="5"/>
-    </row>
-    <row r="829" ht="15.75" customHeight="1">
-      <c r="C829" s="5"/>
-    </row>
-    <row r="830" ht="15.75" customHeight="1">
-      <c r="C830" s="5"/>
-    </row>
-    <row r="831" ht="15.75" customHeight="1">
-      <c r="C831" s="5"/>
-    </row>
-    <row r="832" ht="15.75" customHeight="1">
-      <c r="C832" s="5"/>
-    </row>
-    <row r="833" ht="15.75" customHeight="1">
-      <c r="C833" s="5"/>
-    </row>
-    <row r="834" ht="15.75" customHeight="1">
-      <c r="C834" s="5"/>
-    </row>
-    <row r="835" ht="15.75" customHeight="1">
-      <c r="C835" s="5"/>
-    </row>
-    <row r="836" ht="15.75" customHeight="1">
-      <c r="C836" s="5"/>
-    </row>
-    <row r="837" ht="15.75" customHeight="1">
-      <c r="C837" s="5"/>
-    </row>
-    <row r="838" ht="15.75" customHeight="1">
-      <c r="C838" s="5"/>
-    </row>
-    <row r="839" ht="15.75" customHeight="1">
-      <c r="C839" s="5"/>
-    </row>
-    <row r="840" ht="15.75" customHeight="1">
-      <c r="C840" s="5"/>
-    </row>
-    <row r="841" ht="15.75" customHeight="1">
-      <c r="C841" s="5"/>
-    </row>
-    <row r="842" ht="15.75" customHeight="1">
-      <c r="C842" s="5"/>
-    </row>
-    <row r="843" ht="15.75" customHeight="1">
-      <c r="C843" s="5"/>
-    </row>
-    <row r="844" ht="15.75" customHeight="1">
-      <c r="C844" s="5"/>
-    </row>
-    <row r="845" ht="15.75" customHeight="1">
-      <c r="C845" s="5"/>
-    </row>
-    <row r="846" ht="15.75" customHeight="1">
-      <c r="C846" s="5"/>
-    </row>
-    <row r="847" ht="15.75" customHeight="1">
-      <c r="C847" s="5"/>
-    </row>
-    <row r="848" ht="15.75" customHeight="1">
-      <c r="C848" s="5"/>
-    </row>
-    <row r="849" ht="15.75" customHeight="1">
-      <c r="C849" s="5"/>
-    </row>
-    <row r="850" ht="15.75" customHeight="1">
-      <c r="C850" s="5"/>
-    </row>
-    <row r="851" ht="15.75" customHeight="1">
-      <c r="C851" s="5"/>
-    </row>
-    <row r="852" ht="15.75" customHeight="1">
-      <c r="C852" s="5"/>
-    </row>
-    <row r="853" ht="15.75" customHeight="1">
-      <c r="C853" s="5"/>
-    </row>
-    <row r="854" ht="15.75" customHeight="1">
-      <c r="C854" s="5"/>
-    </row>
-    <row r="855" ht="15.75" customHeight="1">
-      <c r="C855" s="5"/>
-    </row>
-    <row r="856" ht="15.75" customHeight="1">
-      <c r="C856" s="5"/>
-    </row>
-    <row r="857" ht="15.75" customHeight="1">
-      <c r="C857" s="5"/>
-    </row>
-    <row r="858" ht="15.75" customHeight="1">
-      <c r="C858" s="5"/>
-    </row>
-    <row r="859" ht="15.75" customHeight="1">
-      <c r="C859" s="5"/>
-    </row>
-    <row r="860" ht="15.75" customHeight="1">
-      <c r="C860" s="5"/>
-    </row>
-    <row r="861" ht="15.75" customHeight="1">
-      <c r="C861" s="5"/>
-    </row>
-    <row r="862" ht="15.75" customHeight="1">
-      <c r="C862" s="5"/>
-    </row>
-    <row r="863" ht="15.75" customHeight="1">
-      <c r="C863" s="5"/>
-    </row>
-    <row r="864" ht="15.75" customHeight="1">
-      <c r="C864" s="5"/>
-    </row>
-    <row r="865" ht="15.75" customHeight="1">
-      <c r="C865" s="5"/>
-    </row>
-    <row r="866" ht="15.75" customHeight="1">
-      <c r="C866" s="5"/>
-    </row>
-    <row r="867" ht="15.75" customHeight="1">
-      <c r="C867" s="5"/>
-    </row>
-    <row r="868" ht="15.75" customHeight="1">
-      <c r="C868" s="5"/>
-    </row>
-    <row r="869" ht="15.75" customHeight="1">
-      <c r="C869" s="5"/>
-    </row>
-    <row r="870" ht="15.75" customHeight="1">
-      <c r="C870" s="5"/>
-    </row>
-    <row r="871" ht="15.75" customHeight="1">
-      <c r="C871" s="5"/>
-    </row>
-    <row r="872" ht="15.75" customHeight="1">
-      <c r="C872" s="5"/>
-    </row>
-    <row r="873" ht="15.75" customHeight="1">
-      <c r="C873" s="5"/>
-    </row>
-    <row r="874" ht="15.75" customHeight="1">
-      <c r="C874" s="5"/>
-    </row>
-    <row r="875" ht="15.75" customHeight="1">
-      <c r="C875" s="5"/>
-    </row>
-    <row r="876" ht="15.75" customHeight="1">
-      <c r="C876" s="5"/>
-    </row>
-    <row r="877" ht="15.75" customHeight="1">
-      <c r="C877" s="5"/>
-    </row>
-    <row r="878" ht="15.75" customHeight="1">
-      <c r="C878" s="5"/>
-    </row>
-    <row r="879" ht="15.75" customHeight="1">
-      <c r="C879" s="5"/>
-    </row>
-    <row r="880" ht="15.75" customHeight="1">
-      <c r="C880" s="5"/>
-    </row>
-    <row r="881" ht="15.75" customHeight="1">
-      <c r="C881" s="5"/>
-    </row>
-    <row r="882" ht="15.75" customHeight="1">
-      <c r="C882" s="5"/>
-    </row>
-    <row r="883" ht="15.75" customHeight="1">
-      <c r="C883" s="5"/>
-    </row>
-    <row r="884" ht="15.75" customHeight="1">
-      <c r="C884" s="5"/>
-    </row>
-    <row r="885" ht="15.75" customHeight="1">
-      <c r="C885" s="5"/>
-    </row>
-    <row r="886" ht="15.75" customHeight="1">
-      <c r="C886" s="5"/>
-    </row>
-    <row r="887" ht="15.75" customHeight="1">
-      <c r="C887" s="5"/>
-    </row>
-    <row r="888" ht="15.75" customHeight="1">
-      <c r="C888" s="5"/>
-    </row>
-    <row r="889" ht="15.75" customHeight="1">
-      <c r="C889" s="5"/>
-    </row>
-    <row r="890" ht="15.75" customHeight="1">
-      <c r="C890" s="5"/>
-    </row>
-    <row r="891" ht="15.75" customHeight="1">
-      <c r="C891" s="5"/>
-    </row>
-    <row r="892" ht="15.75" customHeight="1">
-      <c r="C892" s="5"/>
-    </row>
-    <row r="893" ht="15.75" customHeight="1">
-      <c r="C893" s="5"/>
-    </row>
-    <row r="894" ht="15.75" customHeight="1">
-      <c r="C894" s="5"/>
-    </row>
-    <row r="895" ht="15.75" customHeight="1">
-      <c r="C895" s="5"/>
-    </row>
-    <row r="896" ht="15.75" customHeight="1">
-      <c r="C896" s="5"/>
-    </row>
-    <row r="897" ht="15.75" customHeight="1">
-      <c r="C897" s="5"/>
-    </row>
-    <row r="898" ht="15.75" customHeight="1">
-      <c r="C898" s="5"/>
-    </row>
-    <row r="899" ht="15.75" customHeight="1">
-      <c r="C899" s="5"/>
-    </row>
-    <row r="900" ht="15.75" customHeight="1">
-      <c r="C900" s="5"/>
-    </row>
-    <row r="901" ht="15.75" customHeight="1">
-      <c r="C901" s="5"/>
-    </row>
-    <row r="902" ht="15.75" customHeight="1">
-      <c r="C902" s="5"/>
-    </row>
-    <row r="903" ht="15.75" customHeight="1">
-      <c r="C903" s="5"/>
-    </row>
-    <row r="904" ht="15.75" customHeight="1">
-      <c r="C904" s="5"/>
-    </row>
-    <row r="905" ht="15.75" customHeight="1">
-      <c r="C905" s="5"/>
-    </row>
-    <row r="906" ht="15.75" customHeight="1">
-      <c r="C906" s="5"/>
-    </row>
-    <row r="907" ht="15.75" customHeight="1">
-      <c r="C907" s="5"/>
-    </row>
-    <row r="908" ht="15.75" customHeight="1">
-      <c r="C908" s="5"/>
-    </row>
-    <row r="909" ht="15.75" customHeight="1">
-      <c r="C909" s="5"/>
-    </row>
-    <row r="910" ht="15.75" customHeight="1">
-      <c r="C910" s="5"/>
-    </row>
-    <row r="911" ht="15.75" customHeight="1">
-      <c r="C911" s="5"/>
-    </row>
-    <row r="912" ht="15.75" customHeight="1">
-      <c r="C912" s="5"/>
-    </row>
-    <row r="913" ht="15.75" customHeight="1">
-      <c r="C913" s="5"/>
-    </row>
-    <row r="914" ht="15.75" customHeight="1">
-      <c r="C914" s="5"/>
-    </row>
-    <row r="915" ht="15.75" customHeight="1">
-      <c r="C915" s="5"/>
-    </row>
-    <row r="916" ht="15.75" customHeight="1">
-      <c r="C916" s="5"/>
-    </row>
-    <row r="917" ht="15.75" customHeight="1">
-      <c r="C917" s="5"/>
-    </row>
-    <row r="918" ht="15.75" customHeight="1">
-      <c r="C918" s="5"/>
-    </row>
-    <row r="919" ht="15.75" customHeight="1">
-      <c r="C919" s="5"/>
-    </row>
-    <row r="920" ht="15.75" customHeight="1">
-      <c r="C920" s="5"/>
-    </row>
-    <row r="921" ht="15.75" customHeight="1">
-      <c r="C921" s="5"/>
-    </row>
-    <row r="922" ht="15.75" customHeight="1">
-      <c r="C922" s="5"/>
-    </row>
-    <row r="923" ht="15.75" customHeight="1">
-      <c r="C923" s="5"/>
-    </row>
-    <row r="924" ht="15.75" customHeight="1">
-      <c r="C924" s="5"/>
-    </row>
-    <row r="925" ht="15.75" customHeight="1">
-      <c r="C925" s="5"/>
-    </row>
-    <row r="926" ht="15.75" customHeight="1">
-      <c r="C926" s="5"/>
-    </row>
-    <row r="927" ht="15.75" customHeight="1">
-      <c r="C927" s="5"/>
-    </row>
-    <row r="928" ht="15.75" customHeight="1">
-      <c r="C928" s="5"/>
-    </row>
-    <row r="929" ht="15.75" customHeight="1">
-      <c r="C929" s="5"/>
-    </row>
-    <row r="930" ht="15.75" customHeight="1">
-      <c r="C930" s="5"/>
-    </row>
-    <row r="931" ht="15.75" customHeight="1">
-      <c r="C931" s="5"/>
-    </row>
-    <row r="932" ht="15.75" customHeight="1">
-      <c r="C932" s="5"/>
-    </row>
-    <row r="933" ht="15.75" customHeight="1">
-      <c r="C933" s="5"/>
-    </row>
-    <row r="934" ht="15.75" customHeight="1">
-      <c r="C934" s="5"/>
-    </row>
-    <row r="935" ht="15.75" customHeight="1">
-      <c r="C935" s="5"/>
-    </row>
-    <row r="936" ht="15.75" customHeight="1">
-      <c r="C936" s="5"/>
-    </row>
-    <row r="937" ht="15.75" customHeight="1">
-      <c r="C937" s="5"/>
-    </row>
-    <row r="938" ht="15.75" customHeight="1">
-      <c r="C938" s="5"/>
-    </row>
-    <row r="939" ht="15.75" customHeight="1">
-      <c r="C939" s="5"/>
-    </row>
-    <row r="940" ht="15.75" customHeight="1">
-      <c r="C940" s="5"/>
-    </row>
-    <row r="941" ht="15.75" customHeight="1">
-      <c r="C941" s="5"/>
-    </row>
-    <row r="942" ht="15.75" customHeight="1">
-      <c r="C942" s="5"/>
-    </row>
-    <row r="943" ht="15.75" customHeight="1">
-      <c r="C943" s="5"/>
-    </row>
-    <row r="944" ht="15.75" customHeight="1">
-      <c r="C944" s="5"/>
-    </row>
-    <row r="945" ht="15.75" customHeight="1">
-      <c r="C945" s="5"/>
-    </row>
-    <row r="946" ht="15.75" customHeight="1">
-      <c r="C946" s="5"/>
-    </row>
-    <row r="947" ht="15.75" customHeight="1">
-      <c r="C947" s="5"/>
-    </row>
-    <row r="948" ht="15.75" customHeight="1">
-      <c r="C948" s="5"/>
-    </row>
-    <row r="949" ht="15.75" customHeight="1">
-      <c r="C949" s="5"/>
-    </row>
-    <row r="950" ht="15.75" customHeight="1">
-      <c r="C950" s="5"/>
-    </row>
-    <row r="951" ht="15.75" customHeight="1">
-      <c r="C951" s="5"/>
-    </row>
-    <row r="952" ht="15.75" customHeight="1">
-      <c r="C952" s="5"/>
-    </row>
-    <row r="953" ht="15.75" customHeight="1">
-      <c r="C953" s="5"/>
-    </row>
-    <row r="954" ht="15.75" customHeight="1">
-      <c r="C954" s="5"/>
-    </row>
-    <row r="955" ht="15.75" customHeight="1">
-      <c r="C955" s="5"/>
-    </row>
-    <row r="956" ht="15.75" customHeight="1">
-      <c r="C956" s="5"/>
-    </row>
-    <row r="957" ht="15.75" customHeight="1">
-      <c r="C957" s="5"/>
-    </row>
-    <row r="958" ht="15.75" customHeight="1">
-      <c r="C958" s="5"/>
-    </row>
-    <row r="959" ht="15.75" customHeight="1">
-      <c r="C959" s="5"/>
-    </row>
-    <row r="960" ht="15.75" customHeight="1">
-      <c r="C960" s="5"/>
-    </row>
-    <row r="961" ht="15.75" customHeight="1">
-      <c r="C961" s="5"/>
-    </row>
-    <row r="962" ht="15.75" customHeight="1">
-      <c r="C962" s="5"/>
-    </row>
-    <row r="963" ht="15.75" customHeight="1">
-      <c r="C963" s="5"/>
-    </row>
-    <row r="964" ht="15.75" customHeight="1">
-      <c r="C964" s="5"/>
-    </row>
-    <row r="965" ht="15.75" customHeight="1">
-      <c r="C965" s="5"/>
-    </row>
-    <row r="966" ht="15.75" customHeight="1">
-      <c r="C966" s="5"/>
-    </row>
-    <row r="967" ht="15.75" customHeight="1">
-      <c r="C967" s="5"/>
-    </row>
-    <row r="968" ht="15.75" customHeight="1">
-      <c r="C968" s="5"/>
-    </row>
-    <row r="969" ht="15.75" customHeight="1">
-      <c r="C969" s="5"/>
-    </row>
-    <row r="970" ht="15.75" customHeight="1">
-      <c r="C970" s="5"/>
-    </row>
-    <row r="971" ht="15.75" customHeight="1">
-      <c r="C971" s="5"/>
-    </row>
-    <row r="972" ht="15.75" customHeight="1">
-      <c r="C972" s="5"/>
-    </row>
-    <row r="973" ht="15.75" customHeight="1">
-      <c r="C973" s="5"/>
-    </row>
-    <row r="974" ht="15.75" customHeight="1">
-      <c r="C974" s="5"/>
-    </row>
-    <row r="975" ht="15.75" customHeight="1">
-      <c r="C975" s="5"/>
-    </row>
-    <row r="976" ht="15.75" customHeight="1">
-      <c r="C976" s="5"/>
-    </row>
-    <row r="977" ht="15.75" customHeight="1">
-      <c r="C977" s="5"/>
-    </row>
-    <row r="978" ht="15.75" customHeight="1">
-      <c r="C978" s="5"/>
-    </row>
-    <row r="979" ht="15.75" customHeight="1">
-      <c r="C979" s="5"/>
-    </row>
-    <row r="980" ht="15.75" customHeight="1">
-      <c r="C980" s="5"/>
-    </row>
-    <row r="981" ht="15.75" customHeight="1">
-      <c r="C981" s="5"/>
-    </row>
-    <row r="982" ht="15.75" customHeight="1">
-      <c r="C982" s="5"/>
-    </row>
-    <row r="983" ht="15.75" customHeight="1">
-      <c r="C983" s="5"/>
-    </row>
-    <row r="984" ht="15.75" customHeight="1">
-      <c r="C984" s="5"/>
-    </row>
-    <row r="985" ht="15.75" customHeight="1">
-      <c r="C985" s="5"/>
-    </row>
-    <row r="986" ht="15.75" customHeight="1">
-      <c r="C986" s="5"/>
-    </row>
-    <row r="987" ht="15.75" customHeight="1">
-      <c r="C987" s="5"/>
-    </row>
-    <row r="988" ht="15.75" customHeight="1">
-      <c r="C988" s="5"/>
-    </row>
-    <row r="989" ht="15.75" customHeight="1">
-      <c r="C989" s="5"/>
-    </row>
-    <row r="990" ht="15.75" customHeight="1">
-      <c r="C990" s="5"/>
-    </row>
-    <row r="991" ht="15.75" customHeight="1">
-      <c r="C991" s="5"/>
-    </row>
-    <row r="992" ht="15.75" customHeight="1">
-      <c r="C992" s="5"/>
-    </row>
-    <row r="993" ht="15.75" customHeight="1">
-      <c r="C993" s="5"/>
-    </row>
-    <row r="994" ht="15.75" customHeight="1">
-      <c r="C994" s="5"/>
-    </row>
-    <row r="995" ht="15.75" customHeight="1">
-      <c r="C995" s="5"/>
-    </row>
-    <row r="996" ht="15.75" customHeight="1">
-      <c r="C996" s="5"/>
-    </row>
-    <row r="997" ht="15.75" customHeight="1">
-      <c r="C997" s="5"/>
-    </row>
-    <row r="998" ht="15.75" customHeight="1">
-      <c r="C998" s="5"/>
-    </row>
-    <row r="999" ht="15.75" customHeight="1">
-      <c r="C999" s="5"/>
-    </row>
-    <row r="1000" ht="15.75" customHeight="1">
-      <c r="C1000" s="5"/>
-    </row>
+    <row r="124" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/attached_assets/SURVEY DATA.xlsx
+++ b/attached_assets/SURVEY DATA.xlsx
@@ -1,42 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianappleby/OIM7502/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5E08F31-DAA6-154A-8DA2-CC3B4EACF736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="RESPONSES" sheetId="1" r:id="rId1"/>
-    <sheet name="QUESTIONS" sheetId="2" r:id="rId2"/>
+    <sheet state="visible" name="RESPONSES" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="QUESTIONS" sheetId="2" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RESPONSES!$A$1:$A$1000</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="0">RESPONSES!$B$105</definedName>
-  </definedNames>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
@@ -988,26 +959,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="3">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1016,7 +984,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1026,13 +994,7 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1046,50 +1008,46 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1279,148 +1237,146 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DT1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" customWidth="1"/>
-    <col min="13" max="13" width="16" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" customWidth="1"/>
-    <col min="15" max="15" width="16" customWidth="1"/>
-    <col min="16" max="16" width="19.33203125" customWidth="1"/>
-    <col min="17" max="17" width="16" customWidth="1"/>
-    <col min="18" max="18" width="19.33203125" customWidth="1"/>
-    <col min="19" max="19" width="16" customWidth="1"/>
-    <col min="20" max="20" width="19.33203125" customWidth="1"/>
-    <col min="21" max="21" width="16" customWidth="1"/>
-    <col min="22" max="22" width="19.33203125" customWidth="1"/>
-    <col min="23" max="23" width="16" customWidth="1"/>
-    <col min="24" max="24" width="19.33203125" customWidth="1"/>
-    <col min="25" max="25" width="4.83203125" customWidth="1"/>
-    <col min="26" max="26" width="16" customWidth="1"/>
-    <col min="27" max="27" width="19.33203125" customWidth="1"/>
-    <col min="28" max="28" width="16" customWidth="1"/>
-    <col min="29" max="29" width="19.33203125" customWidth="1"/>
-    <col min="30" max="30" width="16" customWidth="1"/>
-    <col min="31" max="31" width="19.33203125" customWidth="1"/>
-    <col min="32" max="32" width="16" customWidth="1"/>
-    <col min="33" max="33" width="19.33203125" customWidth="1"/>
-    <col min="34" max="34" width="16" customWidth="1"/>
-    <col min="35" max="35" width="19.33203125" customWidth="1"/>
-    <col min="36" max="36" width="16" customWidth="1"/>
-    <col min="37" max="37" width="19.33203125" customWidth="1"/>
-    <col min="38" max="38" width="16" customWidth="1"/>
-    <col min="39" max="39" width="19.33203125" customWidth="1"/>
-    <col min="40" max="40" width="16" customWidth="1"/>
-    <col min="41" max="41" width="19.33203125" customWidth="1"/>
-    <col min="42" max="42" width="16" customWidth="1"/>
-    <col min="43" max="43" width="19.33203125" customWidth="1"/>
-    <col min="44" max="44" width="16" customWidth="1"/>
-    <col min="45" max="45" width="19.33203125" customWidth="1"/>
-    <col min="46" max="46" width="16" customWidth="1"/>
-    <col min="47" max="47" width="19.33203125" customWidth="1"/>
-    <col min="48" max="48" width="4.83203125" customWidth="1"/>
-    <col min="49" max="49" width="16" customWidth="1"/>
-    <col min="50" max="50" width="19.33203125" customWidth="1"/>
-    <col min="51" max="51" width="16" customWidth="1"/>
-    <col min="52" max="52" width="19.33203125" customWidth="1"/>
-    <col min="53" max="53" width="16" customWidth="1"/>
-    <col min="54" max="54" width="19.33203125" customWidth="1"/>
-    <col min="55" max="55" width="16" customWidth="1"/>
-    <col min="56" max="56" width="19.33203125" customWidth="1"/>
-    <col min="57" max="57" width="16" customWidth="1"/>
-    <col min="58" max="58" width="19.33203125" customWidth="1"/>
-    <col min="59" max="59" width="16" customWidth="1"/>
-    <col min="60" max="60" width="19.33203125" customWidth="1"/>
-    <col min="61" max="61" width="16" customWidth="1"/>
-    <col min="62" max="62" width="19.33203125" customWidth="1"/>
-    <col min="63" max="63" width="16" customWidth="1"/>
-    <col min="64" max="64" width="19.33203125" customWidth="1"/>
-    <col min="65" max="65" width="16" customWidth="1"/>
-    <col min="66" max="66" width="19.33203125" customWidth="1"/>
-    <col min="67" max="67" width="16" customWidth="1"/>
-    <col min="68" max="68" width="19.33203125" customWidth="1"/>
-    <col min="69" max="69" width="4.83203125" customWidth="1"/>
-    <col min="70" max="70" width="16" customWidth="1"/>
-    <col min="71" max="71" width="19.33203125" customWidth="1"/>
-    <col min="72" max="72" width="16" customWidth="1"/>
-    <col min="73" max="73" width="19.33203125" customWidth="1"/>
-    <col min="74" max="74" width="16" customWidth="1"/>
-    <col min="75" max="75" width="19.33203125" customWidth="1"/>
-    <col min="76" max="76" width="16" customWidth="1"/>
-    <col min="77" max="77" width="19.33203125" customWidth="1"/>
-    <col min="78" max="78" width="16" customWidth="1"/>
-    <col min="79" max="79" width="19.33203125" customWidth="1"/>
-    <col min="80" max="80" width="16" customWidth="1"/>
-    <col min="81" max="81" width="19.33203125" customWidth="1"/>
-    <col min="82" max="82" width="16" customWidth="1"/>
-    <col min="83" max="83" width="19.33203125" customWidth="1"/>
-    <col min="84" max="84" width="16" customWidth="1"/>
-    <col min="85" max="85" width="19.33203125" customWidth="1"/>
-    <col min="86" max="86" width="16" customWidth="1"/>
-    <col min="87" max="87" width="19.33203125" customWidth="1"/>
-    <col min="88" max="88" width="16" customWidth="1"/>
-    <col min="89" max="89" width="19.33203125" customWidth="1"/>
-    <col min="90" max="90" width="16" customWidth="1"/>
-    <col min="91" max="91" width="19.33203125" customWidth="1"/>
-    <col min="92" max="92" width="16" customWidth="1"/>
-    <col min="93" max="93" width="19.33203125" customWidth="1"/>
-    <col min="94" max="94" width="16" customWidth="1"/>
-    <col min="95" max="95" width="19.33203125" customWidth="1"/>
-    <col min="96" max="96" width="16" customWidth="1"/>
-    <col min="97" max="97" width="19.33203125" customWidth="1"/>
-    <col min="98" max="98" width="4.83203125" customWidth="1"/>
-    <col min="99" max="99" width="16" customWidth="1"/>
-    <col min="100" max="100" width="19.33203125" customWidth="1"/>
-    <col min="101" max="101" width="16" customWidth="1"/>
-    <col min="102" max="102" width="19.33203125" customWidth="1"/>
-    <col min="103" max="103" width="16" customWidth="1"/>
-    <col min="104" max="104" width="19.33203125" customWidth="1"/>
-    <col min="105" max="105" width="16" customWidth="1"/>
-    <col min="106" max="106" width="19.33203125" customWidth="1"/>
-    <col min="107" max="107" width="16" customWidth="1"/>
-    <col min="108" max="108" width="19.33203125" customWidth="1"/>
-    <col min="109" max="109" width="16" customWidth="1"/>
-    <col min="110" max="110" width="19.33203125" customWidth="1"/>
-    <col min="111" max="111" width="16" customWidth="1"/>
-    <col min="112" max="112" width="19.33203125" customWidth="1"/>
-    <col min="113" max="113" width="16" customWidth="1"/>
-    <col min="114" max="114" width="19.33203125" customWidth="1"/>
-    <col min="115" max="115" width="16" customWidth="1"/>
-    <col min="116" max="116" width="19.33203125" customWidth="1"/>
-    <col min="117" max="117" width="16" customWidth="1"/>
-    <col min="118" max="118" width="19.33203125" customWidth="1"/>
-    <col min="119" max="119" width="4.83203125" customWidth="1"/>
-    <col min="120" max="120" width="19.33203125" customWidth="1"/>
-    <col min="121" max="121" width="16" customWidth="1"/>
-    <col min="122" max="122" width="23.83203125" customWidth="1"/>
-    <col min="123" max="123" width="19.33203125" customWidth="1"/>
-    <col min="124" max="124" width="4.83203125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="15.86"/>
+    <col customWidth="1" min="2" max="2" width="20.29"/>
+    <col customWidth="1" min="3" max="3" width="16.0"/>
+    <col customWidth="1" min="4" max="4" width="19.29"/>
+    <col customWidth="1" min="5" max="5" width="16.0"/>
+    <col customWidth="1" min="6" max="6" width="19.29"/>
+    <col customWidth="1" min="7" max="7" width="16.0"/>
+    <col customWidth="1" min="8" max="8" width="19.29"/>
+    <col customWidth="1" min="9" max="9" width="16.0"/>
+    <col customWidth="1" min="10" max="10" width="19.29"/>
+    <col customWidth="1" min="11" max="11" width="16.0"/>
+    <col customWidth="1" min="12" max="12" width="19.29"/>
+    <col customWidth="1" min="13" max="13" width="16.0"/>
+    <col customWidth="1" min="14" max="14" width="19.29"/>
+    <col customWidth="1" min="15" max="15" width="16.0"/>
+    <col customWidth="1" min="16" max="16" width="19.29"/>
+    <col customWidth="1" min="17" max="17" width="16.0"/>
+    <col customWidth="1" min="18" max="18" width="19.29"/>
+    <col customWidth="1" min="19" max="19" width="16.0"/>
+    <col customWidth="1" min="20" max="20" width="19.29"/>
+    <col customWidth="1" min="21" max="21" width="16.0"/>
+    <col customWidth="1" min="22" max="22" width="19.29"/>
+    <col customWidth="1" min="23" max="23" width="16.0"/>
+    <col customWidth="1" min="24" max="24" width="19.29"/>
+    <col customWidth="1" min="25" max="25" width="4.86"/>
+    <col customWidth="1" min="26" max="26" width="16.0"/>
+    <col customWidth="1" min="27" max="27" width="19.29"/>
+    <col customWidth="1" min="28" max="28" width="16.0"/>
+    <col customWidth="1" min="29" max="29" width="19.29"/>
+    <col customWidth="1" min="30" max="30" width="16.0"/>
+    <col customWidth="1" min="31" max="31" width="19.29"/>
+    <col customWidth="1" min="32" max="32" width="16.0"/>
+    <col customWidth="1" min="33" max="33" width="19.29"/>
+    <col customWidth="1" min="34" max="34" width="16.0"/>
+    <col customWidth="1" min="35" max="35" width="19.29"/>
+    <col customWidth="1" min="36" max="36" width="16.0"/>
+    <col customWidth="1" min="37" max="37" width="19.29"/>
+    <col customWidth="1" min="38" max="38" width="16.0"/>
+    <col customWidth="1" min="39" max="39" width="19.29"/>
+    <col customWidth="1" min="40" max="40" width="16.0"/>
+    <col customWidth="1" min="41" max="41" width="19.29"/>
+    <col customWidth="1" min="42" max="42" width="16.0"/>
+    <col customWidth="1" min="43" max="43" width="19.29"/>
+    <col customWidth="1" min="44" max="44" width="16.0"/>
+    <col customWidth="1" min="45" max="45" width="19.29"/>
+    <col customWidth="1" min="46" max="46" width="16.0"/>
+    <col customWidth="1" min="47" max="47" width="19.29"/>
+    <col customWidth="1" min="48" max="48" width="4.86"/>
+    <col customWidth="1" min="49" max="49" width="16.0"/>
+    <col customWidth="1" min="50" max="50" width="19.29"/>
+    <col customWidth="1" min="51" max="51" width="16.0"/>
+    <col customWidth="1" min="52" max="52" width="19.29"/>
+    <col customWidth="1" min="53" max="53" width="16.0"/>
+    <col customWidth="1" min="54" max="54" width="19.29"/>
+    <col customWidth="1" min="55" max="55" width="16.0"/>
+    <col customWidth="1" min="56" max="56" width="19.29"/>
+    <col customWidth="1" min="57" max="57" width="16.0"/>
+    <col customWidth="1" min="58" max="58" width="19.29"/>
+    <col customWidth="1" min="59" max="59" width="16.0"/>
+    <col customWidth="1" min="60" max="60" width="19.29"/>
+    <col customWidth="1" min="61" max="61" width="16.0"/>
+    <col customWidth="1" min="62" max="62" width="19.29"/>
+    <col customWidth="1" min="63" max="63" width="16.0"/>
+    <col customWidth="1" min="64" max="64" width="19.29"/>
+    <col customWidth="1" min="65" max="65" width="16.0"/>
+    <col customWidth="1" min="66" max="66" width="19.29"/>
+    <col customWidth="1" min="67" max="67" width="16.0"/>
+    <col customWidth="1" min="68" max="68" width="19.29"/>
+    <col customWidth="1" min="69" max="69" width="4.86"/>
+    <col customWidth="1" min="70" max="70" width="16.0"/>
+    <col customWidth="1" min="71" max="71" width="19.29"/>
+    <col customWidth="1" min="72" max="72" width="16.0"/>
+    <col customWidth="1" min="73" max="73" width="19.29"/>
+    <col customWidth="1" min="74" max="74" width="16.0"/>
+    <col customWidth="1" min="75" max="75" width="19.29"/>
+    <col customWidth="1" min="76" max="76" width="16.0"/>
+    <col customWidth="1" min="77" max="77" width="19.29"/>
+    <col customWidth="1" min="78" max="78" width="16.0"/>
+    <col customWidth="1" min="79" max="79" width="19.29"/>
+    <col customWidth="1" min="80" max="80" width="16.0"/>
+    <col customWidth="1" min="81" max="81" width="19.29"/>
+    <col customWidth="1" min="82" max="82" width="16.0"/>
+    <col customWidth="1" min="83" max="83" width="19.29"/>
+    <col customWidth="1" min="84" max="84" width="16.0"/>
+    <col customWidth="1" min="85" max="85" width="19.29"/>
+    <col customWidth="1" min="86" max="86" width="16.0"/>
+    <col customWidth="1" min="87" max="87" width="19.29"/>
+    <col customWidth="1" min="88" max="88" width="16.0"/>
+    <col customWidth="1" min="89" max="89" width="19.29"/>
+    <col customWidth="1" min="90" max="90" width="16.0"/>
+    <col customWidth="1" min="91" max="91" width="19.29"/>
+    <col customWidth="1" min="92" max="92" width="16.0"/>
+    <col customWidth="1" min="93" max="93" width="19.29"/>
+    <col customWidth="1" min="94" max="94" width="16.0"/>
+    <col customWidth="1" min="95" max="95" width="19.29"/>
+    <col customWidth="1" min="96" max="96" width="16.0"/>
+    <col customWidth="1" min="97" max="97" width="19.29"/>
+    <col customWidth="1" min="98" max="98" width="4.86"/>
+    <col customWidth="1" min="99" max="99" width="16.0"/>
+    <col customWidth="1" min="100" max="100" width="19.29"/>
+    <col customWidth="1" min="101" max="101" width="16.0"/>
+    <col customWidth="1" min="102" max="102" width="19.29"/>
+    <col customWidth="1" min="103" max="103" width="16.0"/>
+    <col customWidth="1" min="104" max="104" width="19.29"/>
+    <col customWidth="1" min="105" max="105" width="16.0"/>
+    <col customWidth="1" min="106" max="106" width="19.29"/>
+    <col customWidth="1" min="107" max="107" width="16.0"/>
+    <col customWidth="1" min="108" max="108" width="19.29"/>
+    <col customWidth="1" min="109" max="109" width="16.0"/>
+    <col customWidth="1" min="110" max="110" width="19.29"/>
+    <col customWidth="1" min="111" max="111" width="16.0"/>
+    <col customWidth="1" min="112" max="112" width="19.29"/>
+    <col customWidth="1" min="113" max="113" width="16.0"/>
+    <col customWidth="1" min="114" max="114" width="19.29"/>
+    <col customWidth="1" min="115" max="115" width="16.0"/>
+    <col customWidth="1" min="116" max="116" width="19.29"/>
+    <col customWidth="1" min="117" max="117" width="16.0"/>
+    <col customWidth="1" min="118" max="118" width="19.29"/>
+    <col customWidth="1" min="119" max="119" width="4.86"/>
+    <col customWidth="1" min="120" max="120" width="19.29"/>
+    <col customWidth="1" min="121" max="121" width="16.0"/>
+    <col customWidth="1" min="122" max="122" width="23.86"/>
+    <col customWidth="1" min="123" max="123" width="19.29"/>
+    <col customWidth="1" min="124" max="124" width="4.86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:124" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="20.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1794,7 +1750,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:124" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>124</v>
       </c>
@@ -2150,7 +2106,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:124" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" s="2" t="s">
         <v>138</v>
       </c>
@@ -2506,7 +2462,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:124" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" s="2" t="s">
         <v>138</v>
       </c>
@@ -2862,7 +2818,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:124" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" s="2" t="s">
         <v>143</v>
       </c>
@@ -3218,7 +3174,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:124" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" s="2" t="s">
         <v>145</v>
       </c>
@@ -3574,7 +3530,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:124" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" s="2" t="s">
         <v>147</v>
       </c>
@@ -3930,7 +3886,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:124" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" s="2" t="s">
         <v>147</v>
       </c>
@@ -4286,7 +4242,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:124" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" s="2" t="s">
         <v>143</v>
       </c>
@@ -4642,7 +4598,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:124" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" s="2" t="s">
         <v>149</v>
       </c>
@@ -4998,7 +4954,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:124" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" s="2" t="s">
         <v>138</v>
       </c>
@@ -5354,7 +5310,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:124" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" s="2" t="s">
         <v>151</v>
       </c>
@@ -5710,7 +5666,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:124" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" s="2" t="s">
         <v>152</v>
       </c>
@@ -6066,7 +6022,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:124" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" s="2" t="s">
         <v>151</v>
       </c>
@@ -6422,7 +6378,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:124" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" s="2" t="s">
         <v>153</v>
       </c>
@@ -6778,7 +6734,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:124" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" s="2" t="s">
         <v>149</v>
       </c>
@@ -7134,7 +7090,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" s="2" t="s">
         <v>153</v>
       </c>
@@ -7490,7 +7446,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" s="2" t="s">
         <v>155</v>
       </c>
@@ -7846,7 +7802,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" s="2" t="s">
         <v>143</v>
       </c>
@@ -8202,7 +8158,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" s="2" t="s">
         <v>156</v>
       </c>
@@ -8558,7 +8514,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>157</v>
       </c>
@@ -8914,7 +8870,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>147</v>
       </c>
@@ -9270,7 +9226,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>158</v>
       </c>
@@ -9626,7 +9582,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>151</v>
       </c>
@@ -9982,7 +9938,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>159</v>
       </c>
@@ -10338,7 +10294,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>160</v>
       </c>
@@ -10694,7 +10650,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>161</v>
       </c>
@@ -11050,7 +11006,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>160</v>
       </c>
@@ -11406,7 +11362,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>160</v>
       </c>
@@ -11762,7 +11718,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>143</v>
       </c>
@@ -12118,7 +12074,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>162</v>
       </c>
@@ -12474,7 +12430,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>160</v>
       </c>
@@ -12830,7 +12786,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>145</v>
       </c>
@@ -13186,7 +13142,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>161</v>
       </c>
@@ -13542,7 +13498,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>124</v>
       </c>
@@ -13898,7 +13854,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>158</v>
       </c>
@@ -14254,7 +14210,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>162</v>
       </c>
@@ -14610,7 +14566,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>138</v>
       </c>
@@ -14966,7 +14922,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>151</v>
       </c>
@@ -15322,7 +15278,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>163</v>
       </c>
@@ -15678,7 +15634,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>145</v>
       </c>
@@ -16034,7 +15990,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>143</v>
       </c>
@@ -16390,7 +16346,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>143</v>
       </c>
@@ -16746,7 +16702,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>160</v>
       </c>
@@ -17102,7 +17058,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>156</v>
       </c>
@@ -17458,7 +17414,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>143</v>
       </c>
@@ -17814,7 +17770,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>124</v>
       </c>
@@ -18170,7 +18126,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>143</v>
       </c>
@@ -18526,7 +18482,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>162</v>
       </c>
@@ -18882,7 +18838,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>151</v>
       </c>
@@ -19238,7 +19194,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="51" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="2" t="s">
         <v>152</v>
       </c>
@@ -19594,7 +19550,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="2" t="s">
         <v>147</v>
       </c>
@@ -19950,7 +19906,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="2" t="s">
         <v>153</v>
       </c>
@@ -20306,7 +20262,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="2" t="s">
         <v>161</v>
       </c>
@@ -20662,7 +20618,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="2" t="s">
         <v>138</v>
       </c>
@@ -21018,7 +20974,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="2" t="s">
         <v>159</v>
       </c>
@@ -21374,7 +21330,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="57" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="2" t="s">
         <v>164</v>
       </c>
@@ -21730,7 +21686,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="2" t="s">
         <v>124</v>
       </c>
@@ -22086,7 +22042,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="59" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="2" t="s">
         <v>145</v>
       </c>
@@ -22442,7 +22398,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="60" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="2" t="s">
         <v>161</v>
       </c>
@@ -22798,7 +22754,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="2" t="s">
         <v>161</v>
       </c>
@@ -23154,7 +23110,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="2" t="s">
         <v>156</v>
       </c>
@@ -23510,7 +23466,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="63" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="2" t="s">
         <v>145</v>
       </c>
@@ -23866,7 +23822,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="2" t="s">
         <v>151</v>
       </c>
@@ -24222,7 +24178,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="65" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="2" t="s">
         <v>158</v>
       </c>
@@ -24578,7 +24534,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="66" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="2" t="s">
         <v>145</v>
       </c>
@@ -24934,7 +24890,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="2" t="s">
         <v>138</v>
       </c>
@@ -25290,7 +25246,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="68" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="2" t="s">
         <v>145</v>
       </c>
@@ -25646,7 +25602,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="2" t="s">
         <v>162</v>
       </c>
@@ -26002,7 +25958,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="70" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="2" t="s">
         <v>158</v>
       </c>
@@ -26358,7 +26314,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="71" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="2" t="s">
         <v>157</v>
       </c>
@@ -26714,7 +26670,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="72" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="2" t="s">
         <v>155</v>
       </c>
@@ -27070,7 +27026,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="73" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="2" t="s">
         <v>147</v>
       </c>
@@ -27426,7 +27382,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="74" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="2" t="s">
         <v>156</v>
       </c>
@@ -27782,7 +27738,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="75" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="2" t="s">
         <v>155</v>
       </c>
@@ -28138,7 +28094,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="76" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="2" t="s">
         <v>145</v>
       </c>
@@ -28494,7 +28450,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="77" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="2" t="s">
         <v>138</v>
       </c>
@@ -28850,7 +28806,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="78" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="2" t="s">
         <v>157</v>
       </c>
@@ -29206,7 +29162,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="79" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="2" t="s">
         <v>165</v>
       </c>
@@ -29562,7 +29518,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="80" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="2" t="s">
         <v>157</v>
       </c>
@@ -29918,7 +29874,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="2" t="s">
         <v>124</v>
       </c>
@@ -30274,7 +30230,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="82" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="2" t="s">
         <v>162</v>
       </c>
@@ -30630,7 +30586,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="83" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="2" t="s">
         <v>149</v>
       </c>
@@ -30986,7 +30942,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="84" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="2" t="s">
         <v>161</v>
       </c>
@@ -31342,7 +31298,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="85" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="2" t="s">
         <v>145</v>
       </c>
@@ -31698,7 +31654,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="86" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="2" t="s">
         <v>161</v>
       </c>
@@ -32054,7 +32010,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="87" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="2" t="s">
         <v>165</v>
       </c>
@@ -32410,7 +32366,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="88" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="2" t="s">
         <v>152</v>
       </c>
@@ -32766,7 +32722,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="89" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="2" t="s">
         <v>160</v>
       </c>
@@ -33122,7 +33078,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="90" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="2" t="s">
         <v>164</v>
       </c>
@@ -33478,7 +33434,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="91" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="2" t="s">
         <v>162</v>
       </c>
@@ -33834,7 +33790,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="92" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="2" t="s">
         <v>124</v>
       </c>
@@ -34190,7 +34146,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="93" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="2" t="s">
         <v>124</v>
       </c>
@@ -34546,7 +34502,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="94" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="2" t="s">
         <v>138</v>
       </c>
@@ -34902,7 +34858,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="95" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="2" t="s">
         <v>145</v>
       </c>
@@ -35258,7 +35214,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="96" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="2" t="s">
         <v>162</v>
       </c>
@@ -35614,7 +35570,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="97" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="2" t="s">
         <v>161</v>
       </c>
@@ -35970,7 +35926,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="98" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="2" t="s">
         <v>145</v>
       </c>
@@ -36326,7 +36282,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="99" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="2" t="s">
         <v>147</v>
       </c>
@@ -36682,7 +36638,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="100" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="2" t="s">
         <v>149</v>
       </c>
@@ -37038,7 +36994,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="101" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="2" t="s">
         <v>156</v>
       </c>
@@ -37394,1002 +37350,960 @@
         <v>131</v>
       </c>
     </row>
-    <row r="102" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="5"/>
-    </row>
-    <row r="106" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="2"/>
-    </row>
-    <row r="107" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="2"/>
-    </row>
-    <row r="108" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="2"/>
-    </row>
-    <row r="109" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="2"/>
-    </row>
-    <row r="110" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="2"/>
-    </row>
-    <row r="111" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="2"/>
-    </row>
-    <row r="112" spans="1:123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="2"/>
-    </row>
-    <row r="113" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="2"/>
-    </row>
-    <row r="114" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="2"/>
-    </row>
-    <row r="115" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="2"/>
-    </row>
-    <row r="116" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="2"/>
-    </row>
-    <row r="117" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="2"/>
-    </row>
-    <row r="118" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="2"/>
-    </row>
-    <row r="119" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="2"/>
-    </row>
-    <row r="120" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="2"/>
-    </row>
-    <row r="121" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="2"/>
-    </row>
-    <row r="122" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="2"/>
-    </row>
-    <row r="123" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="2"/>
-    </row>
-    <row r="124" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="2"/>
-    </row>
-    <row r="125" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="2"/>
-    </row>
-    <row r="126" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="2"/>
-    </row>
-    <row r="127" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="88.6640625" customWidth="1"/>
-    <col min="7" max="26" width="8.6640625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="24.0"/>
+    <col customWidth="1" min="2" max="2" width="8.71"/>
+    <col customWidth="1" min="3" max="3" width="42.29"/>
+    <col customWidth="1" min="4" max="4" width="13.71"/>
+    <col customWidth="1" min="5" max="5" width="11.0"/>
+    <col customWidth="1" min="6" max="6" width="88.71"/>
+    <col customWidth="1" min="7" max="26" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="3" t="s">
         <v>166</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>174</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -38402,14 +38316,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>174</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -38422,14 +38336,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>181</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -38442,14 +38356,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>181</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -38462,14 +38376,14 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>184</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -38482,14 +38396,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>184</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -38502,14 +38416,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>186</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -38522,14 +38436,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>186</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -38542,14 +38456,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>188</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -38562,14 +38476,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>188</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -38582,14 +38496,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>190</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -38602,14 +38516,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>190</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -38622,14 +38536,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>192</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -38642,14 +38556,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>192</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -38662,14 +38576,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>194</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -38682,14 +38596,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>194</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -38702,14 +38616,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>196</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -38722,14 +38636,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>196</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -38742,14 +38656,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>198</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -38762,14 +38676,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="5" t="s">
         <v>198</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -38782,14 +38696,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="5" t="s">
         <v>200</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -38802,14 +38716,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="5" t="s">
         <v>200</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -38822,28 +38736,28 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="5" t="s">
         <v>201</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>205</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -38856,14 +38770,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="5" t="s">
         <v>205</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -38876,14 +38790,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="5" t="s">
         <v>207</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -38896,14 +38810,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>207</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -38916,14 +38830,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>209</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -38936,14 +38850,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="5" t="s">
         <v>209</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -38956,14 +38870,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="5" t="s">
         <v>211</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -38976,14 +38890,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="5" t="s">
         <v>211</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -38996,14 +38910,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="5" t="s">
         <v>213</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -39016,14 +38930,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="5" t="s">
         <v>213</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -39036,14 +38950,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="5" t="s">
         <v>215</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -39056,14 +38970,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="5" t="s">
         <v>215</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -39076,14 +38990,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="5" t="s">
         <v>217</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -39096,14 +39010,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="5" t="s">
         <v>217</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -39116,14 +39030,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="5" t="s">
         <v>219</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -39136,14 +39050,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="5" t="s">
         <v>219</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -39156,14 +39070,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="5" t="s">
         <v>221</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -39176,14 +39090,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="5" t="s">
         <v>221</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -39196,14 +39110,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="5" t="s">
         <v>223</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -39216,14 +39130,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="5" t="s">
         <v>223</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -39236,14 +39150,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="5" t="s">
         <v>225</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -39256,14 +39170,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="5" t="s">
         <v>225</v>
       </c>
       <c r="D46" s="2" t="s">
@@ -39276,28 +39190,28 @@
         <v>179</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="5" t="s">
         <v>226</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="5" t="s">
         <v>229</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -39310,14 +39224,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="5" t="s">
         <v>229</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -39330,14 +39244,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="5" t="s">
         <v>231</v>
       </c>
       <c r="D50" s="2" t="s">
@@ -39350,14 +39264,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="5" t="s">
         <v>231</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -39370,14 +39284,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="5" t="s">
         <v>233</v>
       </c>
       <c r="D52" s="2" t="s">
@@ -39390,14 +39304,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="5" t="s">
         <v>233</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -39410,14 +39324,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="5" t="s">
         <v>235</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -39430,14 +39344,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="5" t="s">
         <v>235</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -39450,14 +39364,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="5" t="s">
         <v>237</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -39470,14 +39384,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="5" t="s">
         <v>237</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -39490,14 +39404,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="5" t="s">
         <v>239</v>
       </c>
       <c r="D58" s="2" t="s">
@@ -39510,14 +39424,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="5" t="s">
         <v>239</v>
       </c>
       <c r="D59" s="2" t="s">
@@ -39530,14 +39444,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="5" t="s">
         <v>241</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -39550,14 +39464,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="5" t="s">
         <v>241</v>
       </c>
       <c r="D61" s="2" t="s">
@@ -39570,14 +39484,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="5" t="s">
         <v>243</v>
       </c>
       <c r="D62" s="2" t="s">
@@ -39590,14 +39504,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="5" t="s">
         <v>243</v>
       </c>
       <c r="D63" s="2" t="s">
@@ -39610,14 +39524,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="5" t="s">
         <v>245</v>
       </c>
       <c r="D64" s="2" t="s">
@@ -39630,14 +39544,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="5" t="s">
         <v>245</v>
       </c>
       <c r="D65" s="2" t="s">
@@ -39650,14 +39564,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="5" t="s">
         <v>247</v>
       </c>
       <c r="D66" s="2" t="s">
@@ -39670,14 +39584,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="5" t="s">
         <v>247</v>
       </c>
       <c r="D67" s="2" t="s">
@@ -39690,28 +39604,28 @@
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="5" t="s">
         <v>248</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="5" t="s">
         <v>251</v>
       </c>
       <c r="D69" s="2" t="s">
@@ -39724,14 +39638,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="5" t="s">
         <v>251</v>
       </c>
       <c r="D70" s="2" t="s">
@@ -39744,14 +39658,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="5" t="s">
         <v>253</v>
       </c>
       <c r="D71" s="2" t="s">
@@ -39764,14 +39678,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="5" t="s">
         <v>253</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -39784,14 +39698,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="5" t="s">
         <v>255</v>
       </c>
       <c r="D73" s="2" t="s">
@@ -39804,14 +39718,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="5" t="s">
         <v>255</v>
       </c>
       <c r="D74" s="2" t="s">
@@ -39824,14 +39738,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="5" t="s">
         <v>257</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -39844,14 +39758,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="5" t="s">
         <v>257</v>
       </c>
       <c r="D76" s="2" t="s">
@@ -39864,14 +39778,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="5" t="s">
         <v>259</v>
       </c>
       <c r="D77" s="2" t="s">
@@ -39884,14 +39798,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="5" t="s">
         <v>259</v>
       </c>
       <c r="D78" s="2" t="s">
@@ -39904,14 +39818,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="5" t="s">
         <v>261</v>
       </c>
       <c r="D79" s="2" t="s">
@@ -39924,14 +39838,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="5" t="s">
         <v>261</v>
       </c>
       <c r="D80" s="2" t="s">
@@ -39944,14 +39858,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="5" t="s">
         <v>263</v>
       </c>
       <c r="D81" s="2" t="s">
@@ -39964,14 +39878,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="5" t="s">
         <v>263</v>
       </c>
       <c r="D82" s="2" t="s">
@@ -39984,14 +39898,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="5" t="s">
         <v>265</v>
       </c>
       <c r="D83" s="2" t="s">
@@ -40004,14 +39918,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="5" t="s">
         <v>265</v>
       </c>
       <c r="D84" s="2" t="s">
@@ -40024,14 +39938,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="5" t="s">
         <v>267</v>
       </c>
       <c r="D85" s="2" t="s">
@@ -40044,14 +39958,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="5" t="s">
         <v>267</v>
       </c>
       <c r="D86" s="2" t="s">
@@ -40064,14 +39978,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="5" t="s">
         <v>269</v>
       </c>
       <c r="D87" s="2" t="s">
@@ -40084,14 +39998,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="5" t="s">
         <v>269</v>
       </c>
       <c r="D88" s="2" t="s">
@@ -40104,14 +40018,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="5" t="s">
         <v>271</v>
       </c>
       <c r="D89" s="2" t="s">
@@ -40124,14 +40038,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" s="5" t="s">
         <v>271</v>
       </c>
       <c r="D90" s="2" t="s">
@@ -40144,14 +40058,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="5" t="s">
         <v>273</v>
       </c>
       <c r="D91" s="2" t="s">
@@ -40164,14 +40078,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="5" t="s">
         <v>273</v>
       </c>
       <c r="D92" s="2" t="s">
@@ -40184,14 +40098,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="5" t="s">
         <v>275</v>
       </c>
       <c r="D93" s="2" t="s">
@@ -40204,14 +40118,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" s="5" t="s">
         <v>275</v>
       </c>
       <c r="D94" s="2" t="s">
@@ -40224,14 +40138,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="5" t="s">
         <v>277</v>
       </c>
       <c r="D95" s="2" t="s">
@@ -40244,14 +40158,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="5" t="s">
         <v>277</v>
       </c>
       <c r="D96" s="2" t="s">
@@ -40264,28 +40178,28 @@
         <v>179</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="5" t="s">
         <v>278</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="5" t="s">
         <v>281</v>
       </c>
       <c r="D98" s="2" t="s">
@@ -40298,14 +40212,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="5" t="s">
         <v>281</v>
       </c>
       <c r="D99" s="2" t="s">
@@ -40318,14 +40232,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="5" t="s">
         <v>283</v>
       </c>
       <c r="D100" s="2" t="s">
@@ -40338,14 +40252,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="5" t="s">
         <v>283</v>
       </c>
       <c r="D101" s="2" t="s">
@@ -40358,14 +40272,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C102" s="5" t="s">
         <v>285</v>
       </c>
       <c r="D102" s="2" t="s">
@@ -40378,14 +40292,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" s="5" t="s">
         <v>285</v>
       </c>
       <c r="D103" s="2" t="s">
@@ -40398,14 +40312,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="5" t="s">
         <v>287</v>
       </c>
       <c r="D104" s="2" t="s">
@@ -40418,14 +40332,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C105" s="5" t="s">
         <v>287</v>
       </c>
       <c r="D105" s="2" t="s">
@@ -40438,14 +40352,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C106" s="5" t="s">
         <v>289</v>
       </c>
       <c r="D106" s="2" t="s">
@@ -40458,14 +40372,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" s="5" t="s">
         <v>289</v>
       </c>
       <c r="D107" s="2" t="s">
@@ -40478,14 +40392,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" s="5" t="s">
         <v>291</v>
       </c>
       <c r="D108" s="2" t="s">
@@ -40498,14 +40412,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="5" t="s">
         <v>291</v>
       </c>
       <c r="D109" s="2" t="s">
@@ -40518,14 +40432,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" s="5" t="s">
         <v>293</v>
       </c>
       <c r="D110" s="2" t="s">
@@ -40538,14 +40452,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C111" s="5" t="s">
         <v>293</v>
       </c>
       <c r="D111" s="2" t="s">
@@ -40558,14 +40472,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C112" s="5" t="s">
         <v>295</v>
       </c>
       <c r="D112" s="2" t="s">
@@ -40578,14 +40492,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C113" s="5" t="s">
         <v>295</v>
       </c>
       <c r="D113" s="2" t="s">
@@ -40598,14 +40512,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C114" s="5" t="s">
         <v>297</v>
       </c>
       <c r="D114" s="2" t="s">
@@ -40618,14 +40532,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C115" s="5" t="s">
         <v>297</v>
       </c>
       <c r="D115" s="2" t="s">
@@ -40638,14 +40552,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C116" s="5" t="s">
         <v>299</v>
       </c>
       <c r="D116" s="2" t="s">
@@ -40658,14 +40572,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C117" s="5" t="s">
         <v>299</v>
       </c>
       <c r="D117" s="2" t="s">
@@ -40678,28 +40592,28 @@
         <v>179</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C118" s="5" t="s">
         <v>300</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="2" t="s">
         <v>301</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C119" s="5" t="s">
         <v>303</v>
       </c>
       <c r="D119" s="2" t="s">
@@ -40712,14 +40626,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="2" t="s">
         <v>301</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C120" s="5" t="s">
         <v>305</v>
       </c>
       <c r="D120" s="2" t="s">
@@ -40729,14 +40643,14 @@
         <v>307</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="2" t="s">
         <v>301</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C121" s="5" t="s">
         <v>309</v>
       </c>
       <c r="D121" s="2" t="s">
@@ -40746,14 +40660,14 @@
         <v>310</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="2" t="s">
         <v>301</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C122" s="5" t="s">
         <v>312</v>
       </c>
       <c r="D122" s="2" t="s">
@@ -40766,899 +40680,2655 @@
         <v>179</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="2" t="s">
         <v>301</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C123" s="5" t="s">
         <v>313</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="C124" s="5"/>
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="C125" s="5"/>
+    </row>
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="C126" s="5"/>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="C127" s="5"/>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="C128" s="5"/>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="C129" s="5"/>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="C130" s="5"/>
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="C131" s="5"/>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="C132" s="5"/>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="C133" s="5"/>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="C134" s="5"/>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="C135" s="5"/>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="C136" s="5"/>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="C137" s="5"/>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="C138" s="5"/>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="C139" s="5"/>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="C140" s="5"/>
+    </row>
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="C141" s="5"/>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="C142" s="5"/>
+    </row>
+    <row r="143" ht="15.75" customHeight="1">
+      <c r="C143" s="5"/>
+    </row>
+    <row r="144" ht="15.75" customHeight="1">
+      <c r="C144" s="5"/>
+    </row>
+    <row r="145" ht="15.75" customHeight="1">
+      <c r="C145" s="5"/>
+    </row>
+    <row r="146" ht="15.75" customHeight="1">
+      <c r="C146" s="5"/>
+    </row>
+    <row r="147" ht="15.75" customHeight="1">
+      <c r="C147" s="5"/>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
+      <c r="C148" s="5"/>
+    </row>
+    <row r="149" ht="15.75" customHeight="1">
+      <c r="C149" s="5"/>
+    </row>
+    <row r="150" ht="15.75" customHeight="1">
+      <c r="C150" s="5"/>
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
+      <c r="C151" s="5"/>
+    </row>
+    <row r="152" ht="15.75" customHeight="1">
+      <c r="C152" s="5"/>
+    </row>
+    <row r="153" ht="15.75" customHeight="1">
+      <c r="C153" s="5"/>
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
+      <c r="C154" s="5"/>
+    </row>
+    <row r="155" ht="15.75" customHeight="1">
+      <c r="C155" s="5"/>
+    </row>
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="C156" s="5"/>
+    </row>
+    <row r="157" ht="15.75" customHeight="1">
+      <c r="C157" s="5"/>
+    </row>
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="C158" s="5"/>
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="C159" s="5"/>
+    </row>
+    <row r="160" ht="15.75" customHeight="1">
+      <c r="C160" s="5"/>
+    </row>
+    <row r="161" ht="15.75" customHeight="1">
+      <c r="C161" s="5"/>
+    </row>
+    <row r="162" ht="15.75" customHeight="1">
+      <c r="C162" s="5"/>
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="C163" s="5"/>
+    </row>
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="C164" s="5"/>
+    </row>
+    <row r="165" ht="15.75" customHeight="1">
+      <c r="C165" s="5"/>
+    </row>
+    <row r="166" ht="15.75" customHeight="1">
+      <c r="C166" s="5"/>
+    </row>
+    <row r="167" ht="15.75" customHeight="1">
+      <c r="C167" s="5"/>
+    </row>
+    <row r="168" ht="15.75" customHeight="1">
+      <c r="C168" s="5"/>
+    </row>
+    <row r="169" ht="15.75" customHeight="1">
+      <c r="C169" s="5"/>
+    </row>
+    <row r="170" ht="15.75" customHeight="1">
+      <c r="C170" s="5"/>
+    </row>
+    <row r="171" ht="15.75" customHeight="1">
+      <c r="C171" s="5"/>
+    </row>
+    <row r="172" ht="15.75" customHeight="1">
+      <c r="C172" s="5"/>
+    </row>
+    <row r="173" ht="15.75" customHeight="1">
+      <c r="C173" s="5"/>
+    </row>
+    <row r="174" ht="15.75" customHeight="1">
+      <c r="C174" s="5"/>
+    </row>
+    <row r="175" ht="15.75" customHeight="1">
+      <c r="C175" s="5"/>
+    </row>
+    <row r="176" ht="15.75" customHeight="1">
+      <c r="C176" s="5"/>
+    </row>
+    <row r="177" ht="15.75" customHeight="1">
+      <c r="C177" s="5"/>
+    </row>
+    <row r="178" ht="15.75" customHeight="1">
+      <c r="C178" s="5"/>
+    </row>
+    <row r="179" ht="15.75" customHeight="1">
+      <c r="C179" s="5"/>
+    </row>
+    <row r="180" ht="15.75" customHeight="1">
+      <c r="C180" s="5"/>
+    </row>
+    <row r="181" ht="15.75" customHeight="1">
+      <c r="C181" s="5"/>
+    </row>
+    <row r="182" ht="15.75" customHeight="1">
+      <c r="C182" s="5"/>
+    </row>
+    <row r="183" ht="15.75" customHeight="1">
+      <c r="C183" s="5"/>
+    </row>
+    <row r="184" ht="15.75" customHeight="1">
+      <c r="C184" s="5"/>
+    </row>
+    <row r="185" ht="15.75" customHeight="1">
+      <c r="C185" s="5"/>
+    </row>
+    <row r="186" ht="15.75" customHeight="1">
+      <c r="C186" s="5"/>
+    </row>
+    <row r="187" ht="15.75" customHeight="1">
+      <c r="C187" s="5"/>
+    </row>
+    <row r="188" ht="15.75" customHeight="1">
+      <c r="C188" s="5"/>
+    </row>
+    <row r="189" ht="15.75" customHeight="1">
+      <c r="C189" s="5"/>
+    </row>
+    <row r="190" ht="15.75" customHeight="1">
+      <c r="C190" s="5"/>
+    </row>
+    <row r="191" ht="15.75" customHeight="1">
+      <c r="C191" s="5"/>
+    </row>
+    <row r="192" ht="15.75" customHeight="1">
+      <c r="C192" s="5"/>
+    </row>
+    <row r="193" ht="15.75" customHeight="1">
+      <c r="C193" s="5"/>
+    </row>
+    <row r="194" ht="15.75" customHeight="1">
+      <c r="C194" s="5"/>
+    </row>
+    <row r="195" ht="15.75" customHeight="1">
+      <c r="C195" s="5"/>
+    </row>
+    <row r="196" ht="15.75" customHeight="1">
+      <c r="C196" s="5"/>
+    </row>
+    <row r="197" ht="15.75" customHeight="1">
+      <c r="C197" s="5"/>
+    </row>
+    <row r="198" ht="15.75" customHeight="1">
+      <c r="C198" s="5"/>
+    </row>
+    <row r="199" ht="15.75" customHeight="1">
+      <c r="C199" s="5"/>
+    </row>
+    <row r="200" ht="15.75" customHeight="1">
+      <c r="C200" s="5"/>
+    </row>
+    <row r="201" ht="15.75" customHeight="1">
+      <c r="C201" s="5"/>
+    </row>
+    <row r="202" ht="15.75" customHeight="1">
+      <c r="C202" s="5"/>
+    </row>
+    <row r="203" ht="15.75" customHeight="1">
+      <c r="C203" s="5"/>
+    </row>
+    <row r="204" ht="15.75" customHeight="1">
+      <c r="C204" s="5"/>
+    </row>
+    <row r="205" ht="15.75" customHeight="1">
+      <c r="C205" s="5"/>
+    </row>
+    <row r="206" ht="15.75" customHeight="1">
+      <c r="C206" s="5"/>
+    </row>
+    <row r="207" ht="15.75" customHeight="1">
+      <c r="C207" s="5"/>
+    </row>
+    <row r="208" ht="15.75" customHeight="1">
+      <c r="C208" s="5"/>
+    </row>
+    <row r="209" ht="15.75" customHeight="1">
+      <c r="C209" s="5"/>
+    </row>
+    <row r="210" ht="15.75" customHeight="1">
+      <c r="C210" s="5"/>
+    </row>
+    <row r="211" ht="15.75" customHeight="1">
+      <c r="C211" s="5"/>
+    </row>
+    <row r="212" ht="15.75" customHeight="1">
+      <c r="C212" s="5"/>
+    </row>
+    <row r="213" ht="15.75" customHeight="1">
+      <c r="C213" s="5"/>
+    </row>
+    <row r="214" ht="15.75" customHeight="1">
+      <c r="C214" s="5"/>
+    </row>
+    <row r="215" ht="15.75" customHeight="1">
+      <c r="C215" s="5"/>
+    </row>
+    <row r="216" ht="15.75" customHeight="1">
+      <c r="C216" s="5"/>
+    </row>
+    <row r="217" ht="15.75" customHeight="1">
+      <c r="C217" s="5"/>
+    </row>
+    <row r="218" ht="15.75" customHeight="1">
+      <c r="C218" s="5"/>
+    </row>
+    <row r="219" ht="15.75" customHeight="1">
+      <c r="C219" s="5"/>
+    </row>
+    <row r="220" ht="15.75" customHeight="1">
+      <c r="C220" s="5"/>
+    </row>
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="C221" s="5"/>
+    </row>
+    <row r="222" ht="15.75" customHeight="1">
+      <c r="C222" s="5"/>
+    </row>
+    <row r="223" ht="15.75" customHeight="1">
+      <c r="C223" s="5"/>
+    </row>
+    <row r="224" ht="15.75" customHeight="1">
+      <c r="C224" s="5"/>
+    </row>
+    <row r="225" ht="15.75" customHeight="1">
+      <c r="C225" s="5"/>
+    </row>
+    <row r="226" ht="15.75" customHeight="1">
+      <c r="C226" s="5"/>
+    </row>
+    <row r="227" ht="15.75" customHeight="1">
+      <c r="C227" s="5"/>
+    </row>
+    <row r="228" ht="15.75" customHeight="1">
+      <c r="C228" s="5"/>
+    </row>
+    <row r="229" ht="15.75" customHeight="1">
+      <c r="C229" s="5"/>
+    </row>
+    <row r="230" ht="15.75" customHeight="1">
+      <c r="C230" s="5"/>
+    </row>
+    <row r="231" ht="15.75" customHeight="1">
+      <c r="C231" s="5"/>
+    </row>
+    <row r="232" ht="15.75" customHeight="1">
+      <c r="C232" s="5"/>
+    </row>
+    <row r="233" ht="15.75" customHeight="1">
+      <c r="C233" s="5"/>
+    </row>
+    <row r="234" ht="15.75" customHeight="1">
+      <c r="C234" s="5"/>
+    </row>
+    <row r="235" ht="15.75" customHeight="1">
+      <c r="C235" s="5"/>
+    </row>
+    <row r="236" ht="15.75" customHeight="1">
+      <c r="C236" s="5"/>
+    </row>
+    <row r="237" ht="15.75" customHeight="1">
+      <c r="C237" s="5"/>
+    </row>
+    <row r="238" ht="15.75" customHeight="1">
+      <c r="C238" s="5"/>
+    </row>
+    <row r="239" ht="15.75" customHeight="1">
+      <c r="C239" s="5"/>
+    </row>
+    <row r="240" ht="15.75" customHeight="1">
+      <c r="C240" s="5"/>
+    </row>
+    <row r="241" ht="15.75" customHeight="1">
+      <c r="C241" s="5"/>
+    </row>
+    <row r="242" ht="15.75" customHeight="1">
+      <c r="C242" s="5"/>
+    </row>
+    <row r="243" ht="15.75" customHeight="1">
+      <c r="C243" s="5"/>
+    </row>
+    <row r="244" ht="15.75" customHeight="1">
+      <c r="C244" s="5"/>
+    </row>
+    <row r="245" ht="15.75" customHeight="1">
+      <c r="C245" s="5"/>
+    </row>
+    <row r="246" ht="15.75" customHeight="1">
+      <c r="C246" s="5"/>
+    </row>
+    <row r="247" ht="15.75" customHeight="1">
+      <c r="C247" s="5"/>
+    </row>
+    <row r="248" ht="15.75" customHeight="1">
+      <c r="C248" s="5"/>
+    </row>
+    <row r="249" ht="15.75" customHeight="1">
+      <c r="C249" s="5"/>
+    </row>
+    <row r="250" ht="15.75" customHeight="1">
+      <c r="C250" s="5"/>
+    </row>
+    <row r="251" ht="15.75" customHeight="1">
+      <c r="C251" s="5"/>
+    </row>
+    <row r="252" ht="15.75" customHeight="1">
+      <c r="C252" s="5"/>
+    </row>
+    <row r="253" ht="15.75" customHeight="1">
+      <c r="C253" s="5"/>
+    </row>
+    <row r="254" ht="15.75" customHeight="1">
+      <c r="C254" s="5"/>
+    </row>
+    <row r="255" ht="15.75" customHeight="1">
+      <c r="C255" s="5"/>
+    </row>
+    <row r="256" ht="15.75" customHeight="1">
+      <c r="C256" s="5"/>
+    </row>
+    <row r="257" ht="15.75" customHeight="1">
+      <c r="C257" s="5"/>
+    </row>
+    <row r="258" ht="15.75" customHeight="1">
+      <c r="C258" s="5"/>
+    </row>
+    <row r="259" ht="15.75" customHeight="1">
+      <c r="C259" s="5"/>
+    </row>
+    <row r="260" ht="15.75" customHeight="1">
+      <c r="C260" s="5"/>
+    </row>
+    <row r="261" ht="15.75" customHeight="1">
+      <c r="C261" s="5"/>
+    </row>
+    <row r="262" ht="15.75" customHeight="1">
+      <c r="C262" s="5"/>
+    </row>
+    <row r="263" ht="15.75" customHeight="1">
+      <c r="C263" s="5"/>
+    </row>
+    <row r="264" ht="15.75" customHeight="1">
+      <c r="C264" s="5"/>
+    </row>
+    <row r="265" ht="15.75" customHeight="1">
+      <c r="C265" s="5"/>
+    </row>
+    <row r="266" ht="15.75" customHeight="1">
+      <c r="C266" s="5"/>
+    </row>
+    <row r="267" ht="15.75" customHeight="1">
+      <c r="C267" s="5"/>
+    </row>
+    <row r="268" ht="15.75" customHeight="1">
+      <c r="C268" s="5"/>
+    </row>
+    <row r="269" ht="15.75" customHeight="1">
+      <c r="C269" s="5"/>
+    </row>
+    <row r="270" ht="15.75" customHeight="1">
+      <c r="C270" s="5"/>
+    </row>
+    <row r="271" ht="15.75" customHeight="1">
+      <c r="C271" s="5"/>
+    </row>
+    <row r="272" ht="15.75" customHeight="1">
+      <c r="C272" s="5"/>
+    </row>
+    <row r="273" ht="15.75" customHeight="1">
+      <c r="C273" s="5"/>
+    </row>
+    <row r="274" ht="15.75" customHeight="1">
+      <c r="C274" s="5"/>
+    </row>
+    <row r="275" ht="15.75" customHeight="1">
+      <c r="C275" s="5"/>
+    </row>
+    <row r="276" ht="15.75" customHeight="1">
+      <c r="C276" s="5"/>
+    </row>
+    <row r="277" ht="15.75" customHeight="1">
+      <c r="C277" s="5"/>
+    </row>
+    <row r="278" ht="15.75" customHeight="1">
+      <c r="C278" s="5"/>
+    </row>
+    <row r="279" ht="15.75" customHeight="1">
+      <c r="C279" s="5"/>
+    </row>
+    <row r="280" ht="15.75" customHeight="1">
+      <c r="C280" s="5"/>
+    </row>
+    <row r="281" ht="15.75" customHeight="1">
+      <c r="C281" s="5"/>
+    </row>
+    <row r="282" ht="15.75" customHeight="1">
+      <c r="C282" s="5"/>
+    </row>
+    <row r="283" ht="15.75" customHeight="1">
+      <c r="C283" s="5"/>
+    </row>
+    <row r="284" ht="15.75" customHeight="1">
+      <c r="C284" s="5"/>
+    </row>
+    <row r="285" ht="15.75" customHeight="1">
+      <c r="C285" s="5"/>
+    </row>
+    <row r="286" ht="15.75" customHeight="1">
+      <c r="C286" s="5"/>
+    </row>
+    <row r="287" ht="15.75" customHeight="1">
+      <c r="C287" s="5"/>
+    </row>
+    <row r="288" ht="15.75" customHeight="1">
+      <c r="C288" s="5"/>
+    </row>
+    <row r="289" ht="15.75" customHeight="1">
+      <c r="C289" s="5"/>
+    </row>
+    <row r="290" ht="15.75" customHeight="1">
+      <c r="C290" s="5"/>
+    </row>
+    <row r="291" ht="15.75" customHeight="1">
+      <c r="C291" s="5"/>
+    </row>
+    <row r="292" ht="15.75" customHeight="1">
+      <c r="C292" s="5"/>
+    </row>
+    <row r="293" ht="15.75" customHeight="1">
+      <c r="C293" s="5"/>
+    </row>
+    <row r="294" ht="15.75" customHeight="1">
+      <c r="C294" s="5"/>
+    </row>
+    <row r="295" ht="15.75" customHeight="1">
+      <c r="C295" s="5"/>
+    </row>
+    <row r="296" ht="15.75" customHeight="1">
+      <c r="C296" s="5"/>
+    </row>
+    <row r="297" ht="15.75" customHeight="1">
+      <c r="C297" s="5"/>
+    </row>
+    <row r="298" ht="15.75" customHeight="1">
+      <c r="C298" s="5"/>
+    </row>
+    <row r="299" ht="15.75" customHeight="1">
+      <c r="C299" s="5"/>
+    </row>
+    <row r="300" ht="15.75" customHeight="1">
+      <c r="C300" s="5"/>
+    </row>
+    <row r="301" ht="15.75" customHeight="1">
+      <c r="C301" s="5"/>
+    </row>
+    <row r="302" ht="15.75" customHeight="1">
+      <c r="C302" s="5"/>
+    </row>
+    <row r="303" ht="15.75" customHeight="1">
+      <c r="C303" s="5"/>
+    </row>
+    <row r="304" ht="15.75" customHeight="1">
+      <c r="C304" s="5"/>
+    </row>
+    <row r="305" ht="15.75" customHeight="1">
+      <c r="C305" s="5"/>
+    </row>
+    <row r="306" ht="15.75" customHeight="1">
+      <c r="C306" s="5"/>
+    </row>
+    <row r="307" ht="15.75" customHeight="1">
+      <c r="C307" s="5"/>
+    </row>
+    <row r="308" ht="15.75" customHeight="1">
+      <c r="C308" s="5"/>
+    </row>
+    <row r="309" ht="15.75" customHeight="1">
+      <c r="C309" s="5"/>
+    </row>
+    <row r="310" ht="15.75" customHeight="1">
+      <c r="C310" s="5"/>
+    </row>
+    <row r="311" ht="15.75" customHeight="1">
+      <c r="C311" s="5"/>
+    </row>
+    <row r="312" ht="15.75" customHeight="1">
+      <c r="C312" s="5"/>
+    </row>
+    <row r="313" ht="15.75" customHeight="1">
+      <c r="C313" s="5"/>
+    </row>
+    <row r="314" ht="15.75" customHeight="1">
+      <c r="C314" s="5"/>
+    </row>
+    <row r="315" ht="15.75" customHeight="1">
+      <c r="C315" s="5"/>
+    </row>
+    <row r="316" ht="15.75" customHeight="1">
+      <c r="C316" s="5"/>
+    </row>
+    <row r="317" ht="15.75" customHeight="1">
+      <c r="C317" s="5"/>
+    </row>
+    <row r="318" ht="15.75" customHeight="1">
+      <c r="C318" s="5"/>
+    </row>
+    <row r="319" ht="15.75" customHeight="1">
+      <c r="C319" s="5"/>
+    </row>
+    <row r="320" ht="15.75" customHeight="1">
+      <c r="C320" s="5"/>
+    </row>
+    <row r="321" ht="15.75" customHeight="1">
+      <c r="C321" s="5"/>
+    </row>
+    <row r="322" ht="15.75" customHeight="1">
+      <c r="C322" s="5"/>
+    </row>
+    <row r="323" ht="15.75" customHeight="1">
+      <c r="C323" s="5"/>
+    </row>
+    <row r="324" ht="15.75" customHeight="1">
+      <c r="C324" s="5"/>
+    </row>
+    <row r="325" ht="15.75" customHeight="1">
+      <c r="C325" s="5"/>
+    </row>
+    <row r="326" ht="15.75" customHeight="1">
+      <c r="C326" s="5"/>
+    </row>
+    <row r="327" ht="15.75" customHeight="1">
+      <c r="C327" s="5"/>
+    </row>
+    <row r="328" ht="15.75" customHeight="1">
+      <c r="C328" s="5"/>
+    </row>
+    <row r="329" ht="15.75" customHeight="1">
+      <c r="C329" s="5"/>
+    </row>
+    <row r="330" ht="15.75" customHeight="1">
+      <c r="C330" s="5"/>
+    </row>
+    <row r="331" ht="15.75" customHeight="1">
+      <c r="C331" s="5"/>
+    </row>
+    <row r="332" ht="15.75" customHeight="1">
+      <c r="C332" s="5"/>
+    </row>
+    <row r="333" ht="15.75" customHeight="1">
+      <c r="C333" s="5"/>
+    </row>
+    <row r="334" ht="15.75" customHeight="1">
+      <c r="C334" s="5"/>
+    </row>
+    <row r="335" ht="15.75" customHeight="1">
+      <c r="C335" s="5"/>
+    </row>
+    <row r="336" ht="15.75" customHeight="1">
+      <c r="C336" s="5"/>
+    </row>
+    <row r="337" ht="15.75" customHeight="1">
+      <c r="C337" s="5"/>
+    </row>
+    <row r="338" ht="15.75" customHeight="1">
+      <c r="C338" s="5"/>
+    </row>
+    <row r="339" ht="15.75" customHeight="1">
+      <c r="C339" s="5"/>
+    </row>
+    <row r="340" ht="15.75" customHeight="1">
+      <c r="C340" s="5"/>
+    </row>
+    <row r="341" ht="15.75" customHeight="1">
+      <c r="C341" s="5"/>
+    </row>
+    <row r="342" ht="15.75" customHeight="1">
+      <c r="C342" s="5"/>
+    </row>
+    <row r="343" ht="15.75" customHeight="1">
+      <c r="C343" s="5"/>
+    </row>
+    <row r="344" ht="15.75" customHeight="1">
+      <c r="C344" s="5"/>
+    </row>
+    <row r="345" ht="15.75" customHeight="1">
+      <c r="C345" s="5"/>
+    </row>
+    <row r="346" ht="15.75" customHeight="1">
+      <c r="C346" s="5"/>
+    </row>
+    <row r="347" ht="15.75" customHeight="1">
+      <c r="C347" s="5"/>
+    </row>
+    <row r="348" ht="15.75" customHeight="1">
+      <c r="C348" s="5"/>
+    </row>
+    <row r="349" ht="15.75" customHeight="1">
+      <c r="C349" s="5"/>
+    </row>
+    <row r="350" ht="15.75" customHeight="1">
+      <c r="C350" s="5"/>
+    </row>
+    <row r="351" ht="15.75" customHeight="1">
+      <c r="C351" s="5"/>
+    </row>
+    <row r="352" ht="15.75" customHeight="1">
+      <c r="C352" s="5"/>
+    </row>
+    <row r="353" ht="15.75" customHeight="1">
+      <c r="C353" s="5"/>
+    </row>
+    <row r="354" ht="15.75" customHeight="1">
+      <c r="C354" s="5"/>
+    </row>
+    <row r="355" ht="15.75" customHeight="1">
+      <c r="C355" s="5"/>
+    </row>
+    <row r="356" ht="15.75" customHeight="1">
+      <c r="C356" s="5"/>
+    </row>
+    <row r="357" ht="15.75" customHeight="1">
+      <c r="C357" s="5"/>
+    </row>
+    <row r="358" ht="15.75" customHeight="1">
+      <c r="C358" s="5"/>
+    </row>
+    <row r="359" ht="15.75" customHeight="1">
+      <c r="C359" s="5"/>
+    </row>
+    <row r="360" ht="15.75" customHeight="1">
+      <c r="C360" s="5"/>
+    </row>
+    <row r="361" ht="15.75" customHeight="1">
+      <c r="C361" s="5"/>
+    </row>
+    <row r="362" ht="15.75" customHeight="1">
+      <c r="C362" s="5"/>
+    </row>
+    <row r="363" ht="15.75" customHeight="1">
+      <c r="C363" s="5"/>
+    </row>
+    <row r="364" ht="15.75" customHeight="1">
+      <c r="C364" s="5"/>
+    </row>
+    <row r="365" ht="15.75" customHeight="1">
+      <c r="C365" s="5"/>
+    </row>
+    <row r="366" ht="15.75" customHeight="1">
+      <c r="C366" s="5"/>
+    </row>
+    <row r="367" ht="15.75" customHeight="1">
+      <c r="C367" s="5"/>
+    </row>
+    <row r="368" ht="15.75" customHeight="1">
+      <c r="C368" s="5"/>
+    </row>
+    <row r="369" ht="15.75" customHeight="1">
+      <c r="C369" s="5"/>
+    </row>
+    <row r="370" ht="15.75" customHeight="1">
+      <c r="C370" s="5"/>
+    </row>
+    <row r="371" ht="15.75" customHeight="1">
+      <c r="C371" s="5"/>
+    </row>
+    <row r="372" ht="15.75" customHeight="1">
+      <c r="C372" s="5"/>
+    </row>
+    <row r="373" ht="15.75" customHeight="1">
+      <c r="C373" s="5"/>
+    </row>
+    <row r="374" ht="15.75" customHeight="1">
+      <c r="C374" s="5"/>
+    </row>
+    <row r="375" ht="15.75" customHeight="1">
+      <c r="C375" s="5"/>
+    </row>
+    <row r="376" ht="15.75" customHeight="1">
+      <c r="C376" s="5"/>
+    </row>
+    <row r="377" ht="15.75" customHeight="1">
+      <c r="C377" s="5"/>
+    </row>
+    <row r="378" ht="15.75" customHeight="1">
+      <c r="C378" s="5"/>
+    </row>
+    <row r="379" ht="15.75" customHeight="1">
+      <c r="C379" s="5"/>
+    </row>
+    <row r="380" ht="15.75" customHeight="1">
+      <c r="C380" s="5"/>
+    </row>
+    <row r="381" ht="15.75" customHeight="1">
+      <c r="C381" s="5"/>
+    </row>
+    <row r="382" ht="15.75" customHeight="1">
+      <c r="C382" s="5"/>
+    </row>
+    <row r="383" ht="15.75" customHeight="1">
+      <c r="C383" s="5"/>
+    </row>
+    <row r="384" ht="15.75" customHeight="1">
+      <c r="C384" s="5"/>
+    </row>
+    <row r="385" ht="15.75" customHeight="1">
+      <c r="C385" s="5"/>
+    </row>
+    <row r="386" ht="15.75" customHeight="1">
+      <c r="C386" s="5"/>
+    </row>
+    <row r="387" ht="15.75" customHeight="1">
+      <c r="C387" s="5"/>
+    </row>
+    <row r="388" ht="15.75" customHeight="1">
+      <c r="C388" s="5"/>
+    </row>
+    <row r="389" ht="15.75" customHeight="1">
+      <c r="C389" s="5"/>
+    </row>
+    <row r="390" ht="15.75" customHeight="1">
+      <c r="C390" s="5"/>
+    </row>
+    <row r="391" ht="15.75" customHeight="1">
+      <c r="C391" s="5"/>
+    </row>
+    <row r="392" ht="15.75" customHeight="1">
+      <c r="C392" s="5"/>
+    </row>
+    <row r="393" ht="15.75" customHeight="1">
+      <c r="C393" s="5"/>
+    </row>
+    <row r="394" ht="15.75" customHeight="1">
+      <c r="C394" s="5"/>
+    </row>
+    <row r="395" ht="15.75" customHeight="1">
+      <c r="C395" s="5"/>
+    </row>
+    <row r="396" ht="15.75" customHeight="1">
+      <c r="C396" s="5"/>
+    </row>
+    <row r="397" ht="15.75" customHeight="1">
+      <c r="C397" s="5"/>
+    </row>
+    <row r="398" ht="15.75" customHeight="1">
+      <c r="C398" s="5"/>
+    </row>
+    <row r="399" ht="15.75" customHeight="1">
+      <c r="C399" s="5"/>
+    </row>
+    <row r="400" ht="15.75" customHeight="1">
+      <c r="C400" s="5"/>
+    </row>
+    <row r="401" ht="15.75" customHeight="1">
+      <c r="C401" s="5"/>
+    </row>
+    <row r="402" ht="15.75" customHeight="1">
+      <c r="C402" s="5"/>
+    </row>
+    <row r="403" ht="15.75" customHeight="1">
+      <c r="C403" s="5"/>
+    </row>
+    <row r="404" ht="15.75" customHeight="1">
+      <c r="C404" s="5"/>
+    </row>
+    <row r="405" ht="15.75" customHeight="1">
+      <c r="C405" s="5"/>
+    </row>
+    <row r="406" ht="15.75" customHeight="1">
+      <c r="C406" s="5"/>
+    </row>
+    <row r="407" ht="15.75" customHeight="1">
+      <c r="C407" s="5"/>
+    </row>
+    <row r="408" ht="15.75" customHeight="1">
+      <c r="C408" s="5"/>
+    </row>
+    <row r="409" ht="15.75" customHeight="1">
+      <c r="C409" s="5"/>
+    </row>
+    <row r="410" ht="15.75" customHeight="1">
+      <c r="C410" s="5"/>
+    </row>
+    <row r="411" ht="15.75" customHeight="1">
+      <c r="C411" s="5"/>
+    </row>
+    <row r="412" ht="15.75" customHeight="1">
+      <c r="C412" s="5"/>
+    </row>
+    <row r="413" ht="15.75" customHeight="1">
+      <c r="C413" s="5"/>
+    </row>
+    <row r="414" ht="15.75" customHeight="1">
+      <c r="C414" s="5"/>
+    </row>
+    <row r="415" ht="15.75" customHeight="1">
+      <c r="C415" s="5"/>
+    </row>
+    <row r="416" ht="15.75" customHeight="1">
+      <c r="C416" s="5"/>
+    </row>
+    <row r="417" ht="15.75" customHeight="1">
+      <c r="C417" s="5"/>
+    </row>
+    <row r="418" ht="15.75" customHeight="1">
+      <c r="C418" s="5"/>
+    </row>
+    <row r="419" ht="15.75" customHeight="1">
+      <c r="C419" s="5"/>
+    </row>
+    <row r="420" ht="15.75" customHeight="1">
+      <c r="C420" s="5"/>
+    </row>
+    <row r="421" ht="15.75" customHeight="1">
+      <c r="C421" s="5"/>
+    </row>
+    <row r="422" ht="15.75" customHeight="1">
+      <c r="C422" s="5"/>
+    </row>
+    <row r="423" ht="15.75" customHeight="1">
+      <c r="C423" s="5"/>
+    </row>
+    <row r="424" ht="15.75" customHeight="1">
+      <c r="C424" s="5"/>
+    </row>
+    <row r="425" ht="15.75" customHeight="1">
+      <c r="C425" s="5"/>
+    </row>
+    <row r="426" ht="15.75" customHeight="1">
+      <c r="C426" s="5"/>
+    </row>
+    <row r="427" ht="15.75" customHeight="1">
+      <c r="C427" s="5"/>
+    </row>
+    <row r="428" ht="15.75" customHeight="1">
+      <c r="C428" s="5"/>
+    </row>
+    <row r="429" ht="15.75" customHeight="1">
+      <c r="C429" s="5"/>
+    </row>
+    <row r="430" ht="15.75" customHeight="1">
+      <c r="C430" s="5"/>
+    </row>
+    <row r="431" ht="15.75" customHeight="1">
+      <c r="C431" s="5"/>
+    </row>
+    <row r="432" ht="15.75" customHeight="1">
+      <c r="C432" s="5"/>
+    </row>
+    <row r="433" ht="15.75" customHeight="1">
+      <c r="C433" s="5"/>
+    </row>
+    <row r="434" ht="15.75" customHeight="1">
+      <c r="C434" s="5"/>
+    </row>
+    <row r="435" ht="15.75" customHeight="1">
+      <c r="C435" s="5"/>
+    </row>
+    <row r="436" ht="15.75" customHeight="1">
+      <c r="C436" s="5"/>
+    </row>
+    <row r="437" ht="15.75" customHeight="1">
+      <c r="C437" s="5"/>
+    </row>
+    <row r="438" ht="15.75" customHeight="1">
+      <c r="C438" s="5"/>
+    </row>
+    <row r="439" ht="15.75" customHeight="1">
+      <c r="C439" s="5"/>
+    </row>
+    <row r="440" ht="15.75" customHeight="1">
+      <c r="C440" s="5"/>
+    </row>
+    <row r="441" ht="15.75" customHeight="1">
+      <c r="C441" s="5"/>
+    </row>
+    <row r="442" ht="15.75" customHeight="1">
+      <c r="C442" s="5"/>
+    </row>
+    <row r="443" ht="15.75" customHeight="1">
+      <c r="C443" s="5"/>
+    </row>
+    <row r="444" ht="15.75" customHeight="1">
+      <c r="C444" s="5"/>
+    </row>
+    <row r="445" ht="15.75" customHeight="1">
+      <c r="C445" s="5"/>
+    </row>
+    <row r="446" ht="15.75" customHeight="1">
+      <c r="C446" s="5"/>
+    </row>
+    <row r="447" ht="15.75" customHeight="1">
+      <c r="C447" s="5"/>
+    </row>
+    <row r="448" ht="15.75" customHeight="1">
+      <c r="C448" s="5"/>
+    </row>
+    <row r="449" ht="15.75" customHeight="1">
+      <c r="C449" s="5"/>
+    </row>
+    <row r="450" ht="15.75" customHeight="1">
+      <c r="C450" s="5"/>
+    </row>
+    <row r="451" ht="15.75" customHeight="1">
+      <c r="C451" s="5"/>
+    </row>
+    <row r="452" ht="15.75" customHeight="1">
+      <c r="C452" s="5"/>
+    </row>
+    <row r="453" ht="15.75" customHeight="1">
+      <c r="C453" s="5"/>
+    </row>
+    <row r="454" ht="15.75" customHeight="1">
+      <c r="C454" s="5"/>
+    </row>
+    <row r="455" ht="15.75" customHeight="1">
+      <c r="C455" s="5"/>
+    </row>
+    <row r="456" ht="15.75" customHeight="1">
+      <c r="C456" s="5"/>
+    </row>
+    <row r="457" ht="15.75" customHeight="1">
+      <c r="C457" s="5"/>
+    </row>
+    <row r="458" ht="15.75" customHeight="1">
+      <c r="C458" s="5"/>
+    </row>
+    <row r="459" ht="15.75" customHeight="1">
+      <c r="C459" s="5"/>
+    </row>
+    <row r="460" ht="15.75" customHeight="1">
+      <c r="C460" s="5"/>
+    </row>
+    <row r="461" ht="15.75" customHeight="1">
+      <c r="C461" s="5"/>
+    </row>
+    <row r="462" ht="15.75" customHeight="1">
+      <c r="C462" s="5"/>
+    </row>
+    <row r="463" ht="15.75" customHeight="1">
+      <c r="C463" s="5"/>
+    </row>
+    <row r="464" ht="15.75" customHeight="1">
+      <c r="C464" s="5"/>
+    </row>
+    <row r="465" ht="15.75" customHeight="1">
+      <c r="C465" s="5"/>
+    </row>
+    <row r="466" ht="15.75" customHeight="1">
+      <c r="C466" s="5"/>
+    </row>
+    <row r="467" ht="15.75" customHeight="1">
+      <c r="C467" s="5"/>
+    </row>
+    <row r="468" ht="15.75" customHeight="1">
+      <c r="C468" s="5"/>
+    </row>
+    <row r="469" ht="15.75" customHeight="1">
+      <c r="C469" s="5"/>
+    </row>
+    <row r="470" ht="15.75" customHeight="1">
+      <c r="C470" s="5"/>
+    </row>
+    <row r="471" ht="15.75" customHeight="1">
+      <c r="C471" s="5"/>
+    </row>
+    <row r="472" ht="15.75" customHeight="1">
+      <c r="C472" s="5"/>
+    </row>
+    <row r="473" ht="15.75" customHeight="1">
+      <c r="C473" s="5"/>
+    </row>
+    <row r="474" ht="15.75" customHeight="1">
+      <c r="C474" s="5"/>
+    </row>
+    <row r="475" ht="15.75" customHeight="1">
+      <c r="C475" s="5"/>
+    </row>
+    <row r="476" ht="15.75" customHeight="1">
+      <c r="C476" s="5"/>
+    </row>
+    <row r="477" ht="15.75" customHeight="1">
+      <c r="C477" s="5"/>
+    </row>
+    <row r="478" ht="15.75" customHeight="1">
+      <c r="C478" s="5"/>
+    </row>
+    <row r="479" ht="15.75" customHeight="1">
+      <c r="C479" s="5"/>
+    </row>
+    <row r="480" ht="15.75" customHeight="1">
+      <c r="C480" s="5"/>
+    </row>
+    <row r="481" ht="15.75" customHeight="1">
+      <c r="C481" s="5"/>
+    </row>
+    <row r="482" ht="15.75" customHeight="1">
+      <c r="C482" s="5"/>
+    </row>
+    <row r="483" ht="15.75" customHeight="1">
+      <c r="C483" s="5"/>
+    </row>
+    <row r="484" ht="15.75" customHeight="1">
+      <c r="C484" s="5"/>
+    </row>
+    <row r="485" ht="15.75" customHeight="1">
+      <c r="C485" s="5"/>
+    </row>
+    <row r="486" ht="15.75" customHeight="1">
+      <c r="C486" s="5"/>
+    </row>
+    <row r="487" ht="15.75" customHeight="1">
+      <c r="C487" s="5"/>
+    </row>
+    <row r="488" ht="15.75" customHeight="1">
+      <c r="C488" s="5"/>
+    </row>
+    <row r="489" ht="15.75" customHeight="1">
+      <c r="C489" s="5"/>
+    </row>
+    <row r="490" ht="15.75" customHeight="1">
+      <c r="C490" s="5"/>
+    </row>
+    <row r="491" ht="15.75" customHeight="1">
+      <c r="C491" s="5"/>
+    </row>
+    <row r="492" ht="15.75" customHeight="1">
+      <c r="C492" s="5"/>
+    </row>
+    <row r="493" ht="15.75" customHeight="1">
+      <c r="C493" s="5"/>
+    </row>
+    <row r="494" ht="15.75" customHeight="1">
+      <c r="C494" s="5"/>
+    </row>
+    <row r="495" ht="15.75" customHeight="1">
+      <c r="C495" s="5"/>
+    </row>
+    <row r="496" ht="15.75" customHeight="1">
+      <c r="C496" s="5"/>
+    </row>
+    <row r="497" ht="15.75" customHeight="1">
+      <c r="C497" s="5"/>
+    </row>
+    <row r="498" ht="15.75" customHeight="1">
+      <c r="C498" s="5"/>
+    </row>
+    <row r="499" ht="15.75" customHeight="1">
+      <c r="C499" s="5"/>
+    </row>
+    <row r="500" ht="15.75" customHeight="1">
+      <c r="C500" s="5"/>
+    </row>
+    <row r="501" ht="15.75" customHeight="1">
+      <c r="C501" s="5"/>
+    </row>
+    <row r="502" ht="15.75" customHeight="1">
+      <c r="C502" s="5"/>
+    </row>
+    <row r="503" ht="15.75" customHeight="1">
+      <c r="C503" s="5"/>
+    </row>
+    <row r="504" ht="15.75" customHeight="1">
+      <c r="C504" s="5"/>
+    </row>
+    <row r="505" ht="15.75" customHeight="1">
+      <c r="C505" s="5"/>
+    </row>
+    <row r="506" ht="15.75" customHeight="1">
+      <c r="C506" s="5"/>
+    </row>
+    <row r="507" ht="15.75" customHeight="1">
+      <c r="C507" s="5"/>
+    </row>
+    <row r="508" ht="15.75" customHeight="1">
+      <c r="C508" s="5"/>
+    </row>
+    <row r="509" ht="15.75" customHeight="1">
+      <c r="C509" s="5"/>
+    </row>
+    <row r="510" ht="15.75" customHeight="1">
+      <c r="C510" s="5"/>
+    </row>
+    <row r="511" ht="15.75" customHeight="1">
+      <c r="C511" s="5"/>
+    </row>
+    <row r="512" ht="15.75" customHeight="1">
+      <c r="C512" s="5"/>
+    </row>
+    <row r="513" ht="15.75" customHeight="1">
+      <c r="C513" s="5"/>
+    </row>
+    <row r="514" ht="15.75" customHeight="1">
+      <c r="C514" s="5"/>
+    </row>
+    <row r="515" ht="15.75" customHeight="1">
+      <c r="C515" s="5"/>
+    </row>
+    <row r="516" ht="15.75" customHeight="1">
+      <c r="C516" s="5"/>
+    </row>
+    <row r="517" ht="15.75" customHeight="1">
+      <c r="C517" s="5"/>
+    </row>
+    <row r="518" ht="15.75" customHeight="1">
+      <c r="C518" s="5"/>
+    </row>
+    <row r="519" ht="15.75" customHeight="1">
+      <c r="C519" s="5"/>
+    </row>
+    <row r="520" ht="15.75" customHeight="1">
+      <c r="C520" s="5"/>
+    </row>
+    <row r="521" ht="15.75" customHeight="1">
+      <c r="C521" s="5"/>
+    </row>
+    <row r="522" ht="15.75" customHeight="1">
+      <c r="C522" s="5"/>
+    </row>
+    <row r="523" ht="15.75" customHeight="1">
+      <c r="C523" s="5"/>
+    </row>
+    <row r="524" ht="15.75" customHeight="1">
+      <c r="C524" s="5"/>
+    </row>
+    <row r="525" ht="15.75" customHeight="1">
+      <c r="C525" s="5"/>
+    </row>
+    <row r="526" ht="15.75" customHeight="1">
+      <c r="C526" s="5"/>
+    </row>
+    <row r="527" ht="15.75" customHeight="1">
+      <c r="C527" s="5"/>
+    </row>
+    <row r="528" ht="15.75" customHeight="1">
+      <c r="C528" s="5"/>
+    </row>
+    <row r="529" ht="15.75" customHeight="1">
+      <c r="C529" s="5"/>
+    </row>
+    <row r="530" ht="15.75" customHeight="1">
+      <c r="C530" s="5"/>
+    </row>
+    <row r="531" ht="15.75" customHeight="1">
+      <c r="C531" s="5"/>
+    </row>
+    <row r="532" ht="15.75" customHeight="1">
+      <c r="C532" s="5"/>
+    </row>
+    <row r="533" ht="15.75" customHeight="1">
+      <c r="C533" s="5"/>
+    </row>
+    <row r="534" ht="15.75" customHeight="1">
+      <c r="C534" s="5"/>
+    </row>
+    <row r="535" ht="15.75" customHeight="1">
+      <c r="C535" s="5"/>
+    </row>
+    <row r="536" ht="15.75" customHeight="1">
+      <c r="C536" s="5"/>
+    </row>
+    <row r="537" ht="15.75" customHeight="1">
+      <c r="C537" s="5"/>
+    </row>
+    <row r="538" ht="15.75" customHeight="1">
+      <c r="C538" s="5"/>
+    </row>
+    <row r="539" ht="15.75" customHeight="1">
+      <c r="C539" s="5"/>
+    </row>
+    <row r="540" ht="15.75" customHeight="1">
+      <c r="C540" s="5"/>
+    </row>
+    <row r="541" ht="15.75" customHeight="1">
+      <c r="C541" s="5"/>
+    </row>
+    <row r="542" ht="15.75" customHeight="1">
+      <c r="C542" s="5"/>
+    </row>
+    <row r="543" ht="15.75" customHeight="1">
+      <c r="C543" s="5"/>
+    </row>
+    <row r="544" ht="15.75" customHeight="1">
+      <c r="C544" s="5"/>
+    </row>
+    <row r="545" ht="15.75" customHeight="1">
+      <c r="C545" s="5"/>
+    </row>
+    <row r="546" ht="15.75" customHeight="1">
+      <c r="C546" s="5"/>
+    </row>
+    <row r="547" ht="15.75" customHeight="1">
+      <c r="C547" s="5"/>
+    </row>
+    <row r="548" ht="15.75" customHeight="1">
+      <c r="C548" s="5"/>
+    </row>
+    <row r="549" ht="15.75" customHeight="1">
+      <c r="C549" s="5"/>
+    </row>
+    <row r="550" ht="15.75" customHeight="1">
+      <c r="C550" s="5"/>
+    </row>
+    <row r="551" ht="15.75" customHeight="1">
+      <c r="C551" s="5"/>
+    </row>
+    <row r="552" ht="15.75" customHeight="1">
+      <c r="C552" s="5"/>
+    </row>
+    <row r="553" ht="15.75" customHeight="1">
+      <c r="C553" s="5"/>
+    </row>
+    <row r="554" ht="15.75" customHeight="1">
+      <c r="C554" s="5"/>
+    </row>
+    <row r="555" ht="15.75" customHeight="1">
+      <c r="C555" s="5"/>
+    </row>
+    <row r="556" ht="15.75" customHeight="1">
+      <c r="C556" s="5"/>
+    </row>
+    <row r="557" ht="15.75" customHeight="1">
+      <c r="C557" s="5"/>
+    </row>
+    <row r="558" ht="15.75" customHeight="1">
+      <c r="C558" s="5"/>
+    </row>
+    <row r="559" ht="15.75" customHeight="1">
+      <c r="C559" s="5"/>
+    </row>
+    <row r="560" ht="15.75" customHeight="1">
+      <c r="C560" s="5"/>
+    </row>
+    <row r="561" ht="15.75" customHeight="1">
+      <c r="C561" s="5"/>
+    </row>
+    <row r="562" ht="15.75" customHeight="1">
+      <c r="C562" s="5"/>
+    </row>
+    <row r="563" ht="15.75" customHeight="1">
+      <c r="C563" s="5"/>
+    </row>
+    <row r="564" ht="15.75" customHeight="1">
+      <c r="C564" s="5"/>
+    </row>
+    <row r="565" ht="15.75" customHeight="1">
+      <c r="C565" s="5"/>
+    </row>
+    <row r="566" ht="15.75" customHeight="1">
+      <c r="C566" s="5"/>
+    </row>
+    <row r="567" ht="15.75" customHeight="1">
+      <c r="C567" s="5"/>
+    </row>
+    <row r="568" ht="15.75" customHeight="1">
+      <c r="C568" s="5"/>
+    </row>
+    <row r="569" ht="15.75" customHeight="1">
+      <c r="C569" s="5"/>
+    </row>
+    <row r="570" ht="15.75" customHeight="1">
+      <c r="C570" s="5"/>
+    </row>
+    <row r="571" ht="15.75" customHeight="1">
+      <c r="C571" s="5"/>
+    </row>
+    <row r="572" ht="15.75" customHeight="1">
+      <c r="C572" s="5"/>
+    </row>
+    <row r="573" ht="15.75" customHeight="1">
+      <c r="C573" s="5"/>
+    </row>
+    <row r="574" ht="15.75" customHeight="1">
+      <c r="C574" s="5"/>
+    </row>
+    <row r="575" ht="15.75" customHeight="1">
+      <c r="C575" s="5"/>
+    </row>
+    <row r="576" ht="15.75" customHeight="1">
+      <c r="C576" s="5"/>
+    </row>
+    <row r="577" ht="15.75" customHeight="1">
+      <c r="C577" s="5"/>
+    </row>
+    <row r="578" ht="15.75" customHeight="1">
+      <c r="C578" s="5"/>
+    </row>
+    <row r="579" ht="15.75" customHeight="1">
+      <c r="C579" s="5"/>
+    </row>
+    <row r="580" ht="15.75" customHeight="1">
+      <c r="C580" s="5"/>
+    </row>
+    <row r="581" ht="15.75" customHeight="1">
+      <c r="C581" s="5"/>
+    </row>
+    <row r="582" ht="15.75" customHeight="1">
+      <c r="C582" s="5"/>
+    </row>
+    <row r="583" ht="15.75" customHeight="1">
+      <c r="C583" s="5"/>
+    </row>
+    <row r="584" ht="15.75" customHeight="1">
+      <c r="C584" s="5"/>
+    </row>
+    <row r="585" ht="15.75" customHeight="1">
+      <c r="C585" s="5"/>
+    </row>
+    <row r="586" ht="15.75" customHeight="1">
+      <c r="C586" s="5"/>
+    </row>
+    <row r="587" ht="15.75" customHeight="1">
+      <c r="C587" s="5"/>
+    </row>
+    <row r="588" ht="15.75" customHeight="1">
+      <c r="C588" s="5"/>
+    </row>
+    <row r="589" ht="15.75" customHeight="1">
+      <c r="C589" s="5"/>
+    </row>
+    <row r="590" ht="15.75" customHeight="1">
+      <c r="C590" s="5"/>
+    </row>
+    <row r="591" ht="15.75" customHeight="1">
+      <c r="C591" s="5"/>
+    </row>
+    <row r="592" ht="15.75" customHeight="1">
+      <c r="C592" s="5"/>
+    </row>
+    <row r="593" ht="15.75" customHeight="1">
+      <c r="C593" s="5"/>
+    </row>
+    <row r="594" ht="15.75" customHeight="1">
+      <c r="C594" s="5"/>
+    </row>
+    <row r="595" ht="15.75" customHeight="1">
+      <c r="C595" s="5"/>
+    </row>
+    <row r="596" ht="15.75" customHeight="1">
+      <c r="C596" s="5"/>
+    </row>
+    <row r="597" ht="15.75" customHeight="1">
+      <c r="C597" s="5"/>
+    </row>
+    <row r="598" ht="15.75" customHeight="1">
+      <c r="C598" s="5"/>
+    </row>
+    <row r="599" ht="15.75" customHeight="1">
+      <c r="C599" s="5"/>
+    </row>
+    <row r="600" ht="15.75" customHeight="1">
+      <c r="C600" s="5"/>
+    </row>
+    <row r="601" ht="15.75" customHeight="1">
+      <c r="C601" s="5"/>
+    </row>
+    <row r="602" ht="15.75" customHeight="1">
+      <c r="C602" s="5"/>
+    </row>
+    <row r="603" ht="15.75" customHeight="1">
+      <c r="C603" s="5"/>
+    </row>
+    <row r="604" ht="15.75" customHeight="1">
+      <c r="C604" s="5"/>
+    </row>
+    <row r="605" ht="15.75" customHeight="1">
+      <c r="C605" s="5"/>
+    </row>
+    <row r="606" ht="15.75" customHeight="1">
+      <c r="C606" s="5"/>
+    </row>
+    <row r="607" ht="15.75" customHeight="1">
+      <c r="C607" s="5"/>
+    </row>
+    <row r="608" ht="15.75" customHeight="1">
+      <c r="C608" s="5"/>
+    </row>
+    <row r="609" ht="15.75" customHeight="1">
+      <c r="C609" s="5"/>
+    </row>
+    <row r="610" ht="15.75" customHeight="1">
+      <c r="C610" s="5"/>
+    </row>
+    <row r="611" ht="15.75" customHeight="1">
+      <c r="C611" s="5"/>
+    </row>
+    <row r="612" ht="15.75" customHeight="1">
+      <c r="C612" s="5"/>
+    </row>
+    <row r="613" ht="15.75" customHeight="1">
+      <c r="C613" s="5"/>
+    </row>
+    <row r="614" ht="15.75" customHeight="1">
+      <c r="C614" s="5"/>
+    </row>
+    <row r="615" ht="15.75" customHeight="1">
+      <c r="C615" s="5"/>
+    </row>
+    <row r="616" ht="15.75" customHeight="1">
+      <c r="C616" s="5"/>
+    </row>
+    <row r="617" ht="15.75" customHeight="1">
+      <c r="C617" s="5"/>
+    </row>
+    <row r="618" ht="15.75" customHeight="1">
+      <c r="C618" s="5"/>
+    </row>
+    <row r="619" ht="15.75" customHeight="1">
+      <c r="C619" s="5"/>
+    </row>
+    <row r="620" ht="15.75" customHeight="1">
+      <c r="C620" s="5"/>
+    </row>
+    <row r="621" ht="15.75" customHeight="1">
+      <c r="C621" s="5"/>
+    </row>
+    <row r="622" ht="15.75" customHeight="1">
+      <c r="C622" s="5"/>
+    </row>
+    <row r="623" ht="15.75" customHeight="1">
+      <c r="C623" s="5"/>
+    </row>
+    <row r="624" ht="15.75" customHeight="1">
+      <c r="C624" s="5"/>
+    </row>
+    <row r="625" ht="15.75" customHeight="1">
+      <c r="C625" s="5"/>
+    </row>
+    <row r="626" ht="15.75" customHeight="1">
+      <c r="C626" s="5"/>
+    </row>
+    <row r="627" ht="15.75" customHeight="1">
+      <c r="C627" s="5"/>
+    </row>
+    <row r="628" ht="15.75" customHeight="1">
+      <c r="C628" s="5"/>
+    </row>
+    <row r="629" ht="15.75" customHeight="1">
+      <c r="C629" s="5"/>
+    </row>
+    <row r="630" ht="15.75" customHeight="1">
+      <c r="C630" s="5"/>
+    </row>
+    <row r="631" ht="15.75" customHeight="1">
+      <c r="C631" s="5"/>
+    </row>
+    <row r="632" ht="15.75" customHeight="1">
+      <c r="C632" s="5"/>
+    </row>
+    <row r="633" ht="15.75" customHeight="1">
+      <c r="C633" s="5"/>
+    </row>
+    <row r="634" ht="15.75" customHeight="1">
+      <c r="C634" s="5"/>
+    </row>
+    <row r="635" ht="15.75" customHeight="1">
+      <c r="C635" s="5"/>
+    </row>
+    <row r="636" ht="15.75" customHeight="1">
+      <c r="C636" s="5"/>
+    </row>
+    <row r="637" ht="15.75" customHeight="1">
+      <c r="C637" s="5"/>
+    </row>
+    <row r="638" ht="15.75" customHeight="1">
+      <c r="C638" s="5"/>
+    </row>
+    <row r="639" ht="15.75" customHeight="1">
+      <c r="C639" s="5"/>
+    </row>
+    <row r="640" ht="15.75" customHeight="1">
+      <c r="C640" s="5"/>
+    </row>
+    <row r="641" ht="15.75" customHeight="1">
+      <c r="C641" s="5"/>
+    </row>
+    <row r="642" ht="15.75" customHeight="1">
+      <c r="C642" s="5"/>
+    </row>
+    <row r="643" ht="15.75" customHeight="1">
+      <c r="C643" s="5"/>
+    </row>
+    <row r="644" ht="15.75" customHeight="1">
+      <c r="C644" s="5"/>
+    </row>
+    <row r="645" ht="15.75" customHeight="1">
+      <c r="C645" s="5"/>
+    </row>
+    <row r="646" ht="15.75" customHeight="1">
+      <c r="C646" s="5"/>
+    </row>
+    <row r="647" ht="15.75" customHeight="1">
+      <c r="C647" s="5"/>
+    </row>
+    <row r="648" ht="15.75" customHeight="1">
+      <c r="C648" s="5"/>
+    </row>
+    <row r="649" ht="15.75" customHeight="1">
+      <c r="C649" s="5"/>
+    </row>
+    <row r="650" ht="15.75" customHeight="1">
+      <c r="C650" s="5"/>
+    </row>
+    <row r="651" ht="15.75" customHeight="1">
+      <c r="C651" s="5"/>
+    </row>
+    <row r="652" ht="15.75" customHeight="1">
+      <c r="C652" s="5"/>
+    </row>
+    <row r="653" ht="15.75" customHeight="1">
+      <c r="C653" s="5"/>
+    </row>
+    <row r="654" ht="15.75" customHeight="1">
+      <c r="C654" s="5"/>
+    </row>
+    <row r="655" ht="15.75" customHeight="1">
+      <c r="C655" s="5"/>
+    </row>
+    <row r="656" ht="15.75" customHeight="1">
+      <c r="C656" s="5"/>
+    </row>
+    <row r="657" ht="15.75" customHeight="1">
+      <c r="C657" s="5"/>
+    </row>
+    <row r="658" ht="15.75" customHeight="1">
+      <c r="C658" s="5"/>
+    </row>
+    <row r="659" ht="15.75" customHeight="1">
+      <c r="C659" s="5"/>
+    </row>
+    <row r="660" ht="15.75" customHeight="1">
+      <c r="C660" s="5"/>
+    </row>
+    <row r="661" ht="15.75" customHeight="1">
+      <c r="C661" s="5"/>
+    </row>
+    <row r="662" ht="15.75" customHeight="1">
+      <c r="C662" s="5"/>
+    </row>
+    <row r="663" ht="15.75" customHeight="1">
+      <c r="C663" s="5"/>
+    </row>
+    <row r="664" ht="15.75" customHeight="1">
+      <c r="C664" s="5"/>
+    </row>
+    <row r="665" ht="15.75" customHeight="1">
+      <c r="C665" s="5"/>
+    </row>
+    <row r="666" ht="15.75" customHeight="1">
+      <c r="C666" s="5"/>
+    </row>
+    <row r="667" ht="15.75" customHeight="1">
+      <c r="C667" s="5"/>
+    </row>
+    <row r="668" ht="15.75" customHeight="1">
+      <c r="C668" s="5"/>
+    </row>
+    <row r="669" ht="15.75" customHeight="1">
+      <c r="C669" s="5"/>
+    </row>
+    <row r="670" ht="15.75" customHeight="1">
+      <c r="C670" s="5"/>
+    </row>
+    <row r="671" ht="15.75" customHeight="1">
+      <c r="C671" s="5"/>
+    </row>
+    <row r="672" ht="15.75" customHeight="1">
+      <c r="C672" s="5"/>
+    </row>
+    <row r="673" ht="15.75" customHeight="1">
+      <c r="C673" s="5"/>
+    </row>
+    <row r="674" ht="15.75" customHeight="1">
+      <c r="C674" s="5"/>
+    </row>
+    <row r="675" ht="15.75" customHeight="1">
+      <c r="C675" s="5"/>
+    </row>
+    <row r="676" ht="15.75" customHeight="1">
+      <c r="C676" s="5"/>
+    </row>
+    <row r="677" ht="15.75" customHeight="1">
+      <c r="C677" s="5"/>
+    </row>
+    <row r="678" ht="15.75" customHeight="1">
+      <c r="C678" s="5"/>
+    </row>
+    <row r="679" ht="15.75" customHeight="1">
+      <c r="C679" s="5"/>
+    </row>
+    <row r="680" ht="15.75" customHeight="1">
+      <c r="C680" s="5"/>
+    </row>
+    <row r="681" ht="15.75" customHeight="1">
+      <c r="C681" s="5"/>
+    </row>
+    <row r="682" ht="15.75" customHeight="1">
+      <c r="C682" s="5"/>
+    </row>
+    <row r="683" ht="15.75" customHeight="1">
+      <c r="C683" s="5"/>
+    </row>
+    <row r="684" ht="15.75" customHeight="1">
+      <c r="C684" s="5"/>
+    </row>
+    <row r="685" ht="15.75" customHeight="1">
+      <c r="C685" s="5"/>
+    </row>
+    <row r="686" ht="15.75" customHeight="1">
+      <c r="C686" s="5"/>
+    </row>
+    <row r="687" ht="15.75" customHeight="1">
+      <c r="C687" s="5"/>
+    </row>
+    <row r="688" ht="15.75" customHeight="1">
+      <c r="C688" s="5"/>
+    </row>
+    <row r="689" ht="15.75" customHeight="1">
+      <c r="C689" s="5"/>
+    </row>
+    <row r="690" ht="15.75" customHeight="1">
+      <c r="C690" s="5"/>
+    </row>
+    <row r="691" ht="15.75" customHeight="1">
+      <c r="C691" s="5"/>
+    </row>
+    <row r="692" ht="15.75" customHeight="1">
+      <c r="C692" s="5"/>
+    </row>
+    <row r="693" ht="15.75" customHeight="1">
+      <c r="C693" s="5"/>
+    </row>
+    <row r="694" ht="15.75" customHeight="1">
+      <c r="C694" s="5"/>
+    </row>
+    <row r="695" ht="15.75" customHeight="1">
+      <c r="C695" s="5"/>
+    </row>
+    <row r="696" ht="15.75" customHeight="1">
+      <c r="C696" s="5"/>
+    </row>
+    <row r="697" ht="15.75" customHeight="1">
+      <c r="C697" s="5"/>
+    </row>
+    <row r="698" ht="15.75" customHeight="1">
+      <c r="C698" s="5"/>
+    </row>
+    <row r="699" ht="15.75" customHeight="1">
+      <c r="C699" s="5"/>
+    </row>
+    <row r="700" ht="15.75" customHeight="1">
+      <c r="C700" s="5"/>
+    </row>
+    <row r="701" ht="15.75" customHeight="1">
+      <c r="C701" s="5"/>
+    </row>
+    <row r="702" ht="15.75" customHeight="1">
+      <c r="C702" s="5"/>
+    </row>
+    <row r="703" ht="15.75" customHeight="1">
+      <c r="C703" s="5"/>
+    </row>
+    <row r="704" ht="15.75" customHeight="1">
+      <c r="C704" s="5"/>
+    </row>
+    <row r="705" ht="15.75" customHeight="1">
+      <c r="C705" s="5"/>
+    </row>
+    <row r="706" ht="15.75" customHeight="1">
+      <c r="C706" s="5"/>
+    </row>
+    <row r="707" ht="15.75" customHeight="1">
+      <c r="C707" s="5"/>
+    </row>
+    <row r="708" ht="15.75" customHeight="1">
+      <c r="C708" s="5"/>
+    </row>
+    <row r="709" ht="15.75" customHeight="1">
+      <c r="C709" s="5"/>
+    </row>
+    <row r="710" ht="15.75" customHeight="1">
+      <c r="C710" s="5"/>
+    </row>
+    <row r="711" ht="15.75" customHeight="1">
+      <c r="C711" s="5"/>
+    </row>
+    <row r="712" ht="15.75" customHeight="1">
+      <c r="C712" s="5"/>
+    </row>
+    <row r="713" ht="15.75" customHeight="1">
+      <c r="C713" s="5"/>
+    </row>
+    <row r="714" ht="15.75" customHeight="1">
+      <c r="C714" s="5"/>
+    </row>
+    <row r="715" ht="15.75" customHeight="1">
+      <c r="C715" s="5"/>
+    </row>
+    <row r="716" ht="15.75" customHeight="1">
+      <c r="C716" s="5"/>
+    </row>
+    <row r="717" ht="15.75" customHeight="1">
+      <c r="C717" s="5"/>
+    </row>
+    <row r="718" ht="15.75" customHeight="1">
+      <c r="C718" s="5"/>
+    </row>
+    <row r="719" ht="15.75" customHeight="1">
+      <c r="C719" s="5"/>
+    </row>
+    <row r="720" ht="15.75" customHeight="1">
+      <c r="C720" s="5"/>
+    </row>
+    <row r="721" ht="15.75" customHeight="1">
+      <c r="C721" s="5"/>
+    </row>
+    <row r="722" ht="15.75" customHeight="1">
+      <c r="C722" s="5"/>
+    </row>
+    <row r="723" ht="15.75" customHeight="1">
+      <c r="C723" s="5"/>
+    </row>
+    <row r="724" ht="15.75" customHeight="1">
+      <c r="C724" s="5"/>
+    </row>
+    <row r="725" ht="15.75" customHeight="1">
+      <c r="C725" s="5"/>
+    </row>
+    <row r="726" ht="15.75" customHeight="1">
+      <c r="C726" s="5"/>
+    </row>
+    <row r="727" ht="15.75" customHeight="1">
+      <c r="C727" s="5"/>
+    </row>
+    <row r="728" ht="15.75" customHeight="1">
+      <c r="C728" s="5"/>
+    </row>
+    <row r="729" ht="15.75" customHeight="1">
+      <c r="C729" s="5"/>
+    </row>
+    <row r="730" ht="15.75" customHeight="1">
+      <c r="C730" s="5"/>
+    </row>
+    <row r="731" ht="15.75" customHeight="1">
+      <c r="C731" s="5"/>
+    </row>
+    <row r="732" ht="15.75" customHeight="1">
+      <c r="C732" s="5"/>
+    </row>
+    <row r="733" ht="15.75" customHeight="1">
+      <c r="C733" s="5"/>
+    </row>
+    <row r="734" ht="15.75" customHeight="1">
+      <c r="C734" s="5"/>
+    </row>
+    <row r="735" ht="15.75" customHeight="1">
+      <c r="C735" s="5"/>
+    </row>
+    <row r="736" ht="15.75" customHeight="1">
+      <c r="C736" s="5"/>
+    </row>
+    <row r="737" ht="15.75" customHeight="1">
+      <c r="C737" s="5"/>
+    </row>
+    <row r="738" ht="15.75" customHeight="1">
+      <c r="C738" s="5"/>
+    </row>
+    <row r="739" ht="15.75" customHeight="1">
+      <c r="C739" s="5"/>
+    </row>
+    <row r="740" ht="15.75" customHeight="1">
+      <c r="C740" s="5"/>
+    </row>
+    <row r="741" ht="15.75" customHeight="1">
+      <c r="C741" s="5"/>
+    </row>
+    <row r="742" ht="15.75" customHeight="1">
+      <c r="C742" s="5"/>
+    </row>
+    <row r="743" ht="15.75" customHeight="1">
+      <c r="C743" s="5"/>
+    </row>
+    <row r="744" ht="15.75" customHeight="1">
+      <c r="C744" s="5"/>
+    </row>
+    <row r="745" ht="15.75" customHeight="1">
+      <c r="C745" s="5"/>
+    </row>
+    <row r="746" ht="15.75" customHeight="1">
+      <c r="C746" s="5"/>
+    </row>
+    <row r="747" ht="15.75" customHeight="1">
+      <c r="C747" s="5"/>
+    </row>
+    <row r="748" ht="15.75" customHeight="1">
+      <c r="C748" s="5"/>
+    </row>
+    <row r="749" ht="15.75" customHeight="1">
+      <c r="C749" s="5"/>
+    </row>
+    <row r="750" ht="15.75" customHeight="1">
+      <c r="C750" s="5"/>
+    </row>
+    <row r="751" ht="15.75" customHeight="1">
+      <c r="C751" s="5"/>
+    </row>
+    <row r="752" ht="15.75" customHeight="1">
+      <c r="C752" s="5"/>
+    </row>
+    <row r="753" ht="15.75" customHeight="1">
+      <c r="C753" s="5"/>
+    </row>
+    <row r="754" ht="15.75" customHeight="1">
+      <c r="C754" s="5"/>
+    </row>
+    <row r="755" ht="15.75" customHeight="1">
+      <c r="C755" s="5"/>
+    </row>
+    <row r="756" ht="15.75" customHeight="1">
+      <c r="C756" s="5"/>
+    </row>
+    <row r="757" ht="15.75" customHeight="1">
+      <c r="C757" s="5"/>
+    </row>
+    <row r="758" ht="15.75" customHeight="1">
+      <c r="C758" s="5"/>
+    </row>
+    <row r="759" ht="15.75" customHeight="1">
+      <c r="C759" s="5"/>
+    </row>
+    <row r="760" ht="15.75" customHeight="1">
+      <c r="C760" s="5"/>
+    </row>
+    <row r="761" ht="15.75" customHeight="1">
+      <c r="C761" s="5"/>
+    </row>
+    <row r="762" ht="15.75" customHeight="1">
+      <c r="C762" s="5"/>
+    </row>
+    <row r="763" ht="15.75" customHeight="1">
+      <c r="C763" s="5"/>
+    </row>
+    <row r="764" ht="15.75" customHeight="1">
+      <c r="C764" s="5"/>
+    </row>
+    <row r="765" ht="15.75" customHeight="1">
+      <c r="C765" s="5"/>
+    </row>
+    <row r="766" ht="15.75" customHeight="1">
+      <c r="C766" s="5"/>
+    </row>
+    <row r="767" ht="15.75" customHeight="1">
+      <c r="C767" s="5"/>
+    </row>
+    <row r="768" ht="15.75" customHeight="1">
+      <c r="C768" s="5"/>
+    </row>
+    <row r="769" ht="15.75" customHeight="1">
+      <c r="C769" s="5"/>
+    </row>
+    <row r="770" ht="15.75" customHeight="1">
+      <c r="C770" s="5"/>
+    </row>
+    <row r="771" ht="15.75" customHeight="1">
+      <c r="C771" s="5"/>
+    </row>
+    <row r="772" ht="15.75" customHeight="1">
+      <c r="C772" s="5"/>
+    </row>
+    <row r="773" ht="15.75" customHeight="1">
+      <c r="C773" s="5"/>
+    </row>
+    <row r="774" ht="15.75" customHeight="1">
+      <c r="C774" s="5"/>
+    </row>
+    <row r="775" ht="15.75" customHeight="1">
+      <c r="C775" s="5"/>
+    </row>
+    <row r="776" ht="15.75" customHeight="1">
+      <c r="C776" s="5"/>
+    </row>
+    <row r="777" ht="15.75" customHeight="1">
+      <c r="C777" s="5"/>
+    </row>
+    <row r="778" ht="15.75" customHeight="1">
+      <c r="C778" s="5"/>
+    </row>
+    <row r="779" ht="15.75" customHeight="1">
+      <c r="C779" s="5"/>
+    </row>
+    <row r="780" ht="15.75" customHeight="1">
+      <c r="C780" s="5"/>
+    </row>
+    <row r="781" ht="15.75" customHeight="1">
+      <c r="C781" s="5"/>
+    </row>
+    <row r="782" ht="15.75" customHeight="1">
+      <c r="C782" s="5"/>
+    </row>
+    <row r="783" ht="15.75" customHeight="1">
+      <c r="C783" s="5"/>
+    </row>
+    <row r="784" ht="15.75" customHeight="1">
+      <c r="C784" s="5"/>
+    </row>
+    <row r="785" ht="15.75" customHeight="1">
+      <c r="C785" s="5"/>
+    </row>
+    <row r="786" ht="15.75" customHeight="1">
+      <c r="C786" s="5"/>
+    </row>
+    <row r="787" ht="15.75" customHeight="1">
+      <c r="C787" s="5"/>
+    </row>
+    <row r="788" ht="15.75" customHeight="1">
+      <c r="C788" s="5"/>
+    </row>
+    <row r="789" ht="15.75" customHeight="1">
+      <c r="C789" s="5"/>
+    </row>
+    <row r="790" ht="15.75" customHeight="1">
+      <c r="C790" s="5"/>
+    </row>
+    <row r="791" ht="15.75" customHeight="1">
+      <c r="C791" s="5"/>
+    </row>
+    <row r="792" ht="15.75" customHeight="1">
+      <c r="C792" s="5"/>
+    </row>
+    <row r="793" ht="15.75" customHeight="1">
+      <c r="C793" s="5"/>
+    </row>
+    <row r="794" ht="15.75" customHeight="1">
+      <c r="C794" s="5"/>
+    </row>
+    <row r="795" ht="15.75" customHeight="1">
+      <c r="C795" s="5"/>
+    </row>
+    <row r="796" ht="15.75" customHeight="1">
+      <c r="C796" s="5"/>
+    </row>
+    <row r="797" ht="15.75" customHeight="1">
+      <c r="C797" s="5"/>
+    </row>
+    <row r="798" ht="15.75" customHeight="1">
+      <c r="C798" s="5"/>
+    </row>
+    <row r="799" ht="15.75" customHeight="1">
+      <c r="C799" s="5"/>
+    </row>
+    <row r="800" ht="15.75" customHeight="1">
+      <c r="C800" s="5"/>
+    </row>
+    <row r="801" ht="15.75" customHeight="1">
+      <c r="C801" s="5"/>
+    </row>
+    <row r="802" ht="15.75" customHeight="1">
+      <c r="C802" s="5"/>
+    </row>
+    <row r="803" ht="15.75" customHeight="1">
+      <c r="C803" s="5"/>
+    </row>
+    <row r="804" ht="15.75" customHeight="1">
+      <c r="C804" s="5"/>
+    </row>
+    <row r="805" ht="15.75" customHeight="1">
+      <c r="C805" s="5"/>
+    </row>
+    <row r="806" ht="15.75" customHeight="1">
+      <c r="C806" s="5"/>
+    </row>
+    <row r="807" ht="15.75" customHeight="1">
+      <c r="C807" s="5"/>
+    </row>
+    <row r="808" ht="15.75" customHeight="1">
+      <c r="C808" s="5"/>
+    </row>
+    <row r="809" ht="15.75" customHeight="1">
+      <c r="C809" s="5"/>
+    </row>
+    <row r="810" ht="15.75" customHeight="1">
+      <c r="C810" s="5"/>
+    </row>
+    <row r="811" ht="15.75" customHeight="1">
+      <c r="C811" s="5"/>
+    </row>
+    <row r="812" ht="15.75" customHeight="1">
+      <c r="C812" s="5"/>
+    </row>
+    <row r="813" ht="15.75" customHeight="1">
+      <c r="C813" s="5"/>
+    </row>
+    <row r="814" ht="15.75" customHeight="1">
+      <c r="C814" s="5"/>
+    </row>
+    <row r="815" ht="15.75" customHeight="1">
+      <c r="C815" s="5"/>
+    </row>
+    <row r="816" ht="15.75" customHeight="1">
+      <c r="C816" s="5"/>
+    </row>
+    <row r="817" ht="15.75" customHeight="1">
+      <c r="C817" s="5"/>
+    </row>
+    <row r="818" ht="15.75" customHeight="1">
+      <c r="C818" s="5"/>
+    </row>
+    <row r="819" ht="15.75" customHeight="1">
+      <c r="C819" s="5"/>
+    </row>
+    <row r="820" ht="15.75" customHeight="1">
+      <c r="C820" s="5"/>
+    </row>
+    <row r="821" ht="15.75" customHeight="1">
+      <c r="C821" s="5"/>
+    </row>
+    <row r="822" ht="15.75" customHeight="1">
+      <c r="C822" s="5"/>
+    </row>
+    <row r="823" ht="15.75" customHeight="1">
+      <c r="C823" s="5"/>
+    </row>
+    <row r="824" ht="15.75" customHeight="1">
+      <c r="C824" s="5"/>
+    </row>
+    <row r="825" ht="15.75" customHeight="1">
+      <c r="C825" s="5"/>
+    </row>
+    <row r="826" ht="15.75" customHeight="1">
+      <c r="C826" s="5"/>
+    </row>
+    <row r="827" ht="15.75" customHeight="1">
+      <c r="C827" s="5"/>
+    </row>
+    <row r="828" ht="15.75" customHeight="1">
+      <c r="C828" s="5"/>
+    </row>
+    <row r="829" ht="15.75" customHeight="1">
+      <c r="C829" s="5"/>
+    </row>
+    <row r="830" ht="15.75" customHeight="1">
+      <c r="C830" s="5"/>
+    </row>
+    <row r="831" ht="15.75" customHeight="1">
+      <c r="C831" s="5"/>
+    </row>
+    <row r="832" ht="15.75" customHeight="1">
+      <c r="C832" s="5"/>
+    </row>
+    <row r="833" ht="15.75" customHeight="1">
+      <c r="C833" s="5"/>
+    </row>
+    <row r="834" ht="15.75" customHeight="1">
+      <c r="C834" s="5"/>
+    </row>
+    <row r="835" ht="15.75" customHeight="1">
+      <c r="C835" s="5"/>
+    </row>
+    <row r="836" ht="15.75" customHeight="1">
+      <c r="C836" s="5"/>
+    </row>
+    <row r="837" ht="15.75" customHeight="1">
+      <c r="C837" s="5"/>
+    </row>
+    <row r="838" ht="15.75" customHeight="1">
+      <c r="C838" s="5"/>
+    </row>
+    <row r="839" ht="15.75" customHeight="1">
+      <c r="C839" s="5"/>
+    </row>
+    <row r="840" ht="15.75" customHeight="1">
+      <c r="C840" s="5"/>
+    </row>
+    <row r="841" ht="15.75" customHeight="1">
+      <c r="C841" s="5"/>
+    </row>
+    <row r="842" ht="15.75" customHeight="1">
+      <c r="C842" s="5"/>
+    </row>
+    <row r="843" ht="15.75" customHeight="1">
+      <c r="C843" s="5"/>
+    </row>
+    <row r="844" ht="15.75" customHeight="1">
+      <c r="C844" s="5"/>
+    </row>
+    <row r="845" ht="15.75" customHeight="1">
+      <c r="C845" s="5"/>
+    </row>
+    <row r="846" ht="15.75" customHeight="1">
+      <c r="C846" s="5"/>
+    </row>
+    <row r="847" ht="15.75" customHeight="1">
+      <c r="C847" s="5"/>
+    </row>
+    <row r="848" ht="15.75" customHeight="1">
+      <c r="C848" s="5"/>
+    </row>
+    <row r="849" ht="15.75" customHeight="1">
+      <c r="C849" s="5"/>
+    </row>
+    <row r="850" ht="15.75" customHeight="1">
+      <c r="C850" s="5"/>
+    </row>
+    <row r="851" ht="15.75" customHeight="1">
+      <c r="C851" s="5"/>
+    </row>
+    <row r="852" ht="15.75" customHeight="1">
+      <c r="C852" s="5"/>
+    </row>
+    <row r="853" ht="15.75" customHeight="1">
+      <c r="C853" s="5"/>
+    </row>
+    <row r="854" ht="15.75" customHeight="1">
+      <c r="C854" s="5"/>
+    </row>
+    <row r="855" ht="15.75" customHeight="1">
+      <c r="C855" s="5"/>
+    </row>
+    <row r="856" ht="15.75" customHeight="1">
+      <c r="C856" s="5"/>
+    </row>
+    <row r="857" ht="15.75" customHeight="1">
+      <c r="C857" s="5"/>
+    </row>
+    <row r="858" ht="15.75" customHeight="1">
+      <c r="C858" s="5"/>
+    </row>
+    <row r="859" ht="15.75" customHeight="1">
+      <c r="C859" s="5"/>
+    </row>
+    <row r="860" ht="15.75" customHeight="1">
+      <c r="C860" s="5"/>
+    </row>
+    <row r="861" ht="15.75" customHeight="1">
+      <c r="C861" s="5"/>
+    </row>
+    <row r="862" ht="15.75" customHeight="1">
+      <c r="C862" s="5"/>
+    </row>
+    <row r="863" ht="15.75" customHeight="1">
+      <c r="C863" s="5"/>
+    </row>
+    <row r="864" ht="15.75" customHeight="1">
+      <c r="C864" s="5"/>
+    </row>
+    <row r="865" ht="15.75" customHeight="1">
+      <c r="C865" s="5"/>
+    </row>
+    <row r="866" ht="15.75" customHeight="1">
+      <c r="C866" s="5"/>
+    </row>
+    <row r="867" ht="15.75" customHeight="1">
+      <c r="C867" s="5"/>
+    </row>
+    <row r="868" ht="15.75" customHeight="1">
+      <c r="C868" s="5"/>
+    </row>
+    <row r="869" ht="15.75" customHeight="1">
+      <c r="C869" s="5"/>
+    </row>
+    <row r="870" ht="15.75" customHeight="1">
+      <c r="C870" s="5"/>
+    </row>
+    <row r="871" ht="15.75" customHeight="1">
+      <c r="C871" s="5"/>
+    </row>
+    <row r="872" ht="15.75" customHeight="1">
+      <c r="C872" s="5"/>
+    </row>
+    <row r="873" ht="15.75" customHeight="1">
+      <c r="C873" s="5"/>
+    </row>
+    <row r="874" ht="15.75" customHeight="1">
+      <c r="C874" s="5"/>
+    </row>
+    <row r="875" ht="15.75" customHeight="1">
+      <c r="C875" s="5"/>
+    </row>
+    <row r="876" ht="15.75" customHeight="1">
+      <c r="C876" s="5"/>
+    </row>
+    <row r="877" ht="15.75" customHeight="1">
+      <c r="C877" s="5"/>
+    </row>
+    <row r="878" ht="15.75" customHeight="1">
+      <c r="C878" s="5"/>
+    </row>
+    <row r="879" ht="15.75" customHeight="1">
+      <c r="C879" s="5"/>
+    </row>
+    <row r="880" ht="15.75" customHeight="1">
+      <c r="C880" s="5"/>
+    </row>
+    <row r="881" ht="15.75" customHeight="1">
+      <c r="C881" s="5"/>
+    </row>
+    <row r="882" ht="15.75" customHeight="1">
+      <c r="C882" s="5"/>
+    </row>
+    <row r="883" ht="15.75" customHeight="1">
+      <c r="C883" s="5"/>
+    </row>
+    <row r="884" ht="15.75" customHeight="1">
+      <c r="C884" s="5"/>
+    </row>
+    <row r="885" ht="15.75" customHeight="1">
+      <c r="C885" s="5"/>
+    </row>
+    <row r="886" ht="15.75" customHeight="1">
+      <c r="C886" s="5"/>
+    </row>
+    <row r="887" ht="15.75" customHeight="1">
+      <c r="C887" s="5"/>
+    </row>
+    <row r="888" ht="15.75" customHeight="1">
+      <c r="C888" s="5"/>
+    </row>
+    <row r="889" ht="15.75" customHeight="1">
+      <c r="C889" s="5"/>
+    </row>
+    <row r="890" ht="15.75" customHeight="1">
+      <c r="C890" s="5"/>
+    </row>
+    <row r="891" ht="15.75" customHeight="1">
+      <c r="C891" s="5"/>
+    </row>
+    <row r="892" ht="15.75" customHeight="1">
+      <c r="C892" s="5"/>
+    </row>
+    <row r="893" ht="15.75" customHeight="1">
+      <c r="C893" s="5"/>
+    </row>
+    <row r="894" ht="15.75" customHeight="1">
+      <c r="C894" s="5"/>
+    </row>
+    <row r="895" ht="15.75" customHeight="1">
+      <c r="C895" s="5"/>
+    </row>
+    <row r="896" ht="15.75" customHeight="1">
+      <c r="C896" s="5"/>
+    </row>
+    <row r="897" ht="15.75" customHeight="1">
+      <c r="C897" s="5"/>
+    </row>
+    <row r="898" ht="15.75" customHeight="1">
+      <c r="C898" s="5"/>
+    </row>
+    <row r="899" ht="15.75" customHeight="1">
+      <c r="C899" s="5"/>
+    </row>
+    <row r="900" ht="15.75" customHeight="1">
+      <c r="C900" s="5"/>
+    </row>
+    <row r="901" ht="15.75" customHeight="1">
+      <c r="C901" s="5"/>
+    </row>
+    <row r="902" ht="15.75" customHeight="1">
+      <c r="C902" s="5"/>
+    </row>
+    <row r="903" ht="15.75" customHeight="1">
+      <c r="C903" s="5"/>
+    </row>
+    <row r="904" ht="15.75" customHeight="1">
+      <c r="C904" s="5"/>
+    </row>
+    <row r="905" ht="15.75" customHeight="1">
+      <c r="C905" s="5"/>
+    </row>
+    <row r="906" ht="15.75" customHeight="1">
+      <c r="C906" s="5"/>
+    </row>
+    <row r="907" ht="15.75" customHeight="1">
+      <c r="C907" s="5"/>
+    </row>
+    <row r="908" ht="15.75" customHeight="1">
+      <c r="C908" s="5"/>
+    </row>
+    <row r="909" ht="15.75" customHeight="1">
+      <c r="C909" s="5"/>
+    </row>
+    <row r="910" ht="15.75" customHeight="1">
+      <c r="C910" s="5"/>
+    </row>
+    <row r="911" ht="15.75" customHeight="1">
+      <c r="C911" s="5"/>
+    </row>
+    <row r="912" ht="15.75" customHeight="1">
+      <c r="C912" s="5"/>
+    </row>
+    <row r="913" ht="15.75" customHeight="1">
+      <c r="C913" s="5"/>
+    </row>
+    <row r="914" ht="15.75" customHeight="1">
+      <c r="C914" s="5"/>
+    </row>
+    <row r="915" ht="15.75" customHeight="1">
+      <c r="C915" s="5"/>
+    </row>
+    <row r="916" ht="15.75" customHeight="1">
+      <c r="C916" s="5"/>
+    </row>
+    <row r="917" ht="15.75" customHeight="1">
+      <c r="C917" s="5"/>
+    </row>
+    <row r="918" ht="15.75" customHeight="1">
+      <c r="C918" s="5"/>
+    </row>
+    <row r="919" ht="15.75" customHeight="1">
+      <c r="C919" s="5"/>
+    </row>
+    <row r="920" ht="15.75" customHeight="1">
+      <c r="C920" s="5"/>
+    </row>
+    <row r="921" ht="15.75" customHeight="1">
+      <c r="C921" s="5"/>
+    </row>
+    <row r="922" ht="15.75" customHeight="1">
+      <c r="C922" s="5"/>
+    </row>
+    <row r="923" ht="15.75" customHeight="1">
+      <c r="C923" s="5"/>
+    </row>
+    <row r="924" ht="15.75" customHeight="1">
+      <c r="C924" s="5"/>
+    </row>
+    <row r="925" ht="15.75" customHeight="1">
+      <c r="C925" s="5"/>
+    </row>
+    <row r="926" ht="15.75" customHeight="1">
+      <c r="C926" s="5"/>
+    </row>
+    <row r="927" ht="15.75" customHeight="1">
+      <c r="C927" s="5"/>
+    </row>
+    <row r="928" ht="15.75" customHeight="1">
+      <c r="C928" s="5"/>
+    </row>
+    <row r="929" ht="15.75" customHeight="1">
+      <c r="C929" s="5"/>
+    </row>
+    <row r="930" ht="15.75" customHeight="1">
+      <c r="C930" s="5"/>
+    </row>
+    <row r="931" ht="15.75" customHeight="1">
+      <c r="C931" s="5"/>
+    </row>
+    <row r="932" ht="15.75" customHeight="1">
+      <c r="C932" s="5"/>
+    </row>
+    <row r="933" ht="15.75" customHeight="1">
+      <c r="C933" s="5"/>
+    </row>
+    <row r="934" ht="15.75" customHeight="1">
+      <c r="C934" s="5"/>
+    </row>
+    <row r="935" ht="15.75" customHeight="1">
+      <c r="C935" s="5"/>
+    </row>
+    <row r="936" ht="15.75" customHeight="1">
+      <c r="C936" s="5"/>
+    </row>
+    <row r="937" ht="15.75" customHeight="1">
+      <c r="C937" s="5"/>
+    </row>
+    <row r="938" ht="15.75" customHeight="1">
+      <c r="C938" s="5"/>
+    </row>
+    <row r="939" ht="15.75" customHeight="1">
+      <c r="C939" s="5"/>
+    </row>
+    <row r="940" ht="15.75" customHeight="1">
+      <c r="C940" s="5"/>
+    </row>
+    <row r="941" ht="15.75" customHeight="1">
+      <c r="C941" s="5"/>
+    </row>
+    <row r="942" ht="15.75" customHeight="1">
+      <c r="C942" s="5"/>
+    </row>
+    <row r="943" ht="15.75" customHeight="1">
+      <c r="C943" s="5"/>
+    </row>
+    <row r="944" ht="15.75" customHeight="1">
+      <c r="C944" s="5"/>
+    </row>
+    <row r="945" ht="15.75" customHeight="1">
+      <c r="C945" s="5"/>
+    </row>
+    <row r="946" ht="15.75" customHeight="1">
+      <c r="C946" s="5"/>
+    </row>
+    <row r="947" ht="15.75" customHeight="1">
+      <c r="C947" s="5"/>
+    </row>
+    <row r="948" ht="15.75" customHeight="1">
+      <c r="C948" s="5"/>
+    </row>
+    <row r="949" ht="15.75" customHeight="1">
+      <c r="C949" s="5"/>
+    </row>
+    <row r="950" ht="15.75" customHeight="1">
+      <c r="C950" s="5"/>
+    </row>
+    <row r="951" ht="15.75" customHeight="1">
+      <c r="C951" s="5"/>
+    </row>
+    <row r="952" ht="15.75" customHeight="1">
+      <c r="C952" s="5"/>
+    </row>
+    <row r="953" ht="15.75" customHeight="1">
+      <c r="C953" s="5"/>
+    </row>
+    <row r="954" ht="15.75" customHeight="1">
+      <c r="C954" s="5"/>
+    </row>
+    <row r="955" ht="15.75" customHeight="1">
+      <c r="C955" s="5"/>
+    </row>
+    <row r="956" ht="15.75" customHeight="1">
+      <c r="C956" s="5"/>
+    </row>
+    <row r="957" ht="15.75" customHeight="1">
+      <c r="C957" s="5"/>
+    </row>
+    <row r="958" ht="15.75" customHeight="1">
+      <c r="C958" s="5"/>
+    </row>
+    <row r="959" ht="15.75" customHeight="1">
+      <c r="C959" s="5"/>
+    </row>
+    <row r="960" ht="15.75" customHeight="1">
+      <c r="C960" s="5"/>
+    </row>
+    <row r="961" ht="15.75" customHeight="1">
+      <c r="C961" s="5"/>
+    </row>
+    <row r="962" ht="15.75" customHeight="1">
+      <c r="C962" s="5"/>
+    </row>
+    <row r="963" ht="15.75" customHeight="1">
+      <c r="C963" s="5"/>
+    </row>
+    <row r="964" ht="15.75" customHeight="1">
+      <c r="C964" s="5"/>
+    </row>
+    <row r="965" ht="15.75" customHeight="1">
+      <c r="C965" s="5"/>
+    </row>
+    <row r="966" ht="15.75" customHeight="1">
+      <c r="C966" s="5"/>
+    </row>
+    <row r="967" ht="15.75" customHeight="1">
+      <c r="C967" s="5"/>
+    </row>
+    <row r="968" ht="15.75" customHeight="1">
+      <c r="C968" s="5"/>
+    </row>
+    <row r="969" ht="15.75" customHeight="1">
+      <c r="C969" s="5"/>
+    </row>
+    <row r="970" ht="15.75" customHeight="1">
+      <c r="C970" s="5"/>
+    </row>
+    <row r="971" ht="15.75" customHeight="1">
+      <c r="C971" s="5"/>
+    </row>
+    <row r="972" ht="15.75" customHeight="1">
+      <c r="C972" s="5"/>
+    </row>
+    <row r="973" ht="15.75" customHeight="1">
+      <c r="C973" s="5"/>
+    </row>
+    <row r="974" ht="15.75" customHeight="1">
+      <c r="C974" s="5"/>
+    </row>
+    <row r="975" ht="15.75" customHeight="1">
+      <c r="C975" s="5"/>
+    </row>
+    <row r="976" ht="15.75" customHeight="1">
+      <c r="C976" s="5"/>
+    </row>
+    <row r="977" ht="15.75" customHeight="1">
+      <c r="C977" s="5"/>
+    </row>
+    <row r="978" ht="15.75" customHeight="1">
+      <c r="C978" s="5"/>
+    </row>
+    <row r="979" ht="15.75" customHeight="1">
+      <c r="C979" s="5"/>
+    </row>
+    <row r="980" ht="15.75" customHeight="1">
+      <c r="C980" s="5"/>
+    </row>
+    <row r="981" ht="15.75" customHeight="1">
+      <c r="C981" s="5"/>
+    </row>
+    <row r="982" ht="15.75" customHeight="1">
+      <c r="C982" s="5"/>
+    </row>
+    <row r="983" ht="15.75" customHeight="1">
+      <c r="C983" s="5"/>
+    </row>
+    <row r="984" ht="15.75" customHeight="1">
+      <c r="C984" s="5"/>
+    </row>
+    <row r="985" ht="15.75" customHeight="1">
+      <c r="C985" s="5"/>
+    </row>
+    <row r="986" ht="15.75" customHeight="1">
+      <c r="C986" s="5"/>
+    </row>
+    <row r="987" ht="15.75" customHeight="1">
+      <c r="C987" s="5"/>
+    </row>
+    <row r="988" ht="15.75" customHeight="1">
+      <c r="C988" s="5"/>
+    </row>
+    <row r="989" ht="15.75" customHeight="1">
+      <c r="C989" s="5"/>
+    </row>
+    <row r="990" ht="15.75" customHeight="1">
+      <c r="C990" s="5"/>
+    </row>
+    <row r="991" ht="15.75" customHeight="1">
+      <c r="C991" s="5"/>
+    </row>
+    <row r="992" ht="15.75" customHeight="1">
+      <c r="C992" s="5"/>
+    </row>
+    <row r="993" ht="15.75" customHeight="1">
+      <c r="C993" s="5"/>
+    </row>
+    <row r="994" ht="15.75" customHeight="1">
+      <c r="C994" s="5"/>
+    </row>
+    <row r="995" ht="15.75" customHeight="1">
+      <c r="C995" s="5"/>
+    </row>
+    <row r="996" ht="15.75" customHeight="1">
+      <c r="C996" s="5"/>
+    </row>
+    <row r="997" ht="15.75" customHeight="1">
+      <c r="C997" s="5"/>
+    </row>
+    <row r="998" ht="15.75" customHeight="1">
+      <c r="C998" s="5"/>
+    </row>
+    <row r="999" ht="15.75" customHeight="1">
+      <c r="C999" s="5"/>
+    </row>
+    <row r="1000" ht="15.75" customHeight="1">
+      <c r="C1000" s="5"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>